--- a/_data/Radar Sites/Radar Site Data.xlsx
+++ b/_data/Radar Sites/Radar Site Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luke1\source\repos\VATSIM-UK\UK-Sector-File\_data\Radar Sites\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CC6E6D-40CF-4E57-963A-1A121948E8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2F2AAB-8463-40D5-9105-0E573C65B449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="296">
   <si>
     <t>Name</t>
   </si>
@@ -91,180 +91,90 @@
     <t>W002.59.27.000</t>
   </si>
   <si>
-    <t>Belfast City Airport</t>
-  </si>
-  <si>
     <t>Belfast International</t>
   </si>
   <si>
     <t>W006.12.22.000</t>
   </si>
   <si>
-    <t>Birmingham International Airport</t>
-  </si>
-  <si>
     <t>W001.45.23.000</t>
   </si>
   <si>
-    <t>Bournemouth International Airport</t>
-  </si>
-  <si>
-    <t>Bristol Airport</t>
-  </si>
-  <si>
     <t>W002.43.03.000</t>
   </si>
   <si>
-    <t>Cambridge Airport</t>
-  </si>
-  <si>
     <t>E000.10.39.000</t>
   </si>
   <si>
-    <t>Cardiff International Airport</t>
-  </si>
-  <si>
     <t>W003.21.09.000</t>
   </si>
   <si>
-    <t>Coventry Airport</t>
-  </si>
-  <si>
     <t>W001.28.52.000</t>
   </si>
   <si>
-    <t>Durham Tees Valley Airport</t>
-  </si>
-  <si>
     <t>W001.24.42.000</t>
   </si>
   <si>
-    <t>East Midlands International Airport</t>
-  </si>
-  <si>
     <t>W001.19.52.000</t>
   </si>
   <si>
-    <t>Edinburgh Airport</t>
-  </si>
-  <si>
     <t>W003.22.45.000</t>
   </si>
   <si>
-    <t>Exeter &amp; Devon Airport</t>
-  </si>
-  <si>
     <t>W003.25.02.000</t>
   </si>
   <si>
-    <t>Farnborough Aerodrome</t>
-  </si>
-  <si>
     <t>W000.46.26.000</t>
   </si>
   <si>
-    <t>Glasgow Airport</t>
-  </si>
-  <si>
-    <t>Glasgow Prestwick Inter Airport</t>
-  </si>
-  <si>
     <t>W004.35.00.000</t>
   </si>
   <si>
-    <t>Hawarden Airport</t>
-  </si>
-  <si>
     <t>W002.59.09.000</t>
   </si>
   <si>
-    <t>Humberside Airport</t>
-  </si>
-  <si>
     <t>W000.20.29.000</t>
   </si>
   <si>
-    <t>Inverness Airport</t>
-  </si>
-  <si>
     <t>W004.02.50.000</t>
   </si>
   <si>
-    <t>Leeds Bradford International Airport</t>
-  </si>
-  <si>
     <t>W001.39.10.000</t>
   </si>
   <si>
-    <t>Liverpool Airport</t>
-  </si>
-  <si>
     <t>W002.51.32.000</t>
   </si>
   <si>
-    <t>London Gatwick Airport</t>
-  </si>
-  <si>
     <t>W000.10.38.000</t>
   </si>
   <si>
-    <t>London Heathrow Airport</t>
-  </si>
-  <si>
     <t>W000.26.22.000</t>
   </si>
   <si>
-    <t>London Southend Airport</t>
-  </si>
-  <si>
     <t>E000.42.02.000</t>
   </si>
   <si>
-    <t>London Stansted Airport</t>
-  </si>
-  <si>
     <t>E000.13.49.000</t>
   </si>
   <si>
-    <t>Manchester Airport</t>
-  </si>
-  <si>
     <t>W002.16.58.000</t>
   </si>
   <si>
-    <t>Newcastle International Airport</t>
-  </si>
-  <si>
     <t>W001.41.27.000</t>
   </si>
   <si>
-    <t>Newquay Cornwall Airport</t>
-  </si>
-  <si>
     <t>W005.00.35.000</t>
   </si>
   <si>
-    <t>Norwich Airport</t>
-  </si>
-  <si>
     <t>E001.16.52.000</t>
   </si>
   <si>
-    <t>Oxford Airport</t>
-  </si>
-  <si>
     <t>W001.19.39.000</t>
   </si>
   <si>
-    <t>Southampton International Airport</t>
-  </si>
-  <si>
     <t>W001.21.10.000</t>
   </si>
   <si>
-    <t>Sumburgh Airport</t>
-  </si>
-  <si>
     <t>W001.16.23.000</t>
   </si>
   <si>
@@ -304,9 +214,6 @@
     <t>W000.09.22.345</t>
   </si>
   <si>
-    <t>Cosford T101</t>
-  </si>
-  <si>
     <t>W002.19.19.960</t>
   </si>
   <si>
@@ -337,12 +244,6 @@
     <t>W001.32.42.036</t>
   </si>
   <si>
-    <t>Leeming Test Rig</t>
-  </si>
-  <si>
-    <t>W001.31.35.000</t>
-  </si>
-  <si>
     <t>Leuchars</t>
   </si>
   <si>
@@ -412,9 +313,6 @@
     <t>W000.26.00.000</t>
   </si>
   <si>
-    <t>RRH Trimingham</t>
-  </si>
-  <si>
     <t>E001.24.02.000</t>
   </si>
   <si>
@@ -601,24 +499,6 @@
     <t>LoN0gitude</t>
   </si>
   <si>
-    <t>P raN0ge</t>
-  </si>
-  <si>
-    <t>P coN0e slope</t>
-  </si>
-  <si>
-    <t>S raN0ge</t>
-  </si>
-  <si>
-    <t>S coN0e slope</t>
-  </si>
-  <si>
-    <t>C raN0ge</t>
-  </si>
-  <si>
-    <t>C coN0e slope</t>
-  </si>
-  <si>
     <t>N052.07.31.868</t>
   </si>
   <si>
@@ -655,9 +535,6 @@
     <t>N054.17.42.720</t>
   </si>
   <si>
-    <t>N054.17.26.000</t>
-  </si>
-  <si>
     <t>N056.22.47.000</t>
   </si>
   <si>
@@ -748,9 +625,6 @@
     <t>Belfast NERL</t>
   </si>
   <si>
-    <t>Inaccurate Range (Type + Rotation Speed)</t>
-  </si>
-  <si>
     <t>Bovingdon</t>
   </si>
   <si>
@@ -760,9 +634,6 @@
     <t>W000.32.27.900</t>
   </si>
   <si>
-    <t>Inaccurate Range (Rotation Speed)</t>
-  </si>
-  <si>
     <t>Burrington</t>
   </si>
   <si>
@@ -820,9 +691,6 @@
     <t>NERL SSR data only (PSR to Belfast)</t>
   </si>
   <si>
-    <t>Copy of Kincardine Fill-In radar</t>
-  </si>
-  <si>
     <t>Cumbernauld</t>
   </si>
   <si>
@@ -844,9 +712,6 @@
     <t>W001.22.57.060</t>
   </si>
   <si>
-    <t>Guessed Range. Mode S?</t>
-  </si>
-  <si>
     <t>Great Dun Fell</t>
   </si>
   <si>
@@ -895,9 +760,6 @@
     <t>W006.21.28.500</t>
   </si>
   <si>
-    <t>Guessed Range. PSR?</t>
-  </si>
-  <si>
     <t>Tiree</t>
   </si>
   <si>
@@ -917,6 +779,150 @@
   </si>
   <si>
     <t>W002.12.08.750</t>
+  </si>
+  <si>
+    <t>PSR In-fill</t>
+  </si>
+  <si>
+    <t>PSR In-fill Maybe disused as was in-fill for Doncaster</t>
+  </si>
+  <si>
+    <t>No PSR</t>
+  </si>
+  <si>
+    <t>LON:SCO:STC:MAN</t>
+  </si>
+  <si>
+    <t>LON:LTC:EGLL:EGKK:EGSS:EGGW:ESSEX:ESX:THAMES</t>
+  </si>
+  <si>
+    <t>Swanwick Multi Feed users</t>
+  </si>
+  <si>
+    <t>LON:LTC:EGLL:EGKK:EGSS:ESSEX:ESX:EGGW:THAMES:</t>
+  </si>
+  <si>
+    <t>Prestwick Multi Feed users</t>
+  </si>
+  <si>
+    <t>SCO:STC:MAN:</t>
+  </si>
+  <si>
+    <t>LON:SCO</t>
+  </si>
+  <si>
+    <t>SCO:STC</t>
+  </si>
+  <si>
+    <t>EGCN</t>
+  </si>
+  <si>
+    <t>SCO</t>
+  </si>
+  <si>
+    <t>SCO:STC:MAN</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>Belfast City</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Bournemouth</t>
+  </si>
+  <si>
+    <t>Bristol</t>
+  </si>
+  <si>
+    <t>Cambridge</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Disused</t>
+  </si>
+  <si>
+    <t>Coventry</t>
+  </si>
+  <si>
+    <t>Teesside</t>
+  </si>
+  <si>
+    <t>East Midlands</t>
+  </si>
+  <si>
+    <t>Edinburgh</t>
+  </si>
+  <si>
+    <t>Exeter</t>
+  </si>
+  <si>
+    <t>Farnborough</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Prestwick</t>
+  </si>
+  <si>
+    <t>Hawarden</t>
+  </si>
+  <si>
+    <t>Humberside</t>
+  </si>
+  <si>
+    <t>Inverness</t>
+  </si>
+  <si>
+    <t>Leeds</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>Gatwick</t>
+  </si>
+  <si>
+    <t>Heathrow</t>
+  </si>
+  <si>
+    <t>Southend</t>
+  </si>
+  <si>
+    <t>Stansted</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Newcastle</t>
+  </si>
+  <si>
+    <t>Newquay</t>
+  </si>
+  <si>
+    <t>Norwich</t>
+  </si>
+  <si>
+    <t>Oxford</t>
+  </si>
+  <si>
+    <t>Southampton</t>
+  </si>
+  <si>
+    <t>Sumburgh</t>
+  </si>
+  <si>
+    <t>Cosford</t>
+  </si>
+  <si>
+    <t>Trimingham</t>
   </si>
 </sst>
 </file>
@@ -952,7 +958,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -961,6 +967,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1265,7 +1276,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L31" sqref="L31"/>
@@ -1275,7 +1286,8 @@
   <cols>
     <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
@@ -1288,20 +1300,18 @@
     <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="38.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19" customWidth="1"/>
+    <col min="17" max="17" width="48.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="67.28515625" customWidth="1"/>
     <col min="19" max="19" width="39.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>259</v>
+        <v>216</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
-        <v>257</v>
-      </c>
+      <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -1311,7 +1321,7 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2" t="s">
-        <v>258</v>
+        <v>215</v>
       </c>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
@@ -1328,7 +1338,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -1355,39 +1365,39 @@
         <v>11</v>
       </c>
       <c r="M2" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="N2" t="s">
-        <v>254</v>
+        <v>211</v>
       </c>
       <c r="O2" t="s">
-        <v>253</v>
+        <v>210</v>
       </c>
       <c r="P2" t="s">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="R2" t="s">
-        <v>229</v>
+        <v>188</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>251</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>230</v>
+        <v>189</v>
       </c>
       <c r="B3" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
+      <c r="D3">
+        <v>60</v>
       </c>
       <c r="E3">
         <v>506</v>
@@ -1395,6 +1405,15 @@
       <c r="F3">
         <v>3100</v>
       </c>
+      <c r="G3">
+        <v>184</v>
+      </c>
+      <c r="H3">
+        <v>506</v>
+      </c>
+      <c r="I3">
+        <v>3100</v>
+      </c>
       <c r="J3">
         <v>312</v>
       </c>
@@ -1405,7 +1424,7 @@
         <v>3100</v>
       </c>
       <c r="M3" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="N3">
         <v>1.4</v>
@@ -1416,24 +1435,22 @@
       <c r="P3">
         <v>87</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="R3" t="str">
         <f>"RADAR2:" &amp; A3 &amp; ":" &amp; B3 &amp; ":" &amp; C3 &amp; ":" &amp; D3 &amp; ":" &amp; E3 &amp; ":" &amp; F3 &amp; ":" &amp; G3 &amp; ":" &amp; H3 &amp; ":" &amp; I3 &amp; ":" &amp; J3 &amp; ":" &amp; K3 &amp; ":" &amp; L3</f>
-        <v>RADAR2:Allanshill:N057.38.35.000:W002.09.55.000:W002.09.55.000:506:3100::::312:506:3100</v>
+        <v>RADAR2:Allanshill:N057.38.35.000:W002.09.55.000:60:506:3100:184:506:3100:312:506:3100</v>
       </c>
       <c r="S3" s="3" t="str">
         <f>"RADAR:" &amp; A3 &amp; CHAR(10) &amp;
-"POSITIONS:SCO:STC:EGPD" &amp; CHAR(10) &amp;
+"POSITIONS:" &amp; CHAR(10) &amp; M3 &amp; CHAR(10) &amp;
 "LOCATION:" &amp; B3 &amp; ":" &amp; C3 &amp; CHAR(10) &amp;
 "ALTITUDE:" &amp; E3 &amp; CHAR(10) &amp;
 "BEAMWIDTH:" &amp; N3 &amp; CHAR(10) &amp;
 "PULSEWIDTH:" &amp; O3 &amp; CHAR(10) &amp;
 "MAXANGLE:" &amp; P3 &amp; CHAR(10) &amp;
-"RANGE:0:60"</f>
+"RANGE:0:" &amp; D3</f>
         <v>RADAR:Allanshill
-POSITIONS:SCO:STC:EGPD
+POSITIONS:
+SCO
 LOCATION:N057.38.35.000:W002.09.55.000
 ALTITUDE:506
 BEAMWIDTH:1.4
@@ -1444,16 +1461,13 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>236</v>
+        <v>195</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4">
         <v>177</v>
@@ -1473,44 +1487,38 @@
       <c r="L4">
         <v>3100</v>
       </c>
+      <c r="M4" t="s">
+        <v>251</v>
+      </c>
+      <c r="N4">
+        <v>1.25</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>87</v>
+      </c>
       <c r="Q4" s="1" t="s">
-        <v>260</v>
+        <v>217</v>
       </c>
       <c r="R4" t="str">
         <f>"RADAR2:" &amp; A4 &amp; ":" &amp; B4 &amp; ":" &amp; C4 &amp; ":" &amp; D4 &amp; ":" &amp; E4 &amp; ":" &amp; F4 &amp; ":" &amp; G4 &amp; ":" &amp; H4 &amp; ":" &amp; I4 &amp; ":" &amp; J4 &amp; ":" &amp; K4 &amp; ":" &amp; L4</f>
-        <v>RADAR2:Belfast NERL:N054.39.21.000:W006.12.22.000:W006.12.22.000:::177:265:3100:300:265:3100</v>
-      </c>
-      <c r="S4" s="3" t="str">
-        <f>"RADAR:" &amp; A4 &amp; CHAR(10) &amp;
-"POSITIONS:SCO:STC:EGPD" &amp; CHAR(10) &amp;
-"LOCATION:" &amp; B4 &amp; ":" &amp; C4 &amp; CHAR(10) &amp;
-"ALTITUDE:" &amp; E4 &amp; CHAR(10) &amp;
-"BEAMWIDTH:" &amp; N4 &amp; CHAR(10) &amp;
-"PULSEWIDTH:" &amp; O4 &amp; CHAR(10) &amp;
-"MAXANGLE:" &amp; P4 &amp; CHAR(10) &amp;
-"RANGE:0:60"</f>
-        <v>RADAR:Belfast NERL
-POSITIONS:SCO:STC:EGPD
-LOCATION:N054.39.21.000:W006.12.22.000
-ALTITUDE:
-BEAMWIDTH:
-PULSEWIDTH:
-MAXANGLE:
-RANGE:0:60</v>
+        <v>RADAR2:Belfast NERL:N054.39.21.000:W006.12.22.000::::177:265:3100:300:265:3100</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>238</v>
+        <v>196</v>
       </c>
       <c r="B5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>240</v>
-      </c>
-      <c r="D5" t="s">
-        <v>240</v>
+        <v>198</v>
+      </c>
+      <c r="D5">
+        <v>120</v>
       </c>
       <c r="E5">
         <v>151</v>
@@ -1536,44 +1544,54 @@
       <c r="L5">
         <v>3100</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>241</v>
+      <c r="M5" t="s">
+        <v>252</v>
+      </c>
+      <c r="N5">
+        <v>1.25</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>87</v>
       </c>
       <c r="R5" t="str">
         <f>"RADAR2:" &amp; A5 &amp; ":" &amp; B5 &amp; ":" &amp; C5 &amp; ":" &amp; D5 &amp; ":" &amp; E5 &amp; ":" &amp; F5 &amp; ":" &amp; G5 &amp; ":" &amp; H5 &amp; ":" &amp; I5 &amp; ":" &amp; J5 &amp; ":" &amp; K5 &amp; ":" &amp; L5</f>
-        <v>RADAR2:Bovingdon:N051.42.32.400:W000.32.27.900:W000.32.27.900:151:3100:138:151:3100:234:151:3100</v>
+        <v>RADAR2:Bovingdon:N051.42.32.400:W000.32.27.900:120:151:3100:138:151:3100:234:151:3100</v>
       </c>
       <c r="S5" s="3" t="str">
         <f>"RADAR:" &amp; A5 &amp; CHAR(10) &amp;
-"POSITIONS:SCO:STC:EGPD" &amp; CHAR(10) &amp;
+"POSITIONS:" &amp; CHAR(10) &amp; M5 &amp; CHAR(10) &amp;
 "LOCATION:" &amp; B5 &amp; ":" &amp; C5 &amp; CHAR(10) &amp;
 "ALTITUDE:" &amp; E5 &amp; CHAR(10) &amp;
 "BEAMWIDTH:" &amp; N5 &amp; CHAR(10) &amp;
 "PULSEWIDTH:" &amp; O5 &amp; CHAR(10) &amp;
 "MAXANGLE:" &amp; P5 &amp; CHAR(10) &amp;
-"RANGE:0:60"</f>
+"RANGE:0:" &amp; D5</f>
         <v>RADAR:Bovingdon
-POSITIONS:SCO:STC:EGPD
+POSITIONS:
+LON:LTC:EGLL:EGKK:EGSS:EGGW:ESSEX:ESX:THAMES
 LOCATION:N051.42.32.400:W000.32.27.900
 ALTITUDE:151
-BEAMWIDTH:
-PULSEWIDTH:
-MAXANGLE:
-RANGE:0:60</v>
+BEAMWIDTH:1.25
+PULSEWIDTH:1
+MAXANGLE:87
+RANGE:0:120</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="B6" t="s">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="C6" t="s">
-        <v>244</v>
-      </c>
-      <c r="D6" t="s">
-        <v>244</v>
+        <v>201</v>
+      </c>
+      <c r="D6">
+        <v>160</v>
       </c>
       <c r="E6">
         <v>704</v>
@@ -1599,41 +1617,54 @@
       <c r="L6">
         <v>3100</v>
       </c>
+      <c r="M6" t="s">
+        <v>252</v>
+      </c>
+      <c r="N6">
+        <v>1.25</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>87</v>
+      </c>
       <c r="R6" t="str">
         <f>"RADAR2:" &amp; A6 &amp; ":" &amp; B6 &amp; ":" &amp; C6 &amp; ":" &amp; D6 &amp; ":" &amp; E6 &amp; ":" &amp; F6 &amp; ":" &amp; G6 &amp; ":" &amp; H6 &amp; ":" &amp; I6 &amp; ":" &amp; J6 &amp; ":" &amp; K6 &amp; ":" &amp; L6</f>
-        <v>RADAR2:Burrington:N050.56.03.240:W003.59.06.960:W003.59.06.960:704:3100:184:704:3100:312:704:3100</v>
+        <v>RADAR2:Burrington:N050.56.03.240:W003.59.06.960:160:704:3100:184:704:3100:312:704:3100</v>
       </c>
       <c r="S6" s="3" t="str">
         <f>"RADAR:" &amp; A6 &amp; CHAR(10) &amp;
-"POSITIONS:SCO:STC:EGPD" &amp; CHAR(10) &amp;
+"POSITIONS:" &amp; CHAR(10) &amp; M6 &amp; CHAR(10) &amp;
 "LOCATION:" &amp; B6 &amp; ":" &amp; C6 &amp; CHAR(10) &amp;
 "ALTITUDE:" &amp; E6 &amp; CHAR(10) &amp;
 "BEAMWIDTH:" &amp; N6 &amp; CHAR(10) &amp;
 "PULSEWIDTH:" &amp; O6 &amp; CHAR(10) &amp;
 "MAXANGLE:" &amp; P6 &amp; CHAR(10) &amp;
-"RANGE:0:60"</f>
+"RANGE:0:" &amp; D6</f>
         <v>RADAR:Burrington
-POSITIONS:SCO:STC:EGPD
+POSITIONS:
+LON:LTC:EGLL:EGKK:EGSS:EGGW:ESSEX:ESX:THAMES
 LOCATION:N050.56.03.240:W003.59.06.960
 ALTITUDE:704
-BEAMWIDTH:
-PULSEWIDTH:
-MAXANGLE:
-RANGE:0:60</v>
+BEAMWIDTH:1.25
+PULSEWIDTH:1
+MAXANGLE:87
+RANGE:0:160</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="B7" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="C7" t="s">
-        <v>247</v>
-      </c>
-      <c r="D7" t="s">
-        <v>247</v>
+        <v>204</v>
+      </c>
+      <c r="D7">
+        <v>200</v>
       </c>
       <c r="E7">
         <v>581</v>
@@ -1659,41 +1690,54 @@
       <c r="L7">
         <v>3100</v>
       </c>
+      <c r="M7" t="s">
+        <v>251</v>
+      </c>
+      <c r="N7">
+        <v>1.25</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>87</v>
+      </c>
       <c r="R7" t="str">
         <f>"RADAR2:" &amp; A7 &amp; ":" &amp; B7 &amp; ":" &amp; C7 &amp; ":" &amp; D7 &amp; ":" &amp; E7 &amp; ":" &amp; F7 &amp; ":" &amp; G7 &amp; ":" &amp; H7 &amp; ":" &amp; I7 &amp; ":" &amp; J7 &amp; ":" &amp; K7 &amp; ":" &amp; L7</f>
-        <v>RADAR2:Claxby:N053.27.00.300:W000.18.29.700:W000.18.29.700:581:3100:253:581:3100:429:581:3100</v>
+        <v>RADAR2:Claxby:N053.27.00.300:W000.18.29.700:200:581:3100:253:581:3100:429:581:3100</v>
       </c>
       <c r="S7" s="3" t="str">
         <f>"RADAR:" &amp; A7 &amp; CHAR(10) &amp;
-"POSITIONS:SCO:STC:EGPD" &amp; CHAR(10) &amp;
+"POSITIONS:" &amp; CHAR(10) &amp; M7 &amp; CHAR(10) &amp;
 "LOCATION:" &amp; B7 &amp; ":" &amp; C7 &amp; CHAR(10) &amp;
 "ALTITUDE:" &amp; E7 &amp; CHAR(10) &amp;
 "BEAMWIDTH:" &amp; N7 &amp; CHAR(10) &amp;
 "PULSEWIDTH:" &amp; O7 &amp; CHAR(10) &amp;
 "MAXANGLE:" &amp; P7 &amp; CHAR(10) &amp;
-"RANGE:0:60"</f>
+"RANGE:0:" &amp; D7</f>
         <v>RADAR:Claxby
-POSITIONS:SCO:STC:EGPD
+POSITIONS:
+LON:SCO:STC:MAN
 LOCATION:N053.27.00.300:W000.18.29.700
 ALTITUDE:581
-BEAMWIDTH:
-PULSEWIDTH:
-MAXANGLE:
-RANGE:0:60</v>
+BEAMWIDTH:1.25
+PULSEWIDTH:1
+MAXANGLE:87
+RANGE:0:200</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="B8" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="C8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D8" t="s">
-        <v>250</v>
+        <v>207</v>
+      </c>
+      <c r="D8">
+        <v>180</v>
       </c>
       <c r="E8">
         <v>1162</v>
@@ -1719,41 +1763,54 @@
       <c r="L8">
         <v>3100</v>
       </c>
+      <c r="M8" t="s">
+        <v>254</v>
+      </c>
+      <c r="N8">
+        <v>1.25</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>87</v>
+      </c>
       <c r="R8" t="str">
         <f>"RADAR2:" &amp; A8 &amp; ":" &amp; B8 &amp; ":" &amp; C8 &amp; ":" &amp; D8 &amp; ":" &amp; E8 &amp; ":" &amp; F8 &amp; ":" &amp; G8 &amp; ":" &amp; H8 &amp; ":" &amp; I8 &amp; ":" &amp; J8 &amp; ":" &amp; K8 &amp; ":" &amp; L8</f>
-        <v>RADAR2:Clee Hill:N052.23.53.760:W002.35.50.940:W002.35.50.940:1162:3100:207:1162:3100:351:1162:3100</v>
+        <v>RADAR2:Clee Hill:N052.23.53.760:W002.35.50.940:180:1162:3100:207:1162:3100:351:1162:3100</v>
       </c>
       <c r="S8" s="3" t="str">
         <f>"RADAR:" &amp; A8 &amp; CHAR(10) &amp;
-"POSITIONS:SCO:STC:EGPD" &amp; CHAR(10) &amp;
+"POSITIONS:" &amp; CHAR(10) &amp; M8 &amp; CHAR(10) &amp;
 "LOCATION:" &amp; B8 &amp; ":" &amp; C8 &amp; CHAR(10) &amp;
 "ALTITUDE:" &amp; E8 &amp; CHAR(10) &amp;
 "BEAMWIDTH:" &amp; N8 &amp; CHAR(10) &amp;
 "PULSEWIDTH:" &amp; O8 &amp; CHAR(10) &amp;
 "MAXANGLE:" &amp; P8 &amp; CHAR(10) &amp;
-"RANGE:0:60"</f>
+"RANGE:0:" &amp; D8</f>
         <v>RADAR:Clee Hill
-POSITIONS:SCO:STC:EGPD
+POSITIONS:
+LON:LTC:EGLL:EGKK:EGSS:ESSEX:ESX:EGGW:THAMES:
 LOCATION:N052.23.53.760:W002.35.50.940
 ALTITUDE:1162
-BEAMWIDTH:
-PULSEWIDTH:
-MAXANGLE:
-RANGE:0:60</v>
+BEAMWIDTH:1.25
+PULSEWIDTH:1
+MAXANGLE:87
+RANGE:0:180</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="B9" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" t="s">
-        <v>13</v>
+      <c r="D9">
+        <v>60</v>
       </c>
       <c r="E9">
         <v>342</v>
@@ -1779,41 +1836,54 @@
       <c r="L9">
         <v>3100</v>
       </c>
+      <c r="M9" t="s">
+        <v>257</v>
+      </c>
+      <c r="N9">
+        <v>1.4</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>87</v>
+      </c>
       <c r="R9" t="str">
         <f>"RADAR2:" &amp; A9 &amp; ":" &amp; B9 &amp; ":" &amp; C9 &amp; ":" &amp; D9 &amp; ":" &amp; E9 &amp; ":" &amp; F9 &amp; ":" &amp; G9 &amp; ":" &amp; H9 &amp; ":" &amp; I9 &amp; ":" &amp; J9 &amp; ":" &amp; K9 &amp; ":" &amp; L9</f>
-        <v>RADAR2:Cromer:N052.54.38.000:E001.20.59.000:E001.20.59.000:342:3100:92:342:3100:156:342:3100</v>
+        <v>RADAR2:Cromer:N052.54.38.000:E001.20.59.000:60:342:3100:92:342:3100:156:342:3100</v>
       </c>
       <c r="S9" s="3" t="str">
         <f>"RADAR:" &amp; A9 &amp; CHAR(10) &amp;
-"POSITIONS:SCO:STC:EGPD" &amp; CHAR(10) &amp;
+"POSITIONS:" &amp; CHAR(10) &amp; M9 &amp; CHAR(10) &amp;
 "LOCATION:" &amp; B9 &amp; ":" &amp; C9 &amp; CHAR(10) &amp;
 "ALTITUDE:" &amp; E9 &amp; CHAR(10) &amp;
 "BEAMWIDTH:" &amp; N9 &amp; CHAR(10) &amp;
 "PULSEWIDTH:" &amp; O9 &amp; CHAR(10) &amp;
 "MAXANGLE:" &amp; P9 &amp; CHAR(10) &amp;
-"RANGE:0:60"</f>
+"RANGE:0:" &amp; D9</f>
         <v>RADAR:Cromer
-POSITIONS:SCO:STC:EGPD
+POSITIONS:
+LON:SCO
 LOCATION:N052.54.38.000:E001.20.59.000
 ALTITUDE:342
-BEAMWIDTH:
-PULSEWIDTH:
-MAXANGLE:
+BEAMWIDTH:1.4
+PULSEWIDTH:1
+MAXANGLE:87
 RANGE:0:60</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>262</v>
+        <v>218</v>
       </c>
       <c r="B10" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
-      <c r="D10" t="s">
-        <v>14</v>
+      <c r="D10">
+        <v>60</v>
       </c>
       <c r="E10">
         <v>123</v>
@@ -1821,44 +1891,57 @@
       <c r="F10">
         <v>3100</v>
       </c>
+      <c r="M10" t="s">
+        <v>258</v>
+      </c>
+      <c r="N10">
+        <v>1.4</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>87</v>
+      </c>
       <c r="Q10" s="1" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="R10" t="str">
         <f>"RADAR2:" &amp; A10 &amp; ":" &amp; B10 &amp; ":" &amp; C10 &amp; ":" &amp; D10 &amp; ":" &amp; E10 &amp; ":" &amp; F10 &amp; ":" &amp; G10 &amp; ":" &amp; H10 &amp; ":" &amp; I10 &amp; ":" &amp; J10 &amp; ":" &amp; K10 &amp; ":" &amp; L10</f>
-        <v>RADAR2:Cumbernauld:N055.56.21.000:W004.03.26.000:W004.03.26.000:123:3100::::::</v>
+        <v>RADAR2:Cumbernauld:N055.56.21.000:W004.03.26.000:60:123:3100::::::</v>
       </c>
       <c r="S10" s="3" t="str">
         <f>"RADAR:" &amp; A10 &amp; CHAR(10) &amp;
-"POSITIONS:SCO:STC:EGPD" &amp; CHAR(10) &amp;
+"POSITIONS:" &amp; CHAR(10) &amp; M10 &amp; CHAR(10) &amp;
 "LOCATION:" &amp; B10 &amp; ":" &amp; C10 &amp; CHAR(10) &amp;
 "ALTITUDE:" &amp; E10 &amp; CHAR(10) &amp;
 "BEAMWIDTH:" &amp; N10 &amp; CHAR(10) &amp;
 "PULSEWIDTH:" &amp; O10 &amp; CHAR(10) &amp;
 "MAXANGLE:" &amp; P10 &amp; CHAR(10) &amp;
-"RANGE:0:60"</f>
+"RANGE:0:" &amp; D10</f>
         <v>RADAR:Cumbernauld
-POSITIONS:SCO:STC:EGPD
+POSITIONS:
+SCO:STC
 LOCATION:N055.56.21.000:W004.03.26.000
 ALTITUDE:123
-BEAMWIDTH:
-PULSEWIDTH:
-MAXANGLE:
+BEAMWIDTH:1.4
+PULSEWIDTH:1
+MAXANGLE:87
 RANGE:0:60</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>263</v>
+        <v>219</v>
       </c>
       <c r="B11" t="s">
-        <v>264</v>
+        <v>220</v>
       </c>
       <c r="C11" t="s">
-        <v>265</v>
-      </c>
-      <c r="D11" t="s">
-        <v>265</v>
+        <v>221</v>
+      </c>
+      <c r="D11">
+        <v>120</v>
       </c>
       <c r="E11">
         <v>430</v>
@@ -1884,41 +1967,60 @@
       <c r="L11">
         <v>3100</v>
       </c>
+      <c r="M11" t="s">
+        <v>254</v>
+      </c>
+      <c r="N11">
+        <v>1.25</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>87</v>
+      </c>
       <c r="R11" t="str">
         <f>"RADAR2:" &amp; A11 &amp; ":" &amp; B11 &amp; ":" &amp; C11 &amp; ":" &amp; D11 &amp; ":" &amp; E11 &amp; ":" &amp; F11 &amp; ":" &amp; G11 &amp; ":" &amp; H11 &amp; ":" &amp; I11 &amp; ":" &amp; J11 &amp; ":" &amp; K11 &amp; ":" &amp; L11</f>
-        <v>RADAR2:Debden:N051.59.24.660:E000.15.49.740:E000.15.49.740:430:3100:138:430:3100:351:430:3100</v>
+        <v>RADAR2:Debden:N051.59.24.660:E000.15.49.740:120:430:3100:138:430:3100:351:430:3100</v>
       </c>
       <c r="S11" s="3" t="str">
         <f>"RADAR:" &amp; A11 &amp; CHAR(10) &amp;
-"POSITIONS:SCO:STC:EGPD" &amp; CHAR(10) &amp;
+"POSITIONS:" &amp; CHAR(10) &amp; M11 &amp; CHAR(10) &amp;
 "LOCATION:" &amp; B11 &amp; ":" &amp; C11 &amp; CHAR(10) &amp;
 "ALTITUDE:" &amp; E11 &amp; CHAR(10) &amp;
 "BEAMWIDTH:" &amp; N11 &amp; CHAR(10) &amp;
 "PULSEWIDTH:" &amp; O11 &amp; CHAR(10) &amp;
 "MAXANGLE:" &amp; P11 &amp; CHAR(10) &amp;
-"RANGE:0:60"</f>
+"RANGE:0:" &amp; D11</f>
         <v>RADAR:Debden
-POSITIONS:SCO:STC:EGPD
+POSITIONS:
+LON:LTC:EGLL:EGKK:EGSS:ESSEX:ESX:EGGW:THAMES:
 LOCATION:N051.59.24.660:E000.15.49.740
 ALTITUDE:430
-BEAMWIDTH:
-PULSEWIDTH:
-MAXANGLE:
-RANGE:0:60</v>
+BEAMWIDTH:1.25
+PULSEWIDTH:1
+MAXANGLE:87
+RANGE:0:120</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>266</v>
+        <v>222</v>
       </c>
       <c r="B12" t="s">
-        <v>267</v>
+        <v>223</v>
       </c>
       <c r="C12" t="s">
-        <v>268</v>
-      </c>
-      <c r="D12" t="s">
-        <v>268</v>
+        <v>224</v>
+      </c>
+      <c r="G12">
+        <v>180</v>
+      </c>
+      <c r="H12">
+        <v>925</v>
+      </c>
+      <c r="I12">
+        <v>3100</v>
       </c>
       <c r="J12">
         <v>300</v>
@@ -1929,44 +2031,29 @@
       <c r="L12">
         <v>3100</v>
       </c>
+      <c r="P12">
+        <v>87</v>
+      </c>
       <c r="Q12" s="1" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="R12" t="str">
         <f>"RADAR2:" &amp; A12 &amp; ":" &amp; B12 &amp; ":" &amp; C12 &amp; ":" &amp; D12 &amp; ":" &amp; E12 &amp; ":" &amp; F12 &amp; ":" &amp; G12 &amp; ":" &amp; H12 &amp; ":" &amp; I12 &amp; ":" &amp; J12 &amp; ":" &amp; K12 &amp; ":" &amp; L12</f>
-        <v>RADAR2:Fitful Head:N059.54.20.700:W001.22.57.060:W001.22.57.060::::::300:925:3100</v>
-      </c>
-      <c r="S12" s="3" t="str">
-        <f>"RADAR:" &amp; A12 &amp; CHAR(10) &amp;
-"POSITIONS:SCO:STC:EGPD" &amp; CHAR(10) &amp;
-"LOCATION:" &amp; B12 &amp; ":" &amp; C12 &amp; CHAR(10) &amp;
-"ALTITUDE:" &amp; E12 &amp; CHAR(10) &amp;
-"BEAMWIDTH:" &amp; N12 &amp; CHAR(10) &amp;
-"PULSEWIDTH:" &amp; O12 &amp; CHAR(10) &amp;
-"MAXANGLE:" &amp; P12 &amp; CHAR(10) &amp;
-"RANGE:0:60"</f>
-        <v>RADAR:Fitful Head
-POSITIONS:SCO:STC:EGPD
-LOCATION:N059.54.20.700:W001.22.57.060
-ALTITUDE:
-BEAMWIDTH:
-PULSEWIDTH:
-MAXANGLE:
-RANGE:0:60</v>
+        <v>RADAR2:Fitful Head:N059.54.20.700:W001.22.57.060::::180:925:3100:300:925:3100</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="B13" t="s">
-        <v>271</v>
+        <v>226</v>
       </c>
       <c r="C13" t="s">
-        <v>272</v>
-      </c>
-      <c r="D13" t="s">
-        <v>272</v>
+        <v>227</v>
+      </c>
+      <c r="D13">
+        <v>200</v>
       </c>
       <c r="E13">
         <v>1428</v>
@@ -1992,122 +2079,188 @@
       <c r="L13">
         <v>3100</v>
       </c>
+      <c r="M13" t="s">
+        <v>251</v>
+      </c>
+      <c r="N13">
+        <v>1.25</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>87</v>
+      </c>
       <c r="R13" t="str">
         <f>"RADAR2:" &amp; A13 &amp; ":" &amp; B13 &amp; ":" &amp; C13 &amp; ":" &amp; D13 &amp; ":" &amp; E13 &amp; ":" &amp; F13 &amp; ":" &amp; G13 &amp; ":" &amp; H13 &amp; ":" &amp; I13 &amp; ":" &amp; J13 &amp; ":" &amp; K13 &amp; ":" &amp; L13</f>
-        <v>RADAR2:Great Dun Fell:N054.41.02.820:W002.27.03.300:W002.27.03.300:1428:3100:253:1428:3100:429:1428:3100</v>
+        <v>RADAR2:Great Dun Fell:N054.41.02.820:W002.27.03.300:200:1428:3100:253:1428:3100:429:1428:3100</v>
       </c>
       <c r="S13" s="3" t="str">
         <f>"RADAR:" &amp; A13 &amp; CHAR(10) &amp;
-"POSITIONS:SCO:STC:EGPD" &amp; CHAR(10) &amp;
+"POSITIONS:" &amp; CHAR(10) &amp; M13 &amp; CHAR(10) &amp;
 "LOCATION:" &amp; B13 &amp; ":" &amp; C13 &amp; CHAR(10) &amp;
 "ALTITUDE:" &amp; E13 &amp; CHAR(10) &amp;
 "BEAMWIDTH:" &amp; N13 &amp; CHAR(10) &amp;
 "PULSEWIDTH:" &amp; O13 &amp; CHAR(10) &amp;
 "MAXANGLE:" &amp; P13 &amp; CHAR(10) &amp;
-"RANGE:0:60"</f>
+"RANGE:0:" &amp; D13</f>
         <v>RADAR:Great Dun Fell
-POSITIONS:SCO:STC:EGPD
+POSITIONS:
+LON:SCO:STC:MAN
 LOCATION:N054.41.02.820:W002.27.03.300
 ALTITUDE:1428
-BEAMWIDTH:
-PULSEWIDTH:
-MAXANGLE:
-RANGE:0:60</v>
+BEAMWIDTH:1.25
+PULSEWIDTH:1
+MAXANGLE:87
+RANGE:0:200</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="B14" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="D14">
+        <v>60</v>
+      </c>
+      <c r="E14">
+        <v>327</v>
+      </c>
+      <c r="F14">
+        <v>3100</v>
+      </c>
+      <c r="M14" t="s">
+        <v>258</v>
+      </c>
+      <c r="N14">
+        <v>1.4</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>87</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="R14" t="str">
         <f>"RADAR2:" &amp; A14 &amp; ":" &amp; B14 &amp; ":" &amp; C14 &amp; ":" &amp; D14 &amp; ":" &amp; E14 &amp; ":" &amp; F14 &amp; ":" &amp; G14 &amp; ":" &amp; H14 &amp; ":" &amp; I14 &amp; ":" &amp; J14 &amp; ":" &amp; K14 &amp; ":" &amp; L14</f>
-        <v>RADAR2:Hibaldstow:N053.29.51.000:W000.29.14.000:W000.29.14.000::::::::</v>
+        <v>RADAR2:Kincardine:N056.04.20.000:W003.43.45.000:60:327:3100::::::</v>
       </c>
       <c r="S14" s="3" t="str">
         <f>"RADAR:" &amp; A14 &amp; CHAR(10) &amp;
-"POSITIONS:SCO:STC:EGPD" &amp; CHAR(10) &amp;
+"POSITIONS:" &amp; CHAR(10) &amp; M14 &amp; CHAR(10) &amp;
 "LOCATION:" &amp; B14 &amp; ":" &amp; C14 &amp; CHAR(10) &amp;
 "ALTITUDE:" &amp; E14 &amp; CHAR(10) &amp;
 "BEAMWIDTH:" &amp; N14 &amp; CHAR(10) &amp;
 "PULSEWIDTH:" &amp; O14 &amp; CHAR(10) &amp;
 "MAXANGLE:" &amp; P14 &amp; CHAR(10) &amp;
-"RANGE:0:60"</f>
-        <v>RADAR:Hibaldstow
-POSITIONS:SCO:STC:EGPD
-LOCATION:N053.29.51.000:W000.29.14.000
-ALTITUDE:
-BEAMWIDTH:
-PULSEWIDTH:
-MAXANGLE:
+"RANGE:0:" &amp; D14</f>
+        <v>RADAR:Kincardine
+POSITIONS:
+SCO:STC
+LOCATION:N056.04.20.000:W003.43.45.000
+ALTITUDE:327
+BEAMWIDTH:1.4
+PULSEWIDTH:1
+MAXANGLE:87
 RANGE:0:60</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B15" t="s">
-        <v>185</v>
+        <v>229</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
+        <v>230</v>
+      </c>
+      <c r="D15">
+        <v>120</v>
       </c>
       <c r="E15">
-        <v>327</v>
+        <v>2008</v>
       </c>
       <c r="F15">
         <v>3100</v>
+      </c>
+      <c r="G15">
+        <v>138</v>
+      </c>
+      <c r="H15">
+        <v>2008</v>
+      </c>
+      <c r="I15">
+        <v>3100</v>
+      </c>
+      <c r="J15">
+        <v>234</v>
+      </c>
+      <c r="K15">
+        <v>2008</v>
+      </c>
+      <c r="L15">
+        <v>3100</v>
+      </c>
+      <c r="M15" t="s">
+        <v>251</v>
+      </c>
+      <c r="N15">
+        <v>1.25</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>87</v>
       </c>
       <c r="R15" t="str">
         <f>"RADAR2:" &amp; A15 &amp; ":" &amp; B15 &amp; ":" &amp; C15 &amp; ":" &amp; D15 &amp; ":" &amp; E15 &amp; ":" &amp; F15 &amp; ":" &amp; G15 &amp; ":" &amp; H15 &amp; ":" &amp; I15 &amp; ":" &amp; J15 &amp; ":" &amp; K15 &amp; ":" &amp; L15</f>
-        <v>RADAR2:Kincardine:N056.04.20.000:W003.43.45.000:W003.43.45.000:327:3100::::::</v>
+        <v>RADAR2:Lowther Hill:N055.22.39.780:W003.45.10.920:120:2008:3100:138:2008:3100:234:2008:3100</v>
       </c>
       <c r="S15" s="3" t="str">
         <f>"RADAR:" &amp; A15 &amp; CHAR(10) &amp;
-"POSITIONS:SCO:STC:EGPD" &amp; CHAR(10) &amp;
+"POSITIONS:" &amp; CHAR(10) &amp; M15 &amp; CHAR(10) &amp;
 "LOCATION:" &amp; B15 &amp; ":" &amp; C15 &amp; CHAR(10) &amp;
 "ALTITUDE:" &amp; E15 &amp; CHAR(10) &amp;
 "BEAMWIDTH:" &amp; N15 &amp; CHAR(10) &amp;
 "PULSEWIDTH:" &amp; O15 &amp; CHAR(10) &amp;
 "MAXANGLE:" &amp; P15 &amp; CHAR(10) &amp;
-"RANGE:0:60"</f>
-        <v>RADAR:Kincardine
-POSITIONS:SCO:STC:EGPD
-LOCATION:N056.04.20.000:W003.43.45.000
-ALTITUDE:327
-BEAMWIDTH:
-PULSEWIDTH:
-MAXANGLE:
-RANGE:0:60</v>
+"RANGE:0:" &amp; D15</f>
+        <v>RADAR:Lowther Hill
+POSITIONS:
+LON:SCO:STC:MAN
+LOCATION:N055.22.39.780:W003.45.10.920
+ALTITUDE:2008
+BEAMWIDTH:1.25
+PULSEWIDTH:1
+MAXANGLE:87
+RANGE:0:120</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>273</v>
+        <v>231</v>
       </c>
       <c r="B16" t="s">
-        <v>274</v>
+        <v>232</v>
       </c>
       <c r="C16" t="s">
-        <v>275</v>
-      </c>
-      <c r="D16" t="s">
-        <v>275</v>
+        <v>233</v>
+      </c>
+      <c r="D16">
+        <v>120</v>
       </c>
       <c r="E16">
-        <v>2008</v>
+        <v>332</v>
       </c>
       <c r="F16">
         <v>3100</v>
@@ -2116,7 +2269,7 @@
         <v>138</v>
       </c>
       <c r="H16">
-        <v>2008</v>
+        <v>332</v>
       </c>
       <c r="I16">
         <v>3100</v>
@@ -2125,305 +2278,353 @@
         <v>234</v>
       </c>
       <c r="K16">
-        <v>2008</v>
+        <v>332</v>
       </c>
       <c r="L16">
         <v>3100</v>
+      </c>
+      <c r="M16" t="s">
+        <v>254</v>
+      </c>
+      <c r="N16">
+        <v>1.25</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>87</v>
       </c>
       <c r="R16" t="str">
         <f>"RADAR2:" &amp; A16 &amp; ":" &amp; B16 &amp; ":" &amp; C16 &amp; ":" &amp; D16 &amp; ":" &amp; E16 &amp; ":" &amp; F16 &amp; ":" &amp; G16 &amp; ":" &amp; H16 &amp; ":" &amp; I16 &amp; ":" &amp; J16 &amp; ":" &amp; K16 &amp; ":" &amp; L16</f>
-        <v>RADAR2:Lowther Hill:N055.22.39.780:W003.45.10.920:W003.45.10.920:2008:3100:138:2008:3100:234:2008:3100</v>
+        <v>RADAR2:Pease Pottage:N051.05.00.240:W000.12.51.960:120:332:3100:138:332:3100:234:332:3100</v>
       </c>
       <c r="S16" s="3" t="str">
         <f>"RADAR:" &amp; A16 &amp; CHAR(10) &amp;
-"POSITIONS:SCO:STC:EGPD" &amp; CHAR(10) &amp;
+"POSITIONS:" &amp; CHAR(10) &amp; M16 &amp; CHAR(10) &amp;
 "LOCATION:" &amp; B16 &amp; ":" &amp; C16 &amp; CHAR(10) &amp;
 "ALTITUDE:" &amp; E16 &amp; CHAR(10) &amp;
 "BEAMWIDTH:" &amp; N16 &amp; CHAR(10) &amp;
 "PULSEWIDTH:" &amp; O16 &amp; CHAR(10) &amp;
 "MAXANGLE:" &amp; P16 &amp; CHAR(10) &amp;
-"RANGE:0:60"</f>
-        <v>RADAR:Lowther Hill
-POSITIONS:SCO:STC:EGPD
-LOCATION:N055.22.39.780:W003.45.10.920
-ALTITUDE:2008
-BEAMWIDTH:
-PULSEWIDTH:
-MAXANGLE:
-RANGE:0:60</v>
+"RANGE:0:" &amp; D16</f>
+        <v>RADAR:Pease Pottage
+POSITIONS:
+LON:LTC:EGLL:EGKK:EGSS:ESSEX:ESX:EGGW:THAMES:
+LOCATION:N051.05.00.240:W000.12.51.960
+ALTITUDE:332
+BEAMWIDTH:1.25
+PULSEWIDTH:1
+MAXANGLE:87
+RANGE:0:120</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>276</v>
+        <v>234</v>
       </c>
       <c r="B17" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="C17" t="s">
-        <v>278</v>
-      </c>
-      <c r="D17" t="s">
-        <v>278</v>
+        <v>236</v>
+      </c>
+      <c r="D17">
+        <v>200</v>
       </c>
       <c r="E17">
-        <v>332</v>
+        <v>359</v>
       </c>
       <c r="F17">
         <v>3100</v>
       </c>
       <c r="G17">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="H17">
-        <v>332</v>
+        <v>359</v>
       </c>
       <c r="I17">
         <v>3100</v>
       </c>
       <c r="J17">
-        <v>234</v>
+        <v>312</v>
       </c>
       <c r="K17">
-        <v>332</v>
+        <v>359</v>
       </c>
       <c r="L17">
         <v>3100</v>
+      </c>
+      <c r="M17" t="s">
+        <v>209</v>
+      </c>
+      <c r="N17">
+        <v>1.25</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>87</v>
       </c>
       <c r="R17" t="str">
         <f>"RADAR2:" &amp; A17 &amp; ":" &amp; B17 &amp; ":" &amp; C17 &amp; ":" &amp; D17 &amp; ":" &amp; E17 &amp; ":" &amp; F17 &amp; ":" &amp; G17 &amp; ":" &amp; H17 &amp; ":" &amp; I17 &amp; ":" &amp; J17 &amp; ":" &amp; K17 &amp; ":" &amp; L17</f>
-        <v>RADAR2:Pease Pottage:N051.05.00.240:W000.12.51.960:W000.12.51.960:332:3100:138:332:3100:234:332:3100</v>
+        <v>RADAR2:Perwinnes Hill:N057.12.44.160:W002.07.51.240:200:359:3100:184:359:3100:312:359:3100</v>
       </c>
       <c r="S17" s="3" t="str">
         <f>"RADAR:" &amp; A17 &amp; CHAR(10) &amp;
-"POSITIONS:SCO:STC:EGPD" &amp; CHAR(10) &amp;
+"POSITIONS:" &amp; CHAR(10) &amp; M17 &amp; CHAR(10) &amp;
 "LOCATION:" &amp; B17 &amp; ":" &amp; C17 &amp; CHAR(10) &amp;
 "ALTITUDE:" &amp; E17 &amp; CHAR(10) &amp;
 "BEAMWIDTH:" &amp; N17 &amp; CHAR(10) &amp;
 "PULSEWIDTH:" &amp; O17 &amp; CHAR(10) &amp;
 "MAXANGLE:" &amp; P17 &amp; CHAR(10) &amp;
-"RANGE:0:60"</f>
-        <v>RADAR:Pease Pottage
-POSITIONS:SCO:STC:EGPD
-LOCATION:N051.05.00.240:W000.12.51.960
-ALTITUDE:332
-BEAMWIDTH:
-PULSEWIDTH:
-MAXANGLE:
-RANGE:0:60</v>
+"RANGE:0:" &amp; D17</f>
+        <v>RADAR:Perwinnes Hill
+POSITIONS:
+SCO:STC:EGPD
+LOCATION:N057.12.44.160:W002.07.51.240
+ALTITUDE:359
+BEAMWIDTH:1.25
+PULSEWIDTH:1
+MAXANGLE:87
+RANGE:0:200</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="B18" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="C18" t="s">
-        <v>281</v>
-      </c>
-      <c r="D18" t="s">
-        <v>281</v>
+        <v>240</v>
+      </c>
+      <c r="D18">
+        <v>160</v>
       </c>
       <c r="E18">
-        <v>359</v>
+        <v>123</v>
       </c>
       <c r="F18">
         <v>3100</v>
       </c>
+      <c r="G18">
+        <v>177</v>
+      </c>
+      <c r="H18">
+        <v>123</v>
+      </c>
+      <c r="I18">
+        <v>3100</v>
+      </c>
       <c r="J18">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="K18">
-        <v>359</v>
+        <v>123</v>
       </c>
       <c r="L18">
         <v>3100</v>
       </c>
-      <c r="Q18" s="1" t="s">
-        <v>237</v>
+      <c r="M18" t="s">
+        <v>260</v>
+      </c>
+      <c r="N18">
+        <v>1.25</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>87</v>
       </c>
       <c r="R18" t="str">
         <f>"RADAR2:" &amp; A18 &amp; ":" &amp; B18 &amp; ":" &amp; C18 &amp; ":" &amp; D18 &amp; ":" &amp; E18 &amp; ":" &amp; F18 &amp; ":" &amp; G18 &amp; ":" &amp; H18 &amp; ":" &amp; I18 &amp; ":" &amp; J18 &amp; ":" &amp; K18 &amp; ":" &amp; L18</f>
-        <v>RADAR2:Perwinnes Hill:N057.12.44.160:W002.07.51.240:W002.07.51.240:359:3100::::312:359:3100</v>
+        <v>RADAR2:Sandwick:N058.12.37.140:W006.21.28.500:160:123:3100:177:123:3100:300:123:3100</v>
       </c>
       <c r="S18" s="3" t="str">
         <f>"RADAR:" &amp; A18 &amp; CHAR(10) &amp;
-"POSITIONS:SCO:STC:EGPD" &amp; CHAR(10) &amp;
+"POSITIONS:" &amp; CHAR(10) &amp; M18 &amp; CHAR(10) &amp;
 "LOCATION:" &amp; B18 &amp; ":" &amp; C18 &amp; CHAR(10) &amp;
 "ALTITUDE:" &amp; E18 &amp; CHAR(10) &amp;
 "BEAMWIDTH:" &amp; N18 &amp; CHAR(10) &amp;
 "PULSEWIDTH:" &amp; O18 &amp; CHAR(10) &amp;
 "MAXANGLE:" &amp; P18 &amp; CHAR(10) &amp;
-"RANGE:0:60"</f>
-        <v>RADAR:Perwinnes Hill
-POSITIONS:SCO:STC:EGPD
-LOCATION:N057.12.44.160:W002.07.51.240
-ALTITUDE:359
-BEAMWIDTH:
-PULSEWIDTH:
-MAXANGLE:
-RANGE:0:60</v>
+"RANGE:0:" &amp; D18</f>
+        <v>RADAR:Sandwick
+POSITIONS:
+SCO
+LOCATION:N058.12.37.140:W006.21.28.500
+ALTITUDE:123
+BEAMWIDTH:1.25
+PULSEWIDTH:1
+MAXANGLE:87
+RANGE:0:160</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>282</v>
+        <v>193</v>
       </c>
       <c r="B19" t="s">
-        <v>283</v>
+        <v>152</v>
       </c>
       <c r="C19" t="s">
-        <v>285</v>
-      </c>
-      <c r="D19" t="s">
-        <v>285</v>
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>60</v>
+      </c>
+      <c r="E19">
+        <v>94</v>
+      </c>
+      <c r="F19">
+        <v>3100</v>
       </c>
       <c r="G19">
-        <v>177</v>
+        <v>92</v>
       </c>
       <c r="H19">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="I19">
         <v>3100</v>
       </c>
       <c r="J19">
-        <v>300</v>
+        <v>156</v>
       </c>
       <c r="K19">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="L19">
         <v>3100</v>
       </c>
-      <c r="Q19" s="1" t="s">
-        <v>286</v>
+      <c r="M19" t="s">
+        <v>261</v>
+      </c>
+      <c r="N19">
+        <v>1.4</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>87</v>
       </c>
       <c r="R19" t="str">
         <f>"RADAR2:" &amp; A19 &amp; ":" &amp; B19 &amp; ":" &amp; C19 &amp; ":" &amp; D19 &amp; ":" &amp; E19 &amp; ":" &amp; F19 &amp; ":" &amp; G19 &amp; ":" &amp; H19 &amp; ":" &amp; I19 &amp; ":" &amp; J19 &amp; ":" &amp; K19 &amp; ":" &amp; L19</f>
-        <v>RADAR2:Sandwick:N058.12.37.140:W006.21.28.500:W006.21.28.500:::177:123:3100:300:123:3100</v>
+        <v>RADAR2:St Annes:N053.46.06.000:W002.59.27.000:60:94:3100:92:94:3100:156:94:3100</v>
       </c>
       <c r="S19" s="3" t="str">
         <f>"RADAR:" &amp; A19 &amp; CHAR(10) &amp;
-"POSITIONS:SCO:STC:EGPD" &amp; CHAR(10) &amp;
+"POSITIONS:" &amp; CHAR(10) &amp; M19 &amp; CHAR(10) &amp;
 "LOCATION:" &amp; B19 &amp; ":" &amp; C19 &amp; CHAR(10) &amp;
 "ALTITUDE:" &amp; E19 &amp; CHAR(10) &amp;
 "BEAMWIDTH:" &amp; N19 &amp; CHAR(10) &amp;
 "PULSEWIDTH:" &amp; O19 &amp; CHAR(10) &amp;
 "MAXANGLE:" &amp; P19 &amp; CHAR(10) &amp;
-"RANGE:0:60"</f>
-        <v>RADAR:Sandwick
-POSITIONS:SCO:STC:EGPD
-LOCATION:N058.12.37.140:W006.21.28.500
-ALTITUDE:
-BEAMWIDTH:
-PULSEWIDTH:
-MAXANGLE:
+"RANGE:0:" &amp; D19</f>
+        <v>RADAR:St Annes
+POSITIONS:
+SCO:STC:MAN
+LOCATION:N053.46.06.000:W002.59.27.000
+ALTITUDE:94
+BEAMWIDTH:1.4
+PULSEWIDTH:1
+MAXANGLE:87
 RANGE:0:60</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="B20" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" t="s">
-        <v>17</v>
+        <v>243</v>
+      </c>
+      <c r="D20">
+        <v>200</v>
       </c>
       <c r="E20">
-        <v>94</v>
+        <v>351</v>
       </c>
       <c r="F20">
         <v>3100</v>
       </c>
+      <c r="G20">
+        <v>253</v>
+      </c>
+      <c r="H20">
+        <v>351</v>
+      </c>
+      <c r="I20">
+        <v>3100</v>
+      </c>
       <c r="J20">
-        <v>156</v>
+        <v>420</v>
       </c>
       <c r="K20">
-        <v>94</v>
+        <v>351</v>
       </c>
       <c r="L20">
         <v>3100</v>
+      </c>
+      <c r="M20" t="s">
+        <v>261</v>
+      </c>
+      <c r="N20">
+        <v>1.25</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>87</v>
       </c>
       <c r="R20" t="str">
         <f>"RADAR2:" &amp; A20 &amp; ":" &amp; B20 &amp; ":" &amp; C20 &amp; ":" &amp; D20 &amp; ":" &amp; E20 &amp; ":" &amp; F20 &amp; ":" &amp; G20 &amp; ":" &amp; H20 &amp; ":" &amp; I20 &amp; ":" &amp; J20 &amp; ":" &amp; K20 &amp; ":" &amp; L20</f>
-        <v>RADAR2:St Annes:N053.46.06.000:W002.59.27.000:W002.59.27.000:94:3100::::156:94:3100</v>
+        <v>RADAR2:Tiree:N056.27.19.620:W006.55.23.220:200:351:3100:253:351:3100:420:351:3100</v>
       </c>
       <c r="S20" s="3" t="str">
         <f>"RADAR:" &amp; A20 &amp; CHAR(10) &amp;
-"POSITIONS:SCO:STC:EGPD" &amp; CHAR(10) &amp;
+"POSITIONS:" &amp; CHAR(10) &amp; M20 &amp; CHAR(10) &amp;
 "LOCATION:" &amp; B20 &amp; ":" &amp; C20 &amp; CHAR(10) &amp;
 "ALTITUDE:" &amp; E20 &amp; CHAR(10) &amp;
 "BEAMWIDTH:" &amp; N20 &amp; CHAR(10) &amp;
 "PULSEWIDTH:" &amp; O20 &amp; CHAR(10) &amp;
 "MAXANGLE:" &amp; P20 &amp; CHAR(10) &amp;
-"RANGE:0:60"</f>
-        <v>RADAR:St Annes
-POSITIONS:SCO:STC:EGPD
-LOCATION:N053.46.06.000:W002.59.27.000
-ALTITUDE:94
-BEAMWIDTH:
-PULSEWIDTH:
-MAXANGLE:
-RANGE:0:60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>287</v>
-      </c>
-      <c r="B21" t="s">
-        <v>288</v>
-      </c>
-      <c r="C21" t="s">
-        <v>289</v>
-      </c>
-      <c r="D21" t="s">
-        <v>289</v>
-      </c>
-      <c r="E21">
-        <v>351</v>
-      </c>
-      <c r="F21">
-        <v>3100</v>
-      </c>
-      <c r="J21">
-        <v>420</v>
-      </c>
-      <c r="K21">
-        <v>351</v>
-      </c>
-      <c r="L21">
-        <v>3100</v>
-      </c>
-      <c r="R21" t="str">
-        <f>"RADAR2:" &amp; A21 &amp; ":" &amp; B21 &amp; ":" &amp; C21 &amp; ":" &amp; D21 &amp; ":" &amp; E21 &amp; ":" &amp; F21 &amp; ":" &amp; G21 &amp; ":" &amp; H21 &amp; ":" &amp; I21 &amp; ":" &amp; J21 &amp; ":" &amp; K21 &amp; ":" &amp; L21</f>
-        <v>RADAR2:Tiree:N056.27.19.620:W006.55.23.220:W006.55.23.220:351:3100::::420:351:3100</v>
-      </c>
-      <c r="S21" s="3" t="str">
-        <f>"RADAR:" &amp; A21 &amp; CHAR(10) &amp;
-"POSITIONS:SCO:STC:EGPD" &amp; CHAR(10) &amp;
-"LOCATION:" &amp; B21 &amp; ":" &amp; C21 &amp; CHAR(10) &amp;
-"ALTITUDE:" &amp; E21 &amp; CHAR(10) &amp;
-"BEAMWIDTH:" &amp; N21 &amp; CHAR(10) &amp;
-"PULSEWIDTH:" &amp; O21 &amp; CHAR(10) &amp;
-"MAXANGLE:" &amp; P21 &amp; CHAR(10) &amp;
-"RANGE:0:60"</f>
+"RANGE:0:" &amp; D20</f>
         <v>RADAR:Tiree
-POSITIONS:SCO:STC:EGPD
+POSITIONS:
+SCO:STC:MAN
 LOCATION:N056.27.19.620:W006.55.23.220
 ALTITUDE:351
-BEAMWIDTH:
-PULSEWIDTH:
-MAXANGLE:
-RANGE:0:60</v>
+BEAMWIDTH:1.25
+PULSEWIDTH:1
+MAXANGLE:87
+RANGE:0:200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>253</v>
+      </c>
+      <c r="C26" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>255</v>
+      </c>
+      <c r="C27" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -2438,10 +2639,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62641281-12B9-4653-9C0B-3B66BEAEFD59}">
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2462,19 +2663,19 @@
     <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="38.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="48.7109375" style="1" customWidth="1"/>
     <col min="18" max="18" width="19" customWidth="1"/>
-    <col min="19" max="19" width="39.140625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="39.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>259</v>
+        <v>216</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
-        <v>257</v>
+        <v>214</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -2485,7 +2686,7 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2" t="s">
-        <v>258</v>
+        <v>215</v>
       </c>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
@@ -2529,76 +2730,76 @@
         <v>11</v>
       </c>
       <c r="M2" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="N2" t="s">
-        <v>254</v>
+        <v>211</v>
       </c>
       <c r="O2" t="s">
-        <v>253</v>
+        <v>210</v>
       </c>
       <c r="P2" t="s">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="R2" t="s">
-        <v>229</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>251</v>
+        <v>188</v>
+      </c>
+      <c r="S2" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>263</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="R3" t="str">
         <f>"RADAR2:" &amp; A3 &amp; ":" &amp; B3 &amp; ":" &amp; C3 &amp; ":" &amp; D3 &amp; ":" &amp; E3 &amp; ":" &amp; F3 &amp; ":" &amp; G3 &amp; ":" &amp; H3 &amp; ":" &amp; I3 &amp; ":" &amp; J3 &amp; ":" &amp; K3 &amp; ":" &amp; L3</f>
-        <v>RADAR2:Belfast City Airport:N054.36.56.016:W005.52.55.000:::::::::</v>
-      </c>
-      <c r="S3" s="3" t="str">
+        <v>RADAR2:Belfast City:N054.36.56.016:W005.52.55.000:::::::::</v>
+      </c>
+      <c r="S3" t="str">
         <f>"RADAR:" &amp; A3 &amp; CHAR(10) &amp;
-"POSITIONS:SCO:STC:EGPD" &amp; CHAR(10) &amp;
+"POSITIONS:" &amp; CHAR(10) &amp; M3 &amp; CHAR(10) &amp;
 "LOCATION:" &amp; B3 &amp; ":" &amp; C3 &amp; CHAR(10) &amp;
 "ALTITUDE:" &amp; E3 &amp; CHAR(10) &amp;
 "BEAMWIDTH:" &amp; N3 &amp; CHAR(10) &amp;
 "PULSEWIDTH:" &amp; O3 &amp; CHAR(10) &amp;
 "MAXANGLE:" &amp; P3 &amp; CHAR(10) &amp;
-"RANGE:0:60"</f>
-        <v>RADAR:Belfast City Airport
-POSITIONS:SCO:STC:EGPD
+"RANGE:" &amp; D3</f>
+        <v>RADAR:Belfast City
+POSITIONS:
 LOCATION:N054.36.56.016:W005.52.55.000
 ALTITUDE:
 BEAMWIDTH:
 PULSEWIDTH:
 MAXANGLE:
-RANGE:0:60</v>
+RANGE:</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
       <c r="R4" t="str">
-        <f t="shared" ref="R4:R22" si="0">"RADAR2:" &amp; A4 &amp; ":" &amp; B4 &amp; ":" &amp; C4 &amp; ":" &amp; D4 &amp; ":" &amp; E4 &amp; ":" &amp; F4 &amp; ":" &amp; G4 &amp; ":" &amp; H4 &amp; ":" &amp; I4 &amp; ":" &amp; J4 &amp; ":" &amp; K4 &amp; ":" &amp; L4</f>
+        <f t="shared" ref="R4:R24" si="0">"RADAR2:" &amp; A4 &amp; ":" &amp; B4 &amp; ":" &amp; C4 &amp; ":" &amp; D4 &amp; ":" &amp; E4 &amp; ":" &amp; F4 &amp; ":" &amp; G4 &amp; ":" &amp; H4 &amp; ":" &amp; I4 &amp; ":" &amp; J4 &amp; ":" &amp; K4 &amp; ":" &amp; L4</f>
         <v>RADAR2:Belfast International:N054.39.21.000:W006.12.22.000:::::::::</v>
       </c>
-      <c r="S4" s="3" t="str">
-        <f t="shared" ref="S4:S28" si="1">"RADAR:" &amp; A4 &amp; CHAR(10) &amp;
+      <c r="S4" t="str">
+        <f t="shared" ref="S4:S26" si="1">"RADAR:" &amp; A4 &amp; CHAR(10) &amp;
 "POSITIONS:SCO:STC:EGPD" &amp; CHAR(10) &amp;
 "LOCATION:" &amp; B4 &amp; ":" &amp; C4 &amp; CHAR(10) &amp;
 "ALTITUDE:" &amp; E4 &amp; CHAR(10) &amp;
@@ -2618,21 +2819,21 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>264</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R5" t="str">
         <f t="shared" si="0"/>
-        <v>RADAR2:Birmingham International Airport:N052.27.16.992:W001.45.23.000:::::::::</v>
-      </c>
-      <c r="S5" s="3" t="str">
+        <v>RADAR2:Birmingham:N052.27.16.992:W001.45.23.000:::::::::</v>
+      </c>
+      <c r="S5" t="str">
         <f t="shared" si="1"/>
-        <v>RADAR:Birmingham International Airport
+        <v>RADAR:Birmingham
 POSITIONS:SCO:STC:EGPD
 LOCATION:N052.27.16.992:W001.45.23.000
 ALTITUDE:
@@ -2644,21 +2845,21 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>265</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="C6" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="R6" t="str">
         <f t="shared" si="0"/>
-        <v>RADAR2:Bournemouth International Airport:N050.46.59.000:W001.50.35.000:::::::::</v>
-      </c>
-      <c r="S6" s="3" t="str">
+        <v>RADAR2:Bournemouth:N050.46.59.000:W001.50.35.000:::::::::</v>
+      </c>
+      <c r="S6" t="str">
         <f t="shared" si="1"/>
-        <v>RADAR:Bournemouth International Airport
+        <v>RADAR:Bournemouth
 POSITIONS:SCO:STC:EGPD
 LOCATION:N050.46.59.000:W001.50.35.000
 ALTITUDE:
@@ -2670,21 +2871,21 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>266</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="R7" t="str">
         <f t="shared" si="0"/>
-        <v>RADAR2:Bristol Airport:N051.22.46.992:W002.43.03.000:::::::::</v>
-      </c>
-      <c r="S7" s="3" t="str">
+        <v>RADAR2:Bristol:N051.22.46.992:W002.43.03.000:::::::::</v>
+      </c>
+      <c r="S7" t="str">
         <f t="shared" si="1"/>
-        <v>RADAR:Bristol Airport
+        <v>RADAR:Bristol
 POSITIONS:SCO:STC:EGPD
 LOCATION:N051.22.46.992:W002.43.03.000
 ALTITUDE:
@@ -2696,21 +2897,21 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>267</v>
       </c>
       <c r="B8" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="R8" t="str">
         <f t="shared" si="0"/>
-        <v>RADAR2:Cambridge Airport:N052.12.03.000:E000.10.39.000:::::::::</v>
-      </c>
-      <c r="S8" s="3" t="str">
+        <v>RADAR2:Cambridge:N052.12.03.000:E000.10.39.000:::::::::</v>
+      </c>
+      <c r="S8" t="str">
         <f t="shared" si="1"/>
-        <v>RADAR:Cambridge Airport
+        <v>RADAR:Cambridge
 POSITIONS:SCO:STC:EGPD
 LOCATION:N052.12.03.000:E000.10.39.000
 ALTITUDE:
@@ -2722,21 +2923,21 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>268</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="R9" t="str">
         <f t="shared" si="0"/>
-        <v>RADAR2:Cardiff International Airport:N051.23.39.012:W003.21.09.000:::::::::</v>
-      </c>
-      <c r="S9" s="3" t="str">
+        <v>RADAR2:Cardiff:N051.23.39.012:W003.21.09.000:::::::::</v>
+      </c>
+      <c r="S9" t="str">
         <f t="shared" si="1"/>
-        <v>RADAR:Cardiff International Airport
+        <v>RADAR:Cardiff
 POSITIONS:SCO:STC:EGPD
 LOCATION:N051.23.39.012:W003.21.09.000
 ALTITUDE:
@@ -2748,49 +2949,37 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>270</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="R10" t="str">
-        <f t="shared" si="0"/>
-        <v>RADAR2:Coventry Airport:N052.22.21.000:W001.28.52.000:::::::::</v>
-      </c>
-      <c r="S10" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>RADAR:Coventry Airport
-POSITIONS:SCO:STC:EGPD
-LOCATION:N052.22.21.000:W001.28.52.000
-ALTITUDE:
-BEAMWIDTH:
-PULSEWIDTH:
-MAXANGLE:
-RANGE:0:60</v>
+        <v>24</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>272</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="R11" t="str">
         <f t="shared" si="0"/>
-        <v>RADAR2:Durham Tees Valley Airport:N054.30.42.000:W001.24.42.000:::::::::</v>
-      </c>
-      <c r="S11" s="3" t="str">
+        <v>RADAR2:East Midlands:N052.50.00.000:W001.19.52.000:::::::::</v>
+      </c>
+      <c r="S11" t="str">
         <f t="shared" si="1"/>
-        <v>RADAR:Durham Tees Valley Airport
-POSITIONS:SCO:STC:EGPD
-LOCATION:N054.30.42.000:W001.24.42.000
+        <v>RADAR:East Midlands
+POSITIONS:SCO:STC:EGPD
+LOCATION:N052.50.00.000:W001.19.52.000
 ALTITUDE:
 BEAMWIDTH:
 PULSEWIDTH:
@@ -2800,24 +2989,54 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>273</v>
       </c>
       <c r="B12" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>27</v>
+      </c>
+      <c r="D12">
+        <v>40</v>
+      </c>
+      <c r="E12">
+        <v>170</v>
+      </c>
+      <c r="F12">
+        <v>3100</v>
+      </c>
+      <c r="G12">
+        <v>60</v>
+      </c>
+      <c r="H12">
+        <v>170</v>
+      </c>
+      <c r="I12">
+        <v>3100</v>
+      </c>
+      <c r="J12">
+        <v>80</v>
+      </c>
+      <c r="K12">
+        <v>170</v>
+      </c>
+      <c r="L12">
+        <v>3100</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>244</v>
       </c>
       <c r="R12" t="str">
         <f t="shared" si="0"/>
-        <v>RADAR2:East Midlands International Airport:N052.50.00.000:W001.19.52.000:::::::::</v>
-      </c>
-      <c r="S12" s="3" t="str">
+        <v>RADAR2:Edinburgh:N055.57.05.000:W003.22.45.000:40:170:3100:60:170:3100:80:170:3100</v>
+      </c>
+      <c r="S12" t="str">
         <f t="shared" si="1"/>
-        <v>RADAR:East Midlands International Airport
-POSITIONS:SCO:STC:EGPD
-LOCATION:N052.50.00.000:W001.19.52.000
-ALTITUDE:
+        <v>RADAR:Edinburgh
+POSITIONS:SCO:STC:EGPD
+LOCATION:N055.57.05.000:W003.22.45.000
+ALTITUDE:170
 BEAMWIDTH:
 PULSEWIDTH:
 MAXANGLE:
@@ -2826,54 +3045,24 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>274</v>
       </c>
       <c r="B13" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13">
-        <v>40</v>
-      </c>
-      <c r="E13">
-        <v>170</v>
-      </c>
-      <c r="F13">
-        <v>3100</v>
-      </c>
-      <c r="G13">
-        <v>60</v>
-      </c>
-      <c r="H13">
-        <v>170</v>
-      </c>
-      <c r="I13">
-        <v>3100</v>
-      </c>
-      <c r="J13">
-        <v>80</v>
-      </c>
-      <c r="K13">
-        <v>170</v>
-      </c>
-      <c r="L13">
-        <v>3100</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>290</v>
+        <v>28</v>
       </c>
       <c r="R13" t="str">
         <f t="shared" si="0"/>
-        <v>RADAR2:Edinburgh Airport:N055.57.05.000:W003.22.45.000:40:170:3100:60:170:3100:80:170:3100</v>
-      </c>
-      <c r="S13" s="3" t="str">
+        <v>RADAR2:Exeter:N050.43.49.008:W003.25.02.000:::::::::</v>
+      </c>
+      <c r="S13" t="str">
         <f t="shared" si="1"/>
-        <v>RADAR:Edinburgh Airport
-POSITIONS:SCO:STC:EGPD
-LOCATION:N055.57.05.000:W003.22.45.000
-ALTITUDE:170
+        <v>RADAR:Exeter
+POSITIONS:SCO:STC:EGPD
+LOCATION:N050.43.49.008:W003.25.02.000
+ALTITUDE:
 BEAMWIDTH:
 PULSEWIDTH:
 MAXANGLE:
@@ -2882,23 +3071,23 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>275</v>
       </c>
       <c r="B14" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="R14" t="str">
         <f t="shared" si="0"/>
-        <v>RADAR2:Exeter &amp; Devon Airport:N050.43.49.008:W003.25.02.000:::::::::</v>
-      </c>
-      <c r="S14" s="3" t="str">
+        <v>RADAR2:Farnborough:N051.16.52.000:W000.46.26.000:::::::::</v>
+      </c>
+      <c r="S14" t="str">
         <f t="shared" si="1"/>
-        <v>RADAR:Exeter &amp; Devon Airport
-POSITIONS:SCO:STC:EGPD
-LOCATION:N050.43.49.008:W003.25.02.000
+        <v>RADAR:Farnborough
+POSITIONS:SCO:STC:EGPD
+LOCATION:N051.16.52.000:W000.46.26.000
 ALTITUDE:
 BEAMWIDTH:
 PULSEWIDTH:
@@ -2908,24 +3097,52 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>283</v>
       </c>
       <c r="B15" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>36</v>
+      </c>
+      <c r="D15">
+        <v>60</v>
+      </c>
+      <c r="E15">
+        <v>255</v>
+      </c>
+      <c r="F15">
+        <v>3100</v>
+      </c>
+      <c r="J15">
+        <v>117</v>
+      </c>
+      <c r="K15">
+        <v>255</v>
+      </c>
+      <c r="L15">
+        <v>3100</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>244</v>
       </c>
       <c r="R15" t="str">
-        <f t="shared" si="0"/>
-        <v>RADAR2:Farnborough Aerodrome:N051.16.52.000:W000.46.26.000:::::::::</v>
-      </c>
-      <c r="S15" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>RADAR:Farnborough Aerodrome
-POSITIONS:SCO:STC:EGPD
-LOCATION:N051.16.52.000:W000.46.26.000
-ALTITUDE:
+        <f>"RADAR2:" &amp; A15 &amp; ":" &amp; B15 &amp; ":" &amp; C15 &amp; ":" &amp; D15 &amp; ":" &amp; E15 &amp; ":" &amp; F15 &amp; ":" &amp; G15 &amp; ":" &amp; H15 &amp; ":" &amp; I15 &amp; ":" &amp; J15 &amp; ":" &amp; K15 &amp; ":" &amp; L15</f>
+        <v>RADAR2:Gatwick:N051.08.46.000:W000.10.38.000:60:255:3100::::117:255:3100</v>
+      </c>
+      <c r="S15" t="str">
+        <f>"RADAR:" &amp; A15 &amp; CHAR(10) &amp;
+"POSITIONS:SCO:STC:EGPD" &amp; CHAR(10) &amp;
+"LOCATION:" &amp; B15 &amp; ":" &amp; C15 &amp; CHAR(10) &amp;
+"ALTITUDE:" &amp; E15 &amp; CHAR(10) &amp;
+"BEAMWIDTH:" &amp; N15 &amp; CHAR(10) &amp;
+"PULSEWIDTH:" &amp; O15 &amp; CHAR(10) &amp;
+"MAXANGLE:" &amp; P15 &amp; CHAR(10) &amp;
+"RANGE:0:60"</f>
+        <v>RADAR:Gatwick
+POSITIONS:SCO:STC:EGPD
+LOCATION:N051.08.46.000:W000.10.38.000
+ALTITUDE:255
 BEAMWIDTH:
 PULSEWIDTH:
 MAXANGLE:
@@ -2934,13 +3151,13 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>276</v>
       </c>
       <c r="B16" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="C16" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="D16">
         <v>60</v>
@@ -2970,15 +3187,15 @@
         <v>3100</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="R16" t="str">
         <f t="shared" si="0"/>
-        <v>RADAR2:Glasgow Airport:N055.52.29.000:W004.26.08.000:60:75:3100:70:75:3100:120:75:3100</v>
-      </c>
-      <c r="S16" s="3" t="str">
+        <v>RADAR2:Glasgow:N055.52.29.000:W004.26.08.000:60:75:3100:70:75:3100:120:75:3100</v>
+      </c>
+      <c r="S16" t="str">
         <f t="shared" si="1"/>
-        <v>RADAR:Glasgow Airport
+        <v>RADAR:Glasgow
 POSITIONS:SCO:STC:EGPD
 LOCATION:N055.52.29.000:W004.26.08.000
 ALTITUDE:75
@@ -2990,47 +3207,26 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" t="s">
-        <v>164</v>
-      </c>
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="R17" t="str">
-        <f t="shared" si="0"/>
-        <v>RADAR2:Glasgow Prestwick Inter Airport:N055.30.04.000:W004.35.00.000:::::::::</v>
-      </c>
-      <c r="S17" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>RADAR:Glasgow Prestwick Inter Airport
-POSITIONS:SCO:STC:EGPD
-LOCATION:N055.30.04.000:W004.35.00.000
-ALTITUDE:
-BEAMWIDTH:
-PULSEWIDTH:
-MAXANGLE:
-RANGE:0:60</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>278</v>
       </c>
       <c r="B18" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="R18" t="str">
         <f t="shared" si="0"/>
-        <v>RADAR2:Hawarden Airport:N053.10.35.000:W002.59.09.000:::::::::</v>
-      </c>
-      <c r="S18" s="3" t="str">
+        <v>RADAR2:Hawarden:N053.10.35.000:W002.59.09.000:::::::::</v>
+      </c>
+      <c r="S18" t="str">
         <f t="shared" si="1"/>
-        <v>RADAR:Hawarden Airport
+        <v>RADAR:Hawarden
 POSITIONS:SCO:STC:EGPD
 LOCATION:N053.10.35.000:W002.59.09.000
 ALTITUDE:
@@ -3042,101 +3238,200 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>284</v>
       </c>
       <c r="B19" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>37</v>
+      </c>
+      <c r="D19">
+        <v>60</v>
+      </c>
+      <c r="E19">
+        <v>145</v>
+      </c>
+      <c r="F19">
+        <v>3100</v>
+      </c>
+      <c r="G19">
+        <v>70</v>
+      </c>
+      <c r="H19">
+        <v>145</v>
+      </c>
+      <c r="I19">
+        <v>3100</v>
+      </c>
+      <c r="J19">
+        <v>117</v>
+      </c>
+      <c r="K19">
+        <v>145</v>
+      </c>
+      <c r="L19">
+        <v>3100</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>244</v>
       </c>
       <c r="R19" t="str">
-        <f t="shared" si="0"/>
-        <v>RADAR2:Humberside Airport:N053.34.49.000:W000.20.29.000:::::::::</v>
-      </c>
-      <c r="S19" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>RADAR:Humberside Airport
-POSITIONS:SCO:STC:EGPD
-LOCATION:N053.34.49.000:W000.20.29.000
-ALTITUDE:
-BEAMWIDTH:
-PULSEWIDTH:
-MAXANGLE:
-RANGE:0:60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" t="s">
-        <v>167</v>
-      </c>
-      <c r="C20" t="s">
-        <v>50</v>
-      </c>
-      <c r="R20" t="str">
-        <f t="shared" si="0"/>
-        <v>RADAR2:Inverness Airport:N057.32.48.012:W004.02.50.000:::::::::</v>
-      </c>
-      <c r="S20" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>RADAR:Inverness Airport
-POSITIONS:SCO:STC:EGPD
-LOCATION:N057.32.48.012:W004.02.50.000
-ALTITUDE:
-BEAMWIDTH:
-PULSEWIDTH:
-MAXANGLE:
-RANGE:0:60</v>
-      </c>
+        <f>"RADAR2:" &amp; A19 &amp; ":" &amp; B19 &amp; ":" &amp; C19 &amp; ":" &amp; D19 &amp; ":" &amp; E19 &amp; ":" &amp; F19 &amp; ":" &amp; G19 &amp; ":" &amp; H19 &amp; ":" &amp; I19 &amp; ":" &amp; J19 &amp; ":" &amp; K19 &amp; ":" &amp; L19</f>
+        <v>RADAR2:Heathrow:N051.27.38.000:W000.26.22.000:60:145:3100:70:145:3100:117:145:3100</v>
+      </c>
+      <c r="S19" t="str">
+        <f>"RADAR:" &amp; A19 &amp; CHAR(10) &amp;
+"POSITIONS:SCO:STC:EGPD" &amp; CHAR(10) &amp;
+"LOCATION:" &amp; B19 &amp; ":" &amp; C19 &amp; CHAR(10) &amp;
+"ALTITUDE:" &amp; E19 &amp; CHAR(10) &amp;
+"BEAMWIDTH:" &amp; N19 &amp; CHAR(10) &amp;
+"PULSEWIDTH:" &amp; O19 &amp; CHAR(10) &amp;
+"MAXANGLE:" &amp; P19 &amp; CHAR(10) &amp;
+"RANGE:0:60"</f>
+        <v>RADAR:Heathrow
+POSITIONS:SCO:STC:EGPD
+LOCATION:N051.27.38.000:W000.26.22.000
+ALTITUDE:145
+BEAMWIDTH:
+PULSEWIDTH:
+MAXANGLE:
+RANGE:0:60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="4">
+        <v>60</v>
+      </c>
+      <c r="E20" s="4">
+        <v>30</v>
+      </c>
+      <c r="F20" s="4">
+        <v>3100</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="N20" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O20" s="4">
+        <v>1</v>
+      </c>
+      <c r="P20" s="4">
+        <v>87</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="S20" s="6"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="B21" t="s">
-        <v>292</v>
+        <v>132</v>
       </c>
       <c r="C21" t="s">
-        <v>293</v>
-      </c>
-      <c r="D21">
-        <v>60</v>
-      </c>
-      <c r="E21">
-        <v>305</v>
-      </c>
-      <c r="F21">
-        <v>3100</v>
-      </c>
-      <c r="G21">
-        <v>72</v>
-      </c>
-      <c r="H21">
-        <v>315</v>
-      </c>
-      <c r="I21">
-        <v>3100</v>
-      </c>
-      <c r="J21">
-        <v>117</v>
-      </c>
-      <c r="K21">
-        <v>315</v>
-      </c>
-      <c r="L21">
-        <v>3100</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>290</v>
+        <v>32</v>
       </c>
       <c r="R21" t="str">
         <f t="shared" si="0"/>
+        <v>RADAR2:Humberside:N053.34.49.000:W000.20.29.000:::::::::</v>
+      </c>
+      <c r="S21" t="str">
+        <f t="shared" si="1"/>
+        <v>RADAR:Humberside
+POSITIONS:SCO:STC:EGPD
+LOCATION:N053.34.49.000:W000.20.29.000
+ALTITUDE:
+BEAMWIDTH:
+PULSEWIDTH:
+MAXANGLE:
+RANGE:0:60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>280</v>
+      </c>
+      <c r="B22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="R22" t="str">
+        <f t="shared" si="0"/>
+        <v>RADAR2:Inverness:N057.32.48.012:W004.02.50.000:::::::::</v>
+      </c>
+      <c r="S22" t="str">
+        <f t="shared" si="1"/>
+        <v>RADAR:Inverness
+POSITIONS:SCO:STC:EGPD
+LOCATION:N057.32.48.012:W004.02.50.000
+ALTITUDE:
+BEAMWIDTH:
+PULSEWIDTH:
+MAXANGLE:
+RANGE:0:60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>245</v>
+      </c>
+      <c r="B23" t="s">
+        <v>246</v>
+      </c>
+      <c r="C23" t="s">
+        <v>247</v>
+      </c>
+      <c r="D23">
+        <v>60</v>
+      </c>
+      <c r="E23">
+        <v>305</v>
+      </c>
+      <c r="F23">
+        <v>3100</v>
+      </c>
+      <c r="G23">
+        <v>72</v>
+      </c>
+      <c r="H23">
+        <v>315</v>
+      </c>
+      <c r="I23">
+        <v>3100</v>
+      </c>
+      <c r="J23">
+        <v>117</v>
+      </c>
+      <c r="K23">
+        <v>315</v>
+      </c>
+      <c r="L23">
+        <v>3100</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="R23" t="str">
+        <f t="shared" si="0"/>
         <v>RADAR2:Jersey:N049.12.14.070:W002.12.08.750:60:305:3100:72:315:3100:117:315:3100</v>
       </c>
-      <c r="S21" s="3" t="str">
+      <c r="S23" t="str">
         <f t="shared" si="1"/>
         <v>RADAR:Jersey
 POSITIONS:SCO:STC:EGPD
@@ -3148,99 +3443,26 @@
 RANGE:0:60</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" t="s">
-        <v>168</v>
-      </c>
-      <c r="C22" t="s">
-        <v>52</v>
-      </c>
-      <c r="R22" t="str">
-        <f t="shared" si="0"/>
-        <v>RADAR2:Leeds Bradford International Airport:N053.51.52.000:W001.39.10.000:::::::::</v>
-      </c>
-      <c r="S22" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>RADAR:Leeds Bradford International Airport
-POSITIONS:SCO:STC:EGPD
-LOCATION:N053.51.52.000:W001.39.10.000
-ALTITUDE:
-BEAMWIDTH:
-PULSEWIDTH:
-MAXANGLE:
-RANGE:0:60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" t="s">
-        <v>169</v>
-      </c>
-      <c r="C23" t="s">
-        <v>54</v>
-      </c>
-      <c r="R23" t="str">
-        <f>"RADAR2:" &amp; A23 &amp; ":" &amp; B23 &amp; ":" &amp; C23 &amp; ":" &amp; D23 &amp; ":" &amp; E23 &amp; ":" &amp; F23 &amp; ":" &amp; G23 &amp; ":" &amp; H23 &amp; ":" &amp; I23 &amp; ":" &amp; J23 &amp; ":" &amp; K23 &amp; ":" &amp; L23</f>
-        <v>RADAR2:Liverpool Airport:N053.19.52.000:W002.51.32.000:::::::::</v>
-      </c>
-      <c r="S23" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>RADAR:Liverpool Airport
-POSITIONS:SCO:STC:EGPD
-LOCATION:N053.19.52.000:W002.51.32.000
-ALTITUDE:
-BEAMWIDTH:
-PULSEWIDTH:
-MAXANGLE:
-RANGE:0:60</v>
-      </c>
-    </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>281</v>
       </c>
       <c r="B24" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24">
-        <v>60</v>
-      </c>
-      <c r="E24">
-        <v>255</v>
-      </c>
-      <c r="F24">
-        <v>3100</v>
-      </c>
-      <c r="J24">
-        <v>117</v>
-      </c>
-      <c r="K24">
-        <v>255</v>
-      </c>
-      <c r="L24">
-        <v>3100</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>290</v>
+        <v>34</v>
       </c>
       <c r="R24" t="str">
-        <f>"RADAR2:" &amp; A24 &amp; ":" &amp; B24 &amp; ":" &amp; C24 &amp; ":" &amp; D24 &amp; ":" &amp; E24 &amp; ":" &amp; F24 &amp; ":" &amp; G24 &amp; ":" &amp; H24 &amp; ":" &amp; I24 &amp; ":" &amp; J24 &amp; ":" &amp; K24 &amp; ":" &amp; L24</f>
-        <v>RADAR2:London Gatwick Airport:N051.08.46.000:W000.10.38.000:60:255:3100::::117:255:3100</v>
-      </c>
-      <c r="S24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>RADAR2:Leeds:N053.51.52.000:W001.39.10.000:::::::::</v>
+      </c>
+      <c r="S24" t="str">
         <f t="shared" si="1"/>
-        <v>RADAR:London Gatwick Airport
-POSITIONS:SCO:STC:EGPD
-LOCATION:N051.08.46.000:W000.10.38.000
-ALTITUDE:255
+        <v>RADAR:Leeds
+POSITIONS:SCO:STC:EGPD
+LOCATION:N053.51.52.000:W001.39.10.000
+ALTITUDE:
 BEAMWIDTH:
 PULSEWIDTH:
 MAXANGLE:
@@ -3249,54 +3471,24 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>282</v>
       </c>
       <c r="B25" t="s">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25">
-        <v>60</v>
-      </c>
-      <c r="E25">
-        <v>145</v>
-      </c>
-      <c r="F25">
-        <v>3100</v>
-      </c>
-      <c r="G25">
-        <v>70</v>
-      </c>
-      <c r="H25">
-        <v>145</v>
-      </c>
-      <c r="I25">
-        <v>3100</v>
-      </c>
-      <c r="J25">
-        <v>117</v>
-      </c>
-      <c r="K25">
-        <v>145</v>
-      </c>
-      <c r="L25">
-        <v>3100</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>290</v>
+        <v>35</v>
       </c>
       <c r="R25" t="str">
-        <f>"RADAR2:" &amp; A25 &amp; ":" &amp; B25 &amp; ":" &amp; C25 &amp; ":" &amp; D25 &amp; ":" &amp; E25 &amp; ":" &amp; F25 &amp; ":" &amp; G25 &amp; ":" &amp; H25 &amp; ":" &amp; I25 &amp; ":" &amp; J25 &amp; ":" &amp; K25 &amp; ":" &amp; L25</f>
-        <v>RADAR2:London Heathrow Airport:N051.27.38.000:W000.26.22.000:60:145:3100:70:145:3100:117:145:3100</v>
-      </c>
-      <c r="S25" s="3" t="str">
+        <f t="shared" ref="R25:R32" si="2">"RADAR2:" &amp; A25 &amp; ":" &amp; B25 &amp; ":" &amp; C25 &amp; ":" &amp; D25 &amp; ":" &amp; E25 &amp; ":" &amp; F25 &amp; ":" &amp; G25 &amp; ":" &amp; H25 &amp; ":" &amp; I25 &amp; ":" &amp; J25 &amp; ":" &amp; K25 &amp; ":" &amp; L25</f>
+        <v>RADAR2:Liverpool:N053.19.52.000:W002.51.32.000:::::::::</v>
+      </c>
+      <c r="S25" t="str">
         <f t="shared" si="1"/>
-        <v>RADAR:London Heathrow Airport
-POSITIONS:SCO:STC:EGPD
-LOCATION:N051.27.38.000:W000.26.22.000
-ALTITUDE:145
+        <v>RADAR:Liverpool
+POSITIONS:SCO:STC:EGPD
+LOCATION:N053.19.52.000:W002.51.32.000
+ALTITUDE:
 BEAMWIDTH:
 PULSEWIDTH:
 MAXANGLE:
@@ -3305,24 +3497,45 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>287</v>
       </c>
       <c r="B26" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="C26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26">
         <v>60</v>
       </c>
+      <c r="E26">
+        <v>231</v>
+      </c>
+      <c r="F26">
+        <v>3100</v>
+      </c>
+      <c r="J26">
+        <v>117</v>
+      </c>
+      <c r="K26">
+        <v>231</v>
+      </c>
+      <c r="L26">
+        <v>3100</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>244</v>
+      </c>
       <c r="R26" t="str">
-        <f>"RADAR2:" &amp; A26 &amp; ":" &amp; B26 &amp; ":" &amp; C26 &amp; ":" &amp; D26 &amp; ":" &amp; E26 &amp; ":" &amp; F26 &amp; ":" &amp; G26 &amp; ":" &amp; H26 &amp; ":" &amp; I26 &amp; ":" &amp; J26 &amp; ":" &amp; K26 &amp; ":" &amp; L26</f>
-        <v>RADAR2:London Southend Airport:N051.34.08.000:E000.42.02.000:::::::::</v>
-      </c>
-      <c r="S26" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>RADAR2:Manchester:N053.20.26.000:W002.16.58.000:60:231:3100::::117:231:3100</v>
+      </c>
+      <c r="S26" t="str">
         <f t="shared" si="1"/>
-        <v>RADAR:London Southend Airport
-POSITIONS:SCO:STC:EGPD
-LOCATION:N051.34.08.000:E000.42.02.000
-ALTITUDE:
+        <v>RADAR:Manchester
+POSITIONS:SCO:STC:EGPD
+LOCATION:N053.20.26.000:W002.16.58.000
+ALTITUDE:231
 BEAMWIDTH:
 PULSEWIDTH:
 MAXANGLE:
@@ -3331,39 +3544,187 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>288</v>
       </c>
       <c r="B27" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27">
+        <v>41</v>
+      </c>
+      <c r="R27" t="str">
+        <f t="shared" si="2"/>
+        <v>RADAR2:Newcastle:N055.02.27.000:W001.41.27.000:::::::::</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B28" t="s">
+        <v>142</v>
+      </c>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+      <c r="R28" t="str">
+        <f t="shared" si="2"/>
+        <v>RADAR2:Newquay:N050.26.33.000:W005.00.35.000:::::::::</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>290</v>
+      </c>
+      <c r="B29" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" t="s">
+        <v>43</v>
+      </c>
+      <c r="R29" t="str">
+        <f t="shared" si="2"/>
+        <v>RADAR2:Norwich:N052.40.18.000:E001.16.52.000:::::::::</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>291</v>
+      </c>
+      <c r="B30" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+      <c r="R30" t="str">
+        <f t="shared" si="2"/>
+        <v>RADAR2:Oxford:N051.50.15.000:W001.19.39.000:::::::::</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>277</v>
+      </c>
+      <c r="B31" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+      <c r="R31" t="str">
+        <f>"RADAR2:" &amp; A31 &amp; ":" &amp; B31 &amp; ":" &amp; C31 &amp; ":" &amp; D31 &amp; ":" &amp; E31 &amp; ":" &amp; F31 &amp; ":" &amp; G31 &amp; ":" &amp; H31 &amp; ":" &amp; I31 &amp; ":" &amp; J31 &amp; ":" &amp; K31 &amp; ":" &amp; L31</f>
+        <v>RADAR2:Prestwick:N055.30.04.000:W004.35.00.000:::::::::</v>
+      </c>
+      <c r="S31" t="str">
+        <f>"RADAR:" &amp; A31 &amp; CHAR(10) &amp;
+"POSITIONS:SCO:STC:EGPD" &amp; CHAR(10) &amp;
+"LOCATION:" &amp; B31 &amp; ":" &amp; C31 &amp; CHAR(10) &amp;
+"ALTITUDE:" &amp; E31 &amp; CHAR(10) &amp;
+"BEAMWIDTH:" &amp; N31 &amp; CHAR(10) &amp;
+"PULSEWIDTH:" &amp; O31 &amp; CHAR(10) &amp;
+"MAXANGLE:" &amp; P31 &amp; CHAR(10) &amp;
+"RANGE:0:60"</f>
+        <v>RADAR:Prestwick
+POSITIONS:SCO:STC:EGPD
+LOCATION:N055.30.04.000:W004.35.00.000
+ALTITUDE:
+BEAMWIDTH:
+PULSEWIDTH:
+MAXANGLE:
+RANGE:0:60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>292</v>
+      </c>
+      <c r="B32" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" t="s">
+        <v>45</v>
+      </c>
+      <c r="R32" t="str">
+        <f t="shared" si="2"/>
+        <v>RADAR2:Southampton:N050.57.00.000:W001.21.10.000:::::::::</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>285</v>
+      </c>
+      <c r="B33" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+      <c r="R33" t="str">
+        <f>"RADAR2:" &amp; A33 &amp; ":" &amp; B33 &amp; ":" &amp; C33 &amp; ":" &amp; D33 &amp; ":" &amp; E33 &amp; ":" &amp; F33 &amp; ":" &amp; G33 &amp; ":" &amp; H33 &amp; ":" &amp; I33 &amp; ":" &amp; J33 &amp; ":" &amp; K33 &amp; ":" &amp; L33</f>
+        <v>RADAR2:Southend:N051.34.08.000:E000.42.02.000:::::::::</v>
+      </c>
+      <c r="S33" t="str">
+        <f>"RADAR:" &amp; A33 &amp; CHAR(10) &amp;
+"POSITIONS:SCO:STC:EGPD" &amp; CHAR(10) &amp;
+"LOCATION:" &amp; B33 &amp; ":" &amp; C33 &amp; CHAR(10) &amp;
+"ALTITUDE:" &amp; E33 &amp; CHAR(10) &amp;
+"BEAMWIDTH:" &amp; N33 &amp; CHAR(10) &amp;
+"PULSEWIDTH:" &amp; O33 &amp; CHAR(10) &amp;
+"MAXANGLE:" &amp; P33 &amp; CHAR(10) &amp;
+"RANGE:0:60"</f>
+        <v>RADAR:Southend
+POSITIONS:SCO:STC:EGPD
+LOCATION:N051.34.08.000:E000.42.02.000
+ALTITUDE:
+BEAMWIDTH:
+PULSEWIDTH:
+MAXANGLE:
+RANGE:0:60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>286</v>
+      </c>
+      <c r="B34" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34">
         <v>60</v>
       </c>
-      <c r="E27">
+      <c r="E34">
         <v>408</v>
       </c>
-      <c r="F27">
-        <v>3100</v>
-      </c>
-      <c r="J27">
+      <c r="F34">
+        <v>3100</v>
+      </c>
+      <c r="J34">
         <v>117</v>
       </c>
-      <c r="K27">
+      <c r="K34">
         <v>408</v>
       </c>
-      <c r="L27">
-        <v>3100</v>
-      </c>
-      <c r="R27" t="str">
-        <f>"RADAR2:" &amp; A27 &amp; ":" &amp; B27 &amp; ":" &amp; C27 &amp; ":" &amp; D27 &amp; ":" &amp; E27 &amp; ":" &amp; F27 &amp; ":" &amp; G27 &amp; ":" &amp; H27 &amp; ":" &amp; I27 &amp; ":" &amp; J27 &amp; ":" &amp; K27 &amp; ":" &amp; L27</f>
-        <v>RADAR2:London Stansted Airport:N051.53.13.000:E000.13.49.000:60:408:3100::::117:408:3100</v>
-      </c>
-      <c r="S27" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>RADAR:London Stansted Airport
+      <c r="L34">
+        <v>3100</v>
+      </c>
+      <c r="R34" t="str">
+        <f>"RADAR2:" &amp; A34 &amp; ":" &amp; B34 &amp; ":" &amp; C34 &amp; ":" &amp; D34 &amp; ":" &amp; E34 &amp; ":" &amp; F34 &amp; ":" &amp; G34 &amp; ":" &amp; H34 &amp; ":" &amp; I34 &amp; ":" &amp; J34 &amp; ":" &amp; K34 &amp; ":" &amp; L34</f>
+        <v>RADAR2:Stansted:N051.53.13.000:E000.13.49.000:60:408:3100::::117:408:3100</v>
+      </c>
+      <c r="S34" t="str">
+        <f>"RADAR:" &amp; A34 &amp; CHAR(10) &amp;
+"POSITIONS:SCO:STC:EGPD" &amp; CHAR(10) &amp;
+"LOCATION:" &amp; B34 &amp; ":" &amp; C34 &amp; CHAR(10) &amp;
+"ALTITUDE:" &amp; E34 &amp; CHAR(10) &amp;
+"BEAMWIDTH:" &amp; N34 &amp; CHAR(10) &amp;
+"PULSEWIDTH:" &amp; O34 &amp; CHAR(10) &amp;
+"MAXANGLE:" &amp; P34 &amp; CHAR(10) &amp;
+"RANGE:0:60"</f>
+        <v>RADAR:Stansted
 POSITIONS:SCO:STC:EGPD
 LOCATION:N051.53.13.000:E000.13.49.000
 ALTITUDE:408
@@ -3373,137 +3734,48 @@
 RANGE:0:60</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" t="s">
-        <v>174</v>
-      </c>
-      <c r="C28" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28">
-        <v>60</v>
-      </c>
-      <c r="E28">
-        <v>231</v>
-      </c>
-      <c r="F28">
-        <v>3100</v>
-      </c>
-      <c r="J28">
-        <v>117</v>
-      </c>
-      <c r="K28">
-        <v>231</v>
-      </c>
-      <c r="L28">
-        <v>3100</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="R28" t="str">
-        <f>"RADAR2:" &amp; A28 &amp; ":" &amp; B28 &amp; ":" &amp; C28 &amp; ":" &amp; D28 &amp; ":" &amp; E28 &amp; ":" &amp; F28 &amp; ":" &amp; G28 &amp; ":" &amp; H28 &amp; ":" &amp; I28 &amp; ":" &amp; J28 &amp; ":" &amp; K28 &amp; ":" &amp; L28</f>
-        <v>RADAR2:Manchester Airport:N053.20.26.000:W002.16.58.000:60:231:3100::::117:231:3100</v>
-      </c>
-      <c r="S28" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>RADAR:Manchester Airport
-POSITIONS:SCO:STC:EGPD
-LOCATION:N053.20.26.000:W002.16.58.000
-ALTITUDE:231
-BEAMWIDTH:
-PULSEWIDTH:
-MAXANGLE:
-RANGE:0:60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" t="s">
-        <v>175</v>
-      </c>
-      <c r="C29" t="s">
-        <v>66</v>
-      </c>
-      <c r="R29" t="str">
-        <f>"RADAR2:" &amp; A29 &amp; ":" &amp; B29 &amp; ":" &amp; C29 &amp; ":" &amp; D29 &amp; ":" &amp; E29 &amp; ":" &amp; F29 &amp; ":" &amp; G29 &amp; ":" &amp; H29 &amp; ":" &amp; I29 &amp; ":" &amp; J29 &amp; ":" &amp; K29 &amp; ":" &amp; L29</f>
-        <v>RADAR2:Newcastle International Airport:N055.02.27.000:W001.41.27.000:::::::::</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" t="s">
-        <v>176</v>
-      </c>
-      <c r="C30" t="s">
-        <v>68</v>
-      </c>
-      <c r="R30" t="str">
-        <f>"RADAR2:" &amp; A30 &amp; ":" &amp; B30 &amp; ":" &amp; C30 &amp; ":" &amp; D30 &amp; ":" &amp; E30 &amp; ":" &amp; F30 &amp; ":" &amp; G30 &amp; ":" &amp; H30 &amp; ":" &amp; I30 &amp; ":" &amp; J30 &amp; ":" &amp; K30 &amp; ":" &amp; L30</f>
-        <v>RADAR2:Newquay Cornwall Airport:N050.26.33.000:W005.00.35.000:::::::::</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" t="s">
-        <v>177</v>
-      </c>
-      <c r="C31" t="s">
-        <v>70</v>
-      </c>
-      <c r="R31" t="str">
-        <f>"RADAR2:" &amp; A31 &amp; ":" &amp; B31 &amp; ":" &amp; C31 &amp; ":" &amp; D31 &amp; ":" &amp; E31 &amp; ":" &amp; F31 &amp; ":" &amp; G31 &amp; ":" &amp; H31 &amp; ":" &amp; I31 &amp; ":" &amp; J31 &amp; ":" &amp; K31 &amp; ":" &amp; L31</f>
-        <v>RADAR2:Norwich Airport:N052.40.18.000:E001.16.52.000:::::::::</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" t="s">
-        <v>178</v>
-      </c>
-      <c r="C32" t="s">
-        <v>72</v>
-      </c>
-      <c r="R32" t="str">
-        <f>"RADAR2:" &amp; A32 &amp; ":" &amp; B32 &amp; ":" &amp; C32 &amp; ":" &amp; D32 &amp; ":" &amp; E32 &amp; ":" &amp; F32 &amp; ":" &amp; G32 &amp; ":" &amp; H32 &amp; ":" &amp; I32 &amp; ":" &amp; J32 &amp; ":" &amp; K32 &amp; ":" &amp; L32</f>
-        <v>RADAR2:Oxford Airport:N051.50.15.000:W001.19.39.000:::::::::</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>73</v>
-      </c>
-      <c r="B33" t="s">
-        <v>179</v>
-      </c>
-      <c r="C33" t="s">
-        <v>74</v>
-      </c>
-      <c r="R33" t="str">
-        <f>"RADAR2:" &amp; A33 &amp; ":" &amp; B33 &amp; ":" &amp; C33 &amp; ":" &amp; D33 &amp; ":" &amp; E33 &amp; ":" &amp; F33 &amp; ":" &amp; G33 &amp; ":" &amp; H33 &amp; ":" &amp; I33 &amp; ":" &amp; J33 &amp; ":" &amp; K33 &amp; ":" &amp; L33</f>
-        <v>RADAR2:Southampton International Airport:N050.57.00.000:W001.21.10.000:::::::::</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" t="s">
-        <v>180</v>
-      </c>
-      <c r="C34" t="s">
-        <v>76</v>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>293</v>
+      </c>
+      <c r="B35" t="s">
+        <v>146</v>
+      </c>
+      <c r="C35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>271</v>
+      </c>
+      <c r="B36" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+      <c r="R36" t="str">
+        <f>"RADAR2:" &amp; A36 &amp; ":" &amp; B36 &amp; ":" &amp; C36 &amp; ":" &amp; D36 &amp; ":" &amp; E36 &amp; ":" &amp; F36 &amp; ":" &amp; G36 &amp; ":" &amp; H36 &amp; ":" &amp; I36 &amp; ":" &amp; J36 &amp; ":" &amp; K36 &amp; ":" &amp; L36</f>
+        <v>RADAR2:Teesside:N054.30.42.000:W001.24.42.000:::::::::</v>
+      </c>
+      <c r="S36" t="str">
+        <f>"RADAR:" &amp; A36 &amp; CHAR(10) &amp;
+"POSITIONS:SCO:STC:EGPD" &amp; CHAR(10) &amp;
+"LOCATION:" &amp; B36 &amp; ":" &amp; C36 &amp; CHAR(10) &amp;
+"ALTITUDE:" &amp; E36 &amp; CHAR(10) &amp;
+"BEAMWIDTH:" &amp; N36 &amp; CHAR(10) &amp;
+"PULSEWIDTH:" &amp; O36 &amp; CHAR(10) &amp;
+"MAXANGLE:" &amp; P36 &amp; CHAR(10) &amp;
+"RANGE:0:60"</f>
+        <v>RADAR:Teesside
+POSITIONS:SCO:STC:EGPD
+LOCATION:N054.30.42.000:W001.24.42.000
+ALTITUDE:
+BEAMWIDTH:
+PULSEWIDTH:
+MAXANGLE:
+RANGE:0:60</v>
       </c>
     </row>
   </sheetData>
@@ -3518,443 +3790,1032 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD35"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.7109375" customWidth="1"/>
     <col min="2" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="48.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="19" customWidth="1"/>
+    <col min="19" max="19" width="39.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>284</v>
+        <v>239</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>213</v>
+      </c>
+      <c r="N2" t="s">
+        <v>211</v>
+      </c>
+      <c r="O2" t="s">
+        <v>210</v>
+      </c>
+      <c r="P2" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="R2" t="s">
+        <v>188</v>
+      </c>
+      <c r="S2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R3" t="str">
+        <f>"RADAR2:" &amp; A3 &amp; ":" &amp; B3 &amp; ":" &amp; C3 &amp; ":" &amp; D3 &amp; ":" &amp; E3 &amp; ":" &amp; F3 &amp; ":" &amp; G3 &amp; ":" &amp; H3 &amp; ":" &amp; I3 &amp; ":" &amp; J3 &amp; ":" &amp; K3 &amp; ":" &amp; L3</f>
+        <v>RADAR2:Benson:N051.37.13.289:W001.06.04.613:::::::::</v>
+      </c>
+      <c r="S3" t="str">
+        <f>"RADAR:" &amp; A3 &amp; CHAR(10) &amp;
+"POSITIONS:" &amp; CHAR(10) &amp; M3 &amp; CHAR(10) &amp;
+"LOCATION:" &amp; B3 &amp; ":" &amp; C3 &amp; CHAR(10) &amp;
+"ALTITUDE:" &amp; E3 &amp; CHAR(10) &amp;
+"BEAMWIDTH:" &amp; N3 &amp; CHAR(10) &amp;
+"PULSEWIDTH:" &amp; O3 &amp; CHAR(10) &amp;
+"MAXANGLE:" &amp; P3 &amp; CHAR(10) &amp;
+"RANGE:" &amp; D3</f>
+        <v>RADAR:Benson
+POSITIONS:
+LOCATION:N051.37.13.289:W001.06.04.613
+ALTITUDE:
+BEAMWIDTH:
+PULSEWIDTH:
+MAXANGLE:
+RANGE:</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R4" t="str">
+        <f t="shared" ref="R4:R31" si="0">"RADAR2:" &amp; A4 &amp; ":" &amp; B4 &amp; ":" &amp; C4 &amp; ":" &amp; D4 &amp; ":" &amp; E4 &amp; ":" &amp; F4 &amp; ":" &amp; G4 &amp; ":" &amp; H4 &amp; ":" &amp; I4 &amp; ":" &amp; J4 &amp; ":" &amp; K4 &amp; ":" &amp; L4</f>
+        <v>RADAR2:Beacon Hill (June 2024):N051.10.58.390:W001.43.16.586:::::::::</v>
+      </c>
+      <c r="S4" t="str">
+        <f t="shared" ref="S4:S13" si="1">"RADAR:" &amp; A4 &amp; CHAR(10) &amp;
+"POSITIONS:SCO:STC:EGPD" &amp; CHAR(10) &amp;
+"LOCATION:" &amp; B4 &amp; ":" &amp; C4 &amp; CHAR(10) &amp;
+"ALTITUDE:" &amp; E4 &amp; CHAR(10) &amp;
+"BEAMWIDTH:" &amp; N4 &amp; CHAR(10) &amp;
+"PULSEWIDTH:" &amp; O4 &amp; CHAR(10) &amp;
+"MAXANGLE:" &amp; P4 &amp; CHAR(10) &amp;
+"RANGE:0:60"</f>
+        <v>RADAR:Beacon Hill (June 2024)
+POSITIONS:SCO:STC:EGPD
+LOCATION:N051.10.58.390:W001.43.16.586
+ALTITUDE:
+BEAMWIDTH:
+PULSEWIDTH:
+MAXANGLE:
+RANGE:0:60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R5" t="str">
+        <f t="shared" si="0"/>
+        <v>RADAR2:Brize Norton:N051.46.11.417:W001.34.27.484:::::::::</v>
+      </c>
+      <c r="S5" t="str">
+        <f t="shared" si="1"/>
+        <v>RADAR:Brize Norton
+POSITIONS:SCO:STC:EGPD
+LOCATION:N051.46.11.417:W001.34.27.484
+ALTITUDE:
+BEAMWIDTH:
+PULSEWIDTH:
+MAXANGLE:
+RANGE:0:60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="R6" t="str">
+        <f t="shared" si="0"/>
+        <v>RADAR2:Brizlee Wood:N055.25.05.000:W001.46.04.000:::::::::</v>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" si="1"/>
+        <v>RADAR:Brizlee Wood
+POSITIONS:SCO:STC:EGPD
+LOCATION:N055.25.05.000:W001.46.04.000
+ALTITUDE:
+BEAMWIDTH:
+PULSEWIDTH:
+MAXANGLE:
+RANGE:0:60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="R7" t="str">
+        <f t="shared" si="0"/>
+        <v>RADAR2:Coningsby:N053.05.51.914:W000.09.22.345:::::::::</v>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" si="1"/>
+        <v>RADAR:Coningsby
+POSITIONS:SCO:STC:EGPD
+LOCATION:N053.05.51.914:W000.09.22.345
+ALTITUDE:
+BEAMWIDTH:
+PULSEWIDTH:
+MAXANGLE:
+RANGE:0:60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R8" t="str">
+        <f t="shared" si="0"/>
+        <v>RADAR2:Cosford:N052.38.37.082:W002.19.19.960:::::::::</v>
+      </c>
+      <c r="S8" t="str">
+        <f t="shared" si="1"/>
+        <v>RADAR:Cosford
+POSITIONS:SCO:STC:EGPD
+LOCATION:N052.38.37.082:W002.19.19.960
+ALTITUDE:
+BEAMWIDTH:
+PULSEWIDTH:
+MAXANGLE:
+RANGE:0:60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="R9" t="str">
+        <f t="shared" si="0"/>
+        <v>RADAR2:Cranwell:N053.01.12.270:W000.29.34.073:::::::::</v>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" si="1"/>
+        <v>RADAR:Cranwell
+POSITIONS:SCO:STC:EGPD
+LOCATION:N053.01.12.270:W000.29.34.073
+ALTITUDE:
+BEAMWIDTH:
+PULSEWIDTH:
+MAXANGLE:
+RANGE:0:60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
+      <c r="R10" t="str">
+        <f t="shared" si="0"/>
+        <v>RADAR2:Culdrose:N050.05.13.000:W005.16.14.000:::::::::</v>
+      </c>
+      <c r="S10" t="str">
+        <f t="shared" si="1"/>
+        <v>RADAR:Culdrose
+POSITIONS:SCO:STC:EGPD
+LOCATION:N050.05.13.000:W005.16.14.000
+ALTITUDE:
+BEAMWIDTH:
+PULSEWIDTH:
+MAXANGLE:
+RANGE:0:60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="R11" t="str">
+        <f t="shared" si="0"/>
+        <v>RADAR2:Hartland Point:N051.01.15.000:W004.30.51.000:::::::::</v>
+      </c>
+      <c r="S11" t="str">
+        <f t="shared" si="1"/>
+        <v>RADAR:Hartland Point
+POSITIONS:SCO:STC:EGPD
+LOCATION:N051.01.15.000:W004.30.51.000
+ALTITUDE:
+BEAMWIDTH:
+PULSEWIDTH:
+MAXANGLE:
+RANGE:0:60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+      <c r="R12" t="str">
+        <f t="shared" si="0"/>
+        <v>RADAR2:Lakenheath:N052.24.34.000:E000.32.30.000:::::::::</v>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" si="1"/>
+        <v>RADAR:Lakenheath
+POSITIONS:SCO:STC:EGPD
+LOCATION:N052.24.34.000:E000.32.30.000
+ALTITUDE:
+BEAMWIDTH:
+PULSEWIDTH:
+MAXANGLE:
+RANGE:0:60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="R13" t="str">
+        <f t="shared" si="0"/>
+        <v>RADAR2:Leeming:N054.17.42.720:W001.32.42.036:::::::::</v>
+      </c>
+      <c r="S13" t="str">
+        <f t="shared" si="1"/>
+        <v>RADAR:Leeming
+POSITIONS:SCO:STC:EGPD
+LOCATION:N054.17.42.720:W001.32.42.036
+ALTITUDE:
+BEAMWIDTH:
+PULSEWIDTH:
+MAXANGLE:
+RANGE:0:60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" t="s">
+        <v>113</v>
+      </c>
+      <c r="R14" t="str">
+        <f>"RADAR2:" &amp; A14 &amp; ":" &amp; B14 &amp; ":" &amp; C14 &amp; ":" &amp; D14 &amp; ":" &amp; E14 &amp; ":" &amp; F14 &amp; ":" &amp; G14 &amp; ":" &amp; H14 &amp; ":" &amp; I14 &amp; ":" &amp; J14 &amp; ":" &amp; K14 &amp; ":" &amp; L14</f>
+        <v>RADAR2:Leuchars:N056.22.47.000:W002.51.52.000:::::::::</v>
+      </c>
+      <c r="S14" t="str">
+        <f>"RADAR:" &amp; A14 &amp; CHAR(10) &amp;
+"POSITIONS:SCO:STC:EGPD" &amp; CHAR(10) &amp;
+"LOCATION:" &amp; B14 &amp; ":" &amp; C14 &amp; CHAR(10) &amp;
+"ALTITUDE:" &amp; E14 &amp; CHAR(10) &amp;
+"BEAMWIDTH:" &amp; N14 &amp; CHAR(10) &amp;
+"PULSEWIDTH:" &amp; O14 &amp; CHAR(10) &amp;
+"MAXANGLE:" &amp; P14 &amp; CHAR(10) &amp;
+"RANGE:0:60"</f>
+        <v>RADAR:Leuchars
+POSITIONS:SCO:STC:EGPD
+LOCATION:N056.22.47.000:W002.51.52.000
+ALTITUDE:
+BEAMWIDTH:
+PULSEWIDTH:
+MAXANGLE:
+RANGE:0:60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" t="s">
+        <v>71</v>
+      </c>
+      <c r="R15" t="str">
+        <f t="shared" si="0"/>
+        <v>RADAR2:Lossiemouth:N057.43.04.519:W003.20.39.545:::::::::</v>
+      </c>
+      <c r="S15" t="str">
+        <f>"RADAR:" &amp; A15 &amp; CHAR(10) &amp;
+"POSITIONS:SCO:STC:EGPD" &amp; CHAR(10) &amp;
+"LOCATION:" &amp; B15 &amp; ":" &amp; C15 &amp; CHAR(10) &amp;
+"ALTITUDE:" &amp; E15 &amp; CHAR(10) &amp;
+"BEAMWIDTH:" &amp; N15 &amp; CHAR(10) &amp;
+"PULSEWIDTH:" &amp; O15 &amp; CHAR(10) &amp;
+"MAXANGLE:" &amp; P15 &amp; CHAR(10) &amp;
+"RANGE:0:60"</f>
+        <v>RADAR:Lossiemouth
+POSITIONS:SCO:STC:EGPD
+LOCATION:N057.43.04.519:W003.20.39.545
+ALTITUDE:
+BEAMWIDTH:
+PULSEWIDTH:
+MAXANGLE:
+RANGE:0:60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" t="s">
+        <v>114</v>
+      </c>
+      <c r="R16" t="str">
+        <f t="shared" si="0"/>
+        <v>RADAR2:Manorbier:N051.38.21.000:W004.46.59.000:::::::::</v>
+      </c>
+      <c r="S16" t="str">
+        <f t="shared" ref="S16:S33" si="2">"RADAR:" &amp; A16 &amp; CHAR(10) &amp;
+"POSITIONS:SCO:STC:EGPD" &amp; CHAR(10) &amp;
+"LOCATION:" &amp; B16 &amp; ":" &amp; C16 &amp; CHAR(10) &amp;
+"ALTITUDE:" &amp; E16 &amp; CHAR(10) &amp;
+"BEAMWIDTH:" &amp; N16 &amp; CHAR(10) &amp;
+"PULSEWIDTH:" &amp; O16 &amp; CHAR(10) &amp;
+"MAXANGLE:" &amp; P16 &amp; CHAR(10) &amp;
+"RANGE:0:60"</f>
+        <v>RADAR:Manorbier
+POSITIONS:SCO:STC:EGPD
+LOCATION:N051.38.21.000:W004.46.59.000
+ALTITUDE:
+BEAMWIDTH:
+PULSEWIDTH:
+MAXANGLE:
+RANGE:0:60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" t="s">
+        <v>74</v>
+      </c>
+      <c r="R17" t="str">
+        <f t="shared" si="0"/>
+        <v>RADAR2:Marham:N052.38.55.979:E000.32.00.305:::::::::</v>
+      </c>
+      <c r="S17" t="str">
+        <f t="shared" si="2"/>
+        <v>RADAR:Marham
+POSITIONS:SCO:STC:EGPD
+LOCATION:N052.38.55.979:E000.32.00.305
+ALTITUDE:
+BEAMWIDTH:
+PULSEWIDTH:
+MAXANGLE:
+RANGE:0:60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" t="s">
+        <v>76</v>
+      </c>
+      <c r="R18" t="str">
+        <f t="shared" si="0"/>
+        <v>RADAR2:Odiham:N051.13.43.669:W000.56.26.843:::::::::</v>
+      </c>
+      <c r="S18" t="str">
+        <f t="shared" si="2"/>
+        <v>RADAR:Odiham
+POSITIONS:SCO:STC:EGPD
+LOCATION:N051.13.43.669:W000.56.26.843
+ALTITUDE:
+BEAMWIDTH:
+PULSEWIDTH:
+MAXANGLE:
+RANGE:0:60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" t="s">
+        <v>171</v>
+      </c>
+      <c r="C19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" t="str">
+        <f t="shared" si="0"/>
+        <v>RADAR2:Portland:N050.33.50.000:W002.26.08.000:::::::::</v>
+      </c>
+      <c r="S19" t="str">
+        <f t="shared" si="2"/>
+        <v>RADAR:Portland
+POSITIONS:SCO:STC:EGPD
+LOCATION:N050.33.50.000:W002.26.08.000
+ALTITUDE:
+BEAMWIDTH:
+PULSEWIDTH:
+MAXANGLE:
+RANGE:0:60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" t="s">
+        <v>79</v>
+      </c>
+      <c r="R20" t="str">
+        <f t="shared" si="0"/>
+        <v>RADAR2:Portreath:N050.16.13.000:W005.16.23.000:::::::::</v>
+      </c>
+      <c r="S20" t="str">
+        <f t="shared" si="2"/>
+        <v>RADAR:Portreath
+POSITIONS:SCO:STC:EGPD
+LOCATION:N050.16.13.000:W005.16.23.000
+ALTITUDE:
+BEAMWIDTH:
+PULSEWIDTH:
+MAXANGLE:
+RANGE:0:60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" t="s">
+        <v>173</v>
+      </c>
+      <c r="C21" t="s">
+        <v>81</v>
+      </c>
+      <c r="R21" t="str">
+        <f t="shared" si="0"/>
+        <v>RADAR2:Shawbury:N052.47.39.358:W002.40.59.660:::::::::</v>
+      </c>
+      <c r="S21" t="str">
+        <f t="shared" si="2"/>
+        <v>RADAR:Shawbury
+POSITIONS:SCO:STC:EGPD
+LOCATION:N052.47.39.358:W002.40.59.660
+ALTITUDE:
+BEAMWIDTH:
+PULSEWIDTH:
+MAXANGLE:
+RANGE:0:60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22" t="s">
+        <v>83</v>
+      </c>
+      <c r="R22" t="str">
+        <f t="shared" si="0"/>
+        <v>RADAR2:Spadeadam BH:N055.03.00.785:W002.33.12.830:::::::::</v>
+      </c>
+      <c r="S22" t="str">
+        <f t="shared" si="2"/>
+        <v>RADAR:Spadeadam BH
+POSITIONS:SCO:STC:EGPD
+LOCATION:N055.03.00.785:W002.33.12.830
+ALTITUDE:
+BEAMWIDTH:
+PULSEWIDTH:
+MAXANGLE:
+RANGE:0:60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+      <c r="R23" t="str">
+        <f t="shared" si="0"/>
+        <v>RADAR2:Spadeadam DWF:N055.16.01.754:W002.35.27.902:::::::::</v>
+      </c>
+      <c r="S23" t="str">
+        <f t="shared" si="2"/>
+        <v>RADAR:Spadeadam DWF
+POSITIONS:SCO:STC:EGPD
+LOCATION:N055.16.01.754:W002.35.27.902
+ALTITUDE:
+BEAMWIDTH:
+PULSEWIDTH:
+MAXANGLE:
+RANGE:0:60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+      <c r="R24" t="str">
+        <f t="shared" si="0"/>
+        <v>RADAR2:St Kilda - Airwatch:N057.49.10.000:W008.35.02.000:::::::::</v>
+      </c>
+      <c r="S24" t="str">
+        <f t="shared" si="2"/>
+        <v>RADAR:St Kilda - Airwatch
+POSITIONS:SCO:STC:EGPD
+LOCATION:N057.49.10.000:W008.35.02.000
+ALTITUDE:
+BEAMWIDTH:
+PULSEWIDTH:
+MAXANGLE:
+RANGE:0:60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" t="s">
+        <v>177</v>
+      </c>
+      <c r="C25" t="s">
+        <v>89</v>
+      </c>
+      <c r="R25" t="str">
+        <f t="shared" si="0"/>
+        <v>RADAR2:St Kilda - Seawatch:N057.49.11.000:W008.35.05.000:::::::::</v>
+      </c>
+      <c r="S25" t="str">
+        <f t="shared" si="2"/>
+        <v>RADAR:St Kilda - Seawatch
+POSITIONS:SCO:STC:EGPD
+LOCATION:N057.49.11.000:W008.35.05.000
+ALTITUDE:
+BEAMWIDTH:
+PULSEWIDTH:
+MAXANGLE:
+RANGE:0:60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C26" t="s">
+        <v>91</v>
+      </c>
+      <c r="R26" t="str">
+        <f t="shared" si="0"/>
+        <v>RADAR2:Staxton Wold:N054.11.15.000:W000.26.00.000:::::::::</v>
+      </c>
+      <c r="S26" t="str">
+        <f t="shared" si="2"/>
+        <v>RADAR:Staxton Wold
+POSITIONS:SCO:STC:EGPD
+LOCATION:N054.11.15.000:W000.26.00.000
+ALTITUDE:
+BEAMWIDTH:
+PULSEWIDTH:
+MAXANGLE:
+RANGE:0:60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" t="s">
+        <v>180</v>
+      </c>
+      <c r="C27" t="s">
+        <v>94</v>
+      </c>
+      <c r="R27" t="str">
+        <f t="shared" si="0"/>
+        <v>RADAR2:Topcliffe (Alanbrooke Barracks):N054.12.18.446:W001.22.17.443:::::::::</v>
+      </c>
+      <c r="S27" t="str">
+        <f t="shared" si="2"/>
+        <v>RADAR:Topcliffe (Alanbrooke Barracks)
+POSITIONS:SCO:STC:EGPD
+LOCATION:N054.12.18.446:W001.22.17.443
+ALTITUDE:
+BEAMWIDTH:
+PULSEWIDTH:
+MAXANGLE:
+RANGE:0:60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C28" t="s">
+        <v>96</v>
+      </c>
+      <c r="R28" t="str">
+        <f t="shared" si="0"/>
+        <v>RADAR2:Topcliffe (RAF Topcliffe):N054.12.34.182:W001.22.56.946:::::::::</v>
+      </c>
+      <c r="S28" t="str">
+        <f t="shared" si="2"/>
+        <v>RADAR:Topcliffe (RAF Topcliffe)
+POSITIONS:SCO:STC:EGPD
+LOCATION:N054.12.34.182:W001.22.56.946
+ALTITUDE:
+BEAMWIDTH:
+PULSEWIDTH:
+MAXANGLE:
+RANGE:0:60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>295</v>
+      </c>
+      <c r="B29" t="s">
+        <v>179</v>
+      </c>
+      <c r="C29" t="s">
+        <v>92</v>
+      </c>
+      <c r="R29" t="str">
+        <f>"RADAR2:" &amp; A29 &amp; ":" &amp; B29 &amp; ":" &amp; C29 &amp; ":" &amp; D29 &amp; ":" &amp; E29 &amp; ":" &amp; F29 &amp; ":" &amp; G29 &amp; ":" &amp; H29 &amp; ":" &amp; I29 &amp; ":" &amp; J29 &amp; ":" &amp; K29 &amp; ":" &amp; L29</f>
+        <v>RADAR2:Trimingham:N052.53.35.000:E001.24.02.000:::::::::</v>
+      </c>
+      <c r="S29" t="str">
+        <f>"RADAR:" &amp; A29 &amp; CHAR(10) &amp;
+"POSITIONS:SCO:STC:EGPD" &amp; CHAR(10) &amp;
+"LOCATION:" &amp; B29 &amp; ":" &amp; C29 &amp; CHAR(10) &amp;
+"ALTITUDE:" &amp; E29 &amp; CHAR(10) &amp;
+"BEAMWIDTH:" &amp; N29 &amp; CHAR(10) &amp;
+"PULSEWIDTH:" &amp; O29 &amp; CHAR(10) &amp;
+"MAXANGLE:" &amp; P29 &amp; CHAR(10) &amp;
+"RANGE:0:60"</f>
+        <v>RADAR:Trimingham
+POSITIONS:SCO:STC:EGPD
+LOCATION:N052.53.35.000:E001.24.02.000
+ALTITUDE:
+BEAMWIDTH:
+PULSEWIDTH:
+MAXANGLE:
+RANGE:0:60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" t="s">
+        <v>182</v>
+      </c>
+      <c r="C30" t="s">
+        <v>98</v>
+      </c>
+      <c r="R30" t="str">
+        <f>"RADAR2:" &amp; A30 &amp; ":" &amp; B30 &amp; ":" &amp; C30 &amp; ":" &amp; D30 &amp; ":" &amp; E30 &amp; ":" &amp; F30 &amp; ":" &amp; G30 &amp; ":" &amp; H30 &amp; ":" &amp; I30 &amp; ":" &amp; J30 &amp; ":" &amp; K30 &amp; ":" &amp; L30</f>
+        <v>RADAR2:Valley:N053.15.26.611:W004.32.38.800:::::::::</v>
+      </c>
+      <c r="S30" t="str">
+        <f t="shared" si="2"/>
+        <v>RADAR:Valley
+POSITIONS:SCO:STC:EGPD
+LOCATION:N053.15.26.611:W004.32.38.800
+ALTITUDE:
+BEAMWIDTH:
+PULSEWIDTH:
+MAXANGLE:
+RANGE:0:60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" t="s">
+        <v>183</v>
+      </c>
+      <c r="C31" t="s">
+        <v>100</v>
+      </c>
+      <c r="R31" t="str">
+        <f t="shared" si="0"/>
+        <v>RADAR2:Wattisham:N052.07.50.239:E000.57.04.694:::::::::</v>
+      </c>
+      <c r="S31" t="str">
+        <f t="shared" si="2"/>
+        <v>RADAR:Wattisham
+POSITIONS:SCO:STC:EGPD
+LOCATION:N052.07.50.239:E000.57.04.694
+ALTITUDE:
+BEAMWIDTH:
+PULSEWIDTH:
+MAXANGLE:
+RANGE:0:60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" t="s">
+        <v>184</v>
+      </c>
+      <c r="C32" t="s">
+        <v>102</v>
+      </c>
+      <c r="R32" t="str">
+        <f>"RADAR2:" &amp; A32 &amp; ":" &amp; B32 &amp; ":" &amp; C32 &amp; ":" &amp; D32 &amp; ":" &amp; E32 &amp; ":" &amp; F32 &amp; ":" &amp; G32 &amp; ":" &amp; H32 &amp; ":" &amp; I32 &amp; ":" &amp; J32 &amp; ":" &amp; K32 &amp; ":" &amp; L32</f>
+        <v>RADAR2:Wembury Point:N050.19.05.000:W004.06.26.000:::::::::</v>
+      </c>
+      <c r="S32" t="str">
+        <f t="shared" si="2"/>
+        <v>RADAR:Wembury Point
+POSITIONS:SCO:STC:EGPD
+LOCATION:N050.19.05.000:W004.06.26.000
+ALTITUDE:
+BEAMWIDTH:
+PULSEWIDTH:
+MAXANGLE:
+RANGE:0:60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" t="s">
+        <v>185</v>
+      </c>
+      <c r="C33" t="s">
+        <v>104</v>
+      </c>
+      <c r="R33" t="str">
+        <f>"RADAR2:" &amp; A33 &amp; ":" &amp; B33 &amp; ":" &amp; C33 &amp; ":" &amp; D33 &amp; ":" &amp; E33 &amp; ":" &amp; F33 &amp; ":" &amp; G33 &amp; ":" &amp; H33 &amp; ":" &amp; I33 &amp; ":" &amp; J33 &amp; ":" &amp; K33 &amp; ":" &amp; L33</f>
+        <v>RADAR2:West Freugh:N054.51.17.593:W004.56.41.766:::::::::</v>
+      </c>
+      <c r="S33" t="str">
+        <f t="shared" si="2"/>
+        <v>RADAR:West Freugh
+POSITIONS:SCO:STC:EGPD
+LOCATION:N054.51.17.593:W004.56.41.766
+ALTITUDE:
+BEAMWIDTH:
+PULSEWIDTH:
+MAXANGLE:
+RANGE:0:60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" t="s">
+        <v>186</v>
+      </c>
+      <c r="C34" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" t="s">
         <v>187</v>
       </c>
-      <c r="D1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>189</v>
-      </c>
-      <c r="G1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>191</v>
-      </c>
-      <c r="J1" t="s">
-        <v>192</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" t="s">
-        <v>199</v>
-      </c>
-      <c r="C7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" t="s">
-        <v>200</v>
-      </c>
-      <c r="C8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" t="s">
-        <v>201</v>
-      </c>
-      <c r="C9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" t="s">
-        <v>202</v>
-      </c>
-      <c r="C10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" t="s">
-        <v>203</v>
-      </c>
-      <c r="C11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" t="s">
-        <v>204</v>
-      </c>
-      <c r="C12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" t="s">
-        <v>205</v>
-      </c>
-      <c r="C13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" t="s">
-        <v>206</v>
-      </c>
-      <c r="C14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" t="s">
-        <v>207</v>
-      </c>
-      <c r="C15" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>103</v>
-      </c>
-      <c r="B16" t="s">
-        <v>208</v>
-      </c>
-      <c r="C16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>105</v>
-      </c>
-      <c r="B17" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B18" t="s">
-        <v>210</v>
-      </c>
-      <c r="C18" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="C35" t="s">
         <v>108</v>
       </c>
-      <c r="B19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>110</v>
-      </c>
-      <c r="B20" t="s">
-        <v>212</v>
-      </c>
-      <c r="C20" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>111</v>
-      </c>
-      <c r="B21" t="s">
-        <v>213</v>
-      </c>
-      <c r="C21" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>113</v>
-      </c>
-      <c r="B22" t="s">
-        <v>214</v>
-      </c>
-      <c r="C22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>115</v>
-      </c>
-      <c r="B23" t="s">
-        <v>215</v>
-      </c>
-      <c r="C23" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>117</v>
-      </c>
-      <c r="B24" t="s">
-        <v>216</v>
-      </c>
-      <c r="C24" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>119</v>
-      </c>
-      <c r="B25" t="s">
-        <v>217</v>
-      </c>
-      <c r="C25" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>121</v>
-      </c>
-      <c r="B26" t="s">
-        <v>218</v>
-      </c>
-      <c r="C26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>123</v>
-      </c>
-      <c r="B27" t="s">
-        <v>219</v>
-      </c>
-      <c r="C27" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>125</v>
-      </c>
-      <c r="B28" t="s">
-        <v>220</v>
-      </c>
-      <c r="C28" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>127</v>
-      </c>
-      <c r="B29" t="s">
-        <v>221</v>
-      </c>
-      <c r="C29" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>129</v>
-      </c>
-      <c r="B30" t="s">
-        <v>222</v>
-      </c>
-      <c r="C30" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>131</v>
-      </c>
-      <c r="B31" t="s">
-        <v>223</v>
-      </c>
-      <c r="C31" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>133</v>
-      </c>
-      <c r="B32" t="s">
-        <v>224</v>
-      </c>
-      <c r="C32" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>135</v>
-      </c>
-      <c r="B33" t="s">
-        <v>225</v>
-      </c>
-      <c r="C33" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>137</v>
-      </c>
-      <c r="B34" t="s">
-        <v>226</v>
-      </c>
-      <c r="C34" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>139</v>
-      </c>
-      <c r="B35" t="s">
-        <v>227</v>
-      </c>
-      <c r="C35" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>141</v>
-      </c>
-      <c r="B36" t="s">
-        <v>228</v>
-      </c>
-      <c r="C36" t="s">
-        <v>142</v>
+      <c r="R35" t="str">
+        <f>"RADAR2:" &amp; A35 &amp; ":" &amp; B35 &amp; ":" &amp; C35 &amp; ":" &amp; D35 &amp; ":" &amp; E35 &amp; ":" &amp; F35 &amp; ":" &amp; G35 &amp; ":" &amp; H35 &amp; ":" &amp; I35 &amp; ":" &amp; J35 &amp; ":" &amp; K35 &amp; ":" &amp; L35</f>
+        <v>RADAR2:Yeovilton:N051.00.39.000:W002.38.29.000:::::::::</v>
+      </c>
+      <c r="S35" t="str">
+        <f>"RADAR:" &amp; A35 &amp; CHAR(10) &amp;
+"POSITIONS:SCO:STC:EGPD" &amp; CHAR(10) &amp;
+"LOCATION:" &amp; B35 &amp; ":" &amp; C35 &amp; CHAR(10) &amp;
+"ALTITUDE:" &amp; E35 &amp; CHAR(10) &amp;
+"BEAMWIDTH:" &amp; N35 &amp; CHAR(10) &amp;
+"PULSEWIDTH:" &amp; O35 &amp; CHAR(10) &amp;
+"MAXANGLE:" &amp; P35 &amp; CHAR(10) &amp;
+"RANGE:0:60"</f>
+        <v>RADAR:Yeovilton
+POSITIONS:SCO:STC:EGPD
+LOCATION:N051.00.39.000:W002.38.29.000
+ALTITUDE:
+BEAMWIDTH:
+PULSEWIDTH:
+MAXANGLE:
+RANGE:0:60</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="M1:P1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/_data/Radar Sites/Radar Site Data.xlsx
+++ b/_data/Radar Sites/Radar Site Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luke1\source\repos\VATSIM-UK\UK-Sector-File\_data\Radar Sites\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2F2AAB-8463-40D5-9105-0E573C65B449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D93BDB-6497-4F2C-8260-002A5409BE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="326">
   <si>
     <t>Name</t>
   </si>
@@ -103,15 +103,9 @@
     <t>W002.43.03.000</t>
   </si>
   <si>
-    <t>E000.10.39.000</t>
-  </si>
-  <si>
     <t>W003.21.09.000</t>
   </si>
   <si>
-    <t>W001.28.52.000</t>
-  </si>
-  <si>
     <t>W001.24.42.000</t>
   </si>
   <si>
@@ -400,15 +394,9 @@
     <t>N051.22.46.992</t>
   </si>
   <si>
-    <t>N052.12.03.000</t>
-  </si>
-  <si>
     <t>N051.23.39.012</t>
   </si>
   <si>
-    <t>N052.22.21.000</t>
-  </si>
-  <si>
     <t>N054.30.42.000</t>
   </si>
   <si>
@@ -622,9 +610,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Belfast NERL</t>
-  </si>
-  <si>
     <t>Bovingdon</t>
   </si>
   <si>
@@ -688,9 +673,6 @@
     <t>Basic Data</t>
   </si>
   <si>
-    <t>NERL SSR data only (PSR to Belfast)</t>
-  </si>
-  <si>
     <t>Cumbernauld</t>
   </si>
   <si>
@@ -769,9 +751,6 @@
     <t>W006.55.23.220</t>
   </si>
   <si>
-    <t>NERL feed I think</t>
-  </si>
-  <si>
     <t>Jersey</t>
   </si>
   <si>
@@ -844,12 +823,6 @@
     <t>Cardiff</t>
   </si>
   <si>
-    <t>Disused</t>
-  </si>
-  <si>
-    <t>Coventry</t>
-  </si>
-  <si>
     <t>Teesside</t>
   </si>
   <si>
@@ -923,6 +896,123 @@
   </si>
   <si>
     <t>Trimingham</t>
+  </si>
+  <si>
+    <t>EGAC:BEL</t>
+  </si>
+  <si>
+    <t>EGAA:BEL</t>
+  </si>
+  <si>
+    <t>EGBB</t>
+  </si>
+  <si>
+    <t>EGHH</t>
+  </si>
+  <si>
+    <t>No PSR to NERL feed</t>
+  </si>
+  <si>
+    <t>EGGD</t>
+  </si>
+  <si>
+    <t>N052.12.22.300</t>
+  </si>
+  <si>
+    <t>E000.10.00.260</t>
+  </si>
+  <si>
+    <t>EGSC</t>
+  </si>
+  <si>
+    <t>EGFF</t>
+  </si>
+  <si>
+    <t>EGNX</t>
+  </si>
+  <si>
+    <t>EGPH</t>
+  </si>
+  <si>
+    <t>EGTE</t>
+  </si>
+  <si>
+    <t>Feeds to Prestwick?</t>
+  </si>
+  <si>
+    <t>EGLF</t>
+  </si>
+  <si>
+    <t>NERL feed</t>
+  </si>
+  <si>
+    <t>N049.26.15.410</t>
+  </si>
+  <si>
+    <t>W002.35.54.920</t>
+  </si>
+  <si>
+    <t>EGJB</t>
+  </si>
+  <si>
+    <t>EGPF</t>
+  </si>
+  <si>
+    <t>EGNR</t>
+  </si>
+  <si>
+    <t>EGNJ</t>
+  </si>
+  <si>
+    <t>EGPE</t>
+  </si>
+  <si>
+    <t>EGJJ</t>
+  </si>
+  <si>
+    <t>EGNM</t>
+  </si>
+  <si>
+    <t>EGGP</t>
+  </si>
+  <si>
+    <t>EGCC</t>
+  </si>
+  <si>
+    <t>EGNT</t>
+  </si>
+  <si>
+    <t>EGKK</t>
+  </si>
+  <si>
+    <t>EGLL</t>
+  </si>
+  <si>
+    <t>EGHQ</t>
+  </si>
+  <si>
+    <t>EGSH</t>
+  </si>
+  <si>
+    <t>EGTK</t>
+  </si>
+  <si>
+    <t>EGPK</t>
+  </si>
+  <si>
+    <t>EGHI:SOL</t>
+  </si>
+  <si>
+    <t>EGMC</t>
+  </si>
+  <si>
+    <t>EGSS:ESS:ESX:EGGW</t>
+  </si>
+  <si>
+    <t>EGPB:EGPD</t>
+  </si>
+  <si>
+    <t>EGNV</t>
   </si>
 </sst>
 </file>
@@ -958,7 +1048,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -966,12 +1056,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1276,10 +1360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1302,12 +1386,12 @@
     <col min="16" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="48.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="67.28515625" customWidth="1"/>
-    <col min="19" max="19" width="39.140625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="39.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1321,7 +1405,7 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
@@ -1365,33 +1449,33 @@
         <v>11</v>
       </c>
       <c r="M2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="N2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="O2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="P2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="R2" t="s">
-        <v>188</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>208</v>
+        <v>184</v>
+      </c>
+      <c r="S2" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -1424,7 +1508,7 @@
         <v>3100</v>
       </c>
       <c r="M3" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="N3">
         <v>1.4</v>
@@ -1436,10 +1520,10 @@
         <v>87</v>
       </c>
       <c r="R3" t="str">
-        <f>"RADAR2:" &amp; A3 &amp; ":" &amp; B3 &amp; ":" &amp; C3 &amp; ":" &amp; D3 &amp; ":" &amp; E3 &amp; ":" &amp; F3 &amp; ":" &amp; G3 &amp; ":" &amp; H3 &amp; ":" &amp; I3 &amp; ":" &amp; J3 &amp; ":" &amp; K3 &amp; ":" &amp; L3</f>
+        <f t="shared" ref="R3:R19" si="0">"RADAR2:" &amp; A3 &amp; ":" &amp; B3 &amp; ":" &amp; C3 &amp; ":" &amp; D3 &amp; ":" &amp; E3 &amp; ":" &amp; F3 &amp; ":" &amp; G3 &amp; ":" &amp; H3 &amp; ":" &amp; I3 &amp; ":" &amp; J3 &amp; ":" &amp; K3 &amp; ":" &amp; L3</f>
         <v>RADAR2:Allanshill:N057.38.35.000:W002.09.55.000:60:506:3100:184:506:3100:312:506:3100</v>
       </c>
-      <c r="S3" s="3" t="str">
+      <c r="S3" t="str">
         <f>"RADAR:" &amp; A3 &amp; CHAR(10) &amp;
 "POSITIONS:" &amp; CHAR(10) &amp; M3 &amp; CHAR(10) &amp;
 "LOCATION:" &amp; B3 &amp; ":" &amp; C3 &amp; CHAR(10) &amp;
@@ -1461,34 +1545,43 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>192</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>193</v>
+      </c>
+      <c r="D4">
+        <v>120</v>
+      </c>
+      <c r="E4">
+        <v>151</v>
+      </c>
+      <c r="F4">
+        <v>3100</v>
       </c>
       <c r="G4">
-        <v>177</v>
+        <v>138</v>
       </c>
       <c r="H4">
-        <v>265</v>
+        <v>151</v>
       </c>
       <c r="I4">
         <v>3100</v>
       </c>
       <c r="J4">
-        <v>300</v>
+        <v>234</v>
       </c>
       <c r="K4">
-        <v>265</v>
+        <v>151</v>
       </c>
       <c r="L4">
         <v>3100</v>
       </c>
       <c r="M4" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N4">
         <v>1.25</v>
@@ -1499,76 +1592,19 @@
       <c r="P4">
         <v>87</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="R4" t="str">
-        <f>"RADAR2:" &amp; A4 &amp; ":" &amp; B4 &amp; ":" &amp; C4 &amp; ":" &amp; D4 &amp; ":" &amp; E4 &amp; ":" &amp; F4 &amp; ":" &amp; G4 &amp; ":" &amp; H4 &amp; ":" &amp; I4 &amp; ":" &amp; J4 &amp; ":" &amp; K4 &amp; ":" &amp; L4</f>
-        <v>RADAR2:Belfast NERL:N054.39.21.000:W006.12.22.000::::177:265:3100:300:265:3100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>196</v>
-      </c>
-      <c r="B5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D5">
-        <v>120</v>
-      </c>
-      <c r="E5">
-        <v>151</v>
-      </c>
-      <c r="F5">
-        <v>3100</v>
-      </c>
-      <c r="G5">
-        <v>138</v>
-      </c>
-      <c r="H5">
-        <v>151</v>
-      </c>
-      <c r="I5">
-        <v>3100</v>
-      </c>
-      <c r="J5">
-        <v>234</v>
-      </c>
-      <c r="K5">
-        <v>151</v>
-      </c>
-      <c r="L5">
-        <v>3100</v>
-      </c>
-      <c r="M5" t="s">
-        <v>252</v>
-      </c>
-      <c r="N5">
-        <v>1.25</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>87</v>
-      </c>
-      <c r="R5" t="str">
-        <f>"RADAR2:" &amp; A5 &amp; ":" &amp; B5 &amp; ":" &amp; C5 &amp; ":" &amp; D5 &amp; ":" &amp; E5 &amp; ":" &amp; F5 &amp; ":" &amp; G5 &amp; ":" &amp; H5 &amp; ":" &amp; I5 &amp; ":" &amp; J5 &amp; ":" &amp; K5 &amp; ":" &amp; L5</f>
+        <f t="shared" si="0"/>
         <v>RADAR2:Bovingdon:N051.42.32.400:W000.32.27.900:120:151:3100:138:151:3100:234:151:3100</v>
       </c>
-      <c r="S5" s="3" t="str">
-        <f>"RADAR:" &amp; A5 &amp; CHAR(10) &amp;
-"POSITIONS:" &amp; CHAR(10) &amp; M5 &amp; CHAR(10) &amp;
-"LOCATION:" &amp; B5 &amp; ":" &amp; C5 &amp; CHAR(10) &amp;
-"ALTITUDE:" &amp; E5 &amp; CHAR(10) &amp;
-"BEAMWIDTH:" &amp; N5 &amp; CHAR(10) &amp;
-"PULSEWIDTH:" &amp; O5 &amp; CHAR(10) &amp;
-"MAXANGLE:" &amp; P5 &amp; CHAR(10) &amp;
-"RANGE:0:" &amp; D5</f>
+      <c r="S4" t="str">
+        <f t="shared" ref="S4:S10" si="1">"RADAR:" &amp; A4 &amp; CHAR(10) &amp;
+"POSITIONS:" &amp; CHAR(10) &amp; M4 &amp; CHAR(10) &amp;
+"LOCATION:" &amp; B4 &amp; ":" &amp; C4 &amp; CHAR(10) &amp;
+"ALTITUDE:" &amp; E4 &amp; CHAR(10) &amp;
+"BEAMWIDTH:" &amp; N4 &amp; CHAR(10) &amp;
+"PULSEWIDTH:" &amp; O4 &amp; CHAR(10) &amp;
+"MAXANGLE:" &amp; P4 &amp; CHAR(10) &amp;
+"RANGE:0:" &amp; D4</f>
         <v>RADAR:Bovingdon
 POSITIONS:
 LON:LTC:EGLL:EGKK:EGSS:EGGW:ESSEX:ESX:THAMES
@@ -1580,68 +1616,61 @@
 RANGE:0:120</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>199</v>
-      </c>
-      <c r="B6" t="s">
-        <v>200</v>
-      </c>
-      <c r="C6" t="s">
-        <v>201</v>
-      </c>
-      <c r="D6">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5">
         <v>160</v>
       </c>
-      <c r="E6">
+      <c r="E5">
         <v>704</v>
       </c>
-      <c r="F6">
-        <v>3100</v>
-      </c>
-      <c r="G6">
+      <c r="F5">
+        <v>3100</v>
+      </c>
+      <c r="G5">
         <v>184</v>
       </c>
-      <c r="H6">
+      <c r="H5">
         <v>704</v>
       </c>
-      <c r="I6">
-        <v>3100</v>
-      </c>
-      <c r="J6">
+      <c r="I5">
+        <v>3100</v>
+      </c>
+      <c r="J5">
         <v>312</v>
       </c>
-      <c r="K6">
+      <c r="K5">
         <v>704</v>
       </c>
-      <c r="L6">
-        <v>3100</v>
-      </c>
-      <c r="M6" t="s">
-        <v>252</v>
-      </c>
-      <c r="N6">
+      <c r="L5">
+        <v>3100</v>
+      </c>
+      <c r="M5" t="s">
+        <v>245</v>
+      </c>
+      <c r="N5">
         <v>1.25</v>
       </c>
-      <c r="O6">
+      <c r="O5">
         <v>1</v>
       </c>
-      <c r="P6">
+      <c r="P5">
         <v>87</v>
       </c>
-      <c r="R6" t="str">
-        <f>"RADAR2:" &amp; A6 &amp; ":" &amp; B6 &amp; ":" &amp; C6 &amp; ":" &amp; D6 &amp; ":" &amp; E6 &amp; ":" &amp; F6 &amp; ":" &amp; G6 &amp; ":" &amp; H6 &amp; ":" &amp; I6 &amp; ":" &amp; J6 &amp; ":" &amp; K6 &amp; ":" &amp; L6</f>
+      <c r="R5" t="str">
+        <f t="shared" si="0"/>
         <v>RADAR2:Burrington:N050.56.03.240:W003.59.06.960:160:704:3100:184:704:3100:312:704:3100</v>
       </c>
-      <c r="S6" s="3" t="str">
-        <f>"RADAR:" &amp; A6 &amp; CHAR(10) &amp;
-"POSITIONS:" &amp; CHAR(10) &amp; M6 &amp; CHAR(10) &amp;
-"LOCATION:" &amp; B6 &amp; ":" &amp; C6 &amp; CHAR(10) &amp;
-"ALTITUDE:" &amp; E6 &amp; CHAR(10) &amp;
-"BEAMWIDTH:" &amp; N6 &amp; CHAR(10) &amp;
-"PULSEWIDTH:" &amp; O6 &amp; CHAR(10) &amp;
-"MAXANGLE:" &amp; P6 &amp; CHAR(10) &amp;
-"RANGE:0:" &amp; D6</f>
+      <c r="S5" t="str">
+        <f t="shared" si="1"/>
         <v>RADAR:Burrington
 POSITIONS:
 LON:LTC:EGLL:EGKK:EGSS:EGGW:ESSEX:ESX:THAMES
@@ -1653,68 +1682,61 @@
 RANGE:0:160</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>202</v>
-      </c>
-      <c r="B7" t="s">
-        <v>203</v>
-      </c>
-      <c r="C7" t="s">
-        <v>204</v>
-      </c>
-      <c r="D7">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D6">
         <v>200</v>
       </c>
-      <c r="E7">
+      <c r="E6">
         <v>581</v>
       </c>
-      <c r="F7">
-        <v>3100</v>
-      </c>
-      <c r="G7">
+      <c r="F6">
+        <v>3100</v>
+      </c>
+      <c r="G6">
         <v>253</v>
       </c>
-      <c r="H7">
+      <c r="H6">
         <v>581</v>
       </c>
-      <c r="I7">
-        <v>3100</v>
-      </c>
-      <c r="J7">
+      <c r="I6">
+        <v>3100</v>
+      </c>
+      <c r="J6">
         <v>429</v>
       </c>
-      <c r="K7">
+      <c r="K6">
         <v>581</v>
       </c>
-      <c r="L7">
-        <v>3100</v>
-      </c>
-      <c r="M7" t="s">
-        <v>251</v>
-      </c>
-      <c r="N7">
+      <c r="L6">
+        <v>3100</v>
+      </c>
+      <c r="M6" t="s">
+        <v>244</v>
+      </c>
+      <c r="N6">
         <v>1.25</v>
       </c>
-      <c r="O7">
+      <c r="O6">
         <v>1</v>
       </c>
-      <c r="P7">
+      <c r="P6">
         <v>87</v>
       </c>
-      <c r="R7" t="str">
-        <f>"RADAR2:" &amp; A7 &amp; ":" &amp; B7 &amp; ":" &amp; C7 &amp; ":" &amp; D7 &amp; ":" &amp; E7 &amp; ":" &amp; F7 &amp; ":" &amp; G7 &amp; ":" &amp; H7 &amp; ":" &amp; I7 &amp; ":" &amp; J7 &amp; ":" &amp; K7 &amp; ":" &amp; L7</f>
+      <c r="R6" t="str">
+        <f t="shared" si="0"/>
         <v>RADAR2:Claxby:N053.27.00.300:W000.18.29.700:200:581:3100:253:581:3100:429:581:3100</v>
       </c>
-      <c r="S7" s="3" t="str">
-        <f>"RADAR:" &amp; A7 &amp; CHAR(10) &amp;
-"POSITIONS:" &amp; CHAR(10) &amp; M7 &amp; CHAR(10) &amp;
-"LOCATION:" &amp; B7 &amp; ":" &amp; C7 &amp; CHAR(10) &amp;
-"ALTITUDE:" &amp; E7 &amp; CHAR(10) &amp;
-"BEAMWIDTH:" &amp; N7 &amp; CHAR(10) &amp;
-"PULSEWIDTH:" &amp; O7 &amp; CHAR(10) &amp;
-"MAXANGLE:" &amp; P7 &amp; CHAR(10) &amp;
-"RANGE:0:" &amp; D7</f>
+      <c r="S6" t="str">
+        <f t="shared" si="1"/>
         <v>RADAR:Claxby
 POSITIONS:
 LON:SCO:STC:MAN
@@ -1726,68 +1748,61 @@
 RANGE:0:200</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>205</v>
-      </c>
-      <c r="B8" t="s">
-        <v>206</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D7">
+        <v>180</v>
+      </c>
+      <c r="E7">
+        <v>1162</v>
+      </c>
+      <c r="F7">
+        <v>3100</v>
+      </c>
+      <c r="G7">
         <v>207</v>
       </c>
-      <c r="D8">
-        <v>180</v>
-      </c>
-      <c r="E8">
+      <c r="H7">
         <v>1162</v>
       </c>
-      <c r="F8">
-        <v>3100</v>
-      </c>
-      <c r="G8">
-        <v>207</v>
-      </c>
-      <c r="H8">
+      <c r="I7">
+        <v>3100</v>
+      </c>
+      <c r="J7">
+        <v>351</v>
+      </c>
+      <c r="K7">
         <v>1162</v>
       </c>
-      <c r="I8">
-        <v>3100</v>
-      </c>
-      <c r="J8">
-        <v>351</v>
-      </c>
-      <c r="K8">
-        <v>1162</v>
-      </c>
-      <c r="L8">
-        <v>3100</v>
-      </c>
-      <c r="M8" t="s">
-        <v>254</v>
-      </c>
-      <c r="N8">
+      <c r="L7">
+        <v>3100</v>
+      </c>
+      <c r="M7" t="s">
+        <v>247</v>
+      </c>
+      <c r="N7">
         <v>1.25</v>
       </c>
-      <c r="O8">
+      <c r="O7">
         <v>1</v>
       </c>
-      <c r="P8">
+      <c r="P7">
         <v>87</v>
       </c>
-      <c r="R8" t="str">
-        <f>"RADAR2:" &amp; A8 &amp; ":" &amp; B8 &amp; ":" &amp; C8 &amp; ":" &amp; D8 &amp; ":" &amp; E8 &amp; ":" &amp; F8 &amp; ":" &amp; G8 &amp; ":" &amp; H8 &amp; ":" &amp; I8 &amp; ":" &amp; J8 &amp; ":" &amp; K8 &amp; ":" &amp; L8</f>
+      <c r="R7" t="str">
+        <f t="shared" si="0"/>
         <v>RADAR2:Clee Hill:N052.23.53.760:W002.35.50.940:180:1162:3100:207:1162:3100:351:1162:3100</v>
       </c>
-      <c r="S8" s="3" t="str">
-        <f>"RADAR:" &amp; A8 &amp; CHAR(10) &amp;
-"POSITIONS:" &amp; CHAR(10) &amp; M8 &amp; CHAR(10) &amp;
-"LOCATION:" &amp; B8 &amp; ":" &amp; C8 &amp; CHAR(10) &amp;
-"ALTITUDE:" &amp; E8 &amp; CHAR(10) &amp;
-"BEAMWIDTH:" &amp; N8 &amp; CHAR(10) &amp;
-"PULSEWIDTH:" &amp; O8 &amp; CHAR(10) &amp;
-"MAXANGLE:" &amp; P8 &amp; CHAR(10) &amp;
-"RANGE:0:" &amp; D8</f>
+      <c r="S7" t="str">
+        <f t="shared" si="1"/>
         <v>RADAR:Clee Hill
 POSITIONS:
 LON:LTC:EGLL:EGKK:EGSS:ESSEX:ESX:EGGW:THAMES:
@@ -1799,68 +1814,61 @@
 RANGE:0:180</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>190</v>
-      </c>
-      <c r="B9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="D9">
+      <c r="D8">
         <v>60</v>
       </c>
-      <c r="E9">
+      <c r="E8">
         <v>342</v>
       </c>
-      <c r="F9">
-        <v>3100</v>
-      </c>
-      <c r="G9">
+      <c r="F8">
+        <v>3100</v>
+      </c>
+      <c r="G8">
         <v>92</v>
       </c>
-      <c r="H9">
+      <c r="H8">
         <v>342</v>
       </c>
-      <c r="I9">
-        <v>3100</v>
-      </c>
-      <c r="J9">
+      <c r="I8">
+        <v>3100</v>
+      </c>
+      <c r="J8">
         <v>156</v>
       </c>
-      <c r="K9">
+      <c r="K8">
         <v>342</v>
       </c>
-      <c r="L9">
-        <v>3100</v>
-      </c>
-      <c r="M9" t="s">
-        <v>257</v>
-      </c>
-      <c r="N9">
+      <c r="L8">
+        <v>3100</v>
+      </c>
+      <c r="M8" t="s">
+        <v>250</v>
+      </c>
+      <c r="N8">
         <v>1.4</v>
       </c>
-      <c r="O9">
+      <c r="O8">
         <v>1</v>
       </c>
-      <c r="P9">
+      <c r="P8">
         <v>87</v>
       </c>
-      <c r="R9" t="str">
-        <f>"RADAR2:" &amp; A9 &amp; ":" &amp; B9 &amp; ":" &amp; C9 &amp; ":" &amp; D9 &amp; ":" &amp; E9 &amp; ":" &amp; F9 &amp; ":" &amp; G9 &amp; ":" &amp; H9 &amp; ":" &amp; I9 &amp; ":" &amp; J9 &amp; ":" &amp; K9 &amp; ":" &amp; L9</f>
+      <c r="R8" t="str">
+        <f t="shared" si="0"/>
         <v>RADAR2:Cromer:N052.54.38.000:E001.20.59.000:60:342:3100:92:342:3100:156:342:3100</v>
       </c>
-      <c r="S9" s="3" t="str">
-        <f>"RADAR:" &amp; A9 &amp; CHAR(10) &amp;
-"POSITIONS:" &amp; CHAR(10) &amp; M9 &amp; CHAR(10) &amp;
-"LOCATION:" &amp; B9 &amp; ":" &amp; C9 &amp; CHAR(10) &amp;
-"ALTITUDE:" &amp; E9 &amp; CHAR(10) &amp;
-"BEAMWIDTH:" &amp; N9 &amp; CHAR(10) &amp;
-"PULSEWIDTH:" &amp; O9 &amp; CHAR(10) &amp;
-"MAXANGLE:" &amp; P9 &amp; CHAR(10) &amp;
-"RANGE:0:" &amp; D9</f>
+      <c r="S8" t="str">
+        <f t="shared" si="1"/>
         <v>RADAR:Cromer
 POSITIONS:
 LON:SCO
@@ -1872,53 +1880,46 @@
 RANGE:0:60</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>218</v>
-      </c>
-      <c r="B10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D10">
+      <c r="D9">
         <v>60</v>
       </c>
-      <c r="E10">
+      <c r="E9">
         <v>123</v>
       </c>
-      <c r="F10">
-        <v>3100</v>
-      </c>
-      <c r="M10" t="s">
-        <v>258</v>
-      </c>
-      <c r="N10">
+      <c r="F9">
+        <v>3100</v>
+      </c>
+      <c r="M9" t="s">
+        <v>251</v>
+      </c>
+      <c r="N9">
         <v>1.4</v>
       </c>
-      <c r="O10">
+      <c r="O9">
         <v>1</v>
       </c>
-      <c r="P10">
+      <c r="P9">
         <v>87</v>
       </c>
-      <c r="Q10" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="R10" t="str">
-        <f>"RADAR2:" &amp; A10 &amp; ":" &amp; B10 &amp; ":" &amp; C10 &amp; ":" &amp; D10 &amp; ":" &amp; E10 &amp; ":" &amp; F10 &amp; ":" &amp; G10 &amp; ":" &amp; H10 &amp; ":" &amp; I10 &amp; ":" &amp; J10 &amp; ":" &amp; K10 &amp; ":" &amp; L10</f>
+      <c r="Q9" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="R9" t="str">
+        <f t="shared" si="0"/>
         <v>RADAR2:Cumbernauld:N055.56.21.000:W004.03.26.000:60:123:3100::::::</v>
       </c>
-      <c r="S10" s="3" t="str">
-        <f>"RADAR:" &amp; A10 &amp; CHAR(10) &amp;
-"POSITIONS:" &amp; CHAR(10) &amp; M10 &amp; CHAR(10) &amp;
-"LOCATION:" &amp; B10 &amp; ":" &amp; C10 &amp; CHAR(10) &amp;
-"ALTITUDE:" &amp; E10 &amp; CHAR(10) &amp;
-"BEAMWIDTH:" &amp; N10 &amp; CHAR(10) &amp;
-"PULSEWIDTH:" &amp; O10 &amp; CHAR(10) &amp;
-"MAXANGLE:" &amp; P10 &amp; CHAR(10) &amp;
-"RANGE:0:" &amp; D10</f>
+      <c r="S9" t="str">
+        <f t="shared" si="1"/>
         <v>RADAR:Cumbernauld
 POSITIONS:
 SCO:STC
@@ -1930,68 +1931,61 @@
 RANGE:0:60</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>219</v>
-      </c>
-      <c r="B11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C11" t="s">
-        <v>221</v>
-      </c>
-      <c r="D11">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D10">
         <v>120</v>
       </c>
-      <c r="E11">
+      <c r="E10">
         <v>430</v>
       </c>
-      <c r="F11">
-        <v>3100</v>
-      </c>
-      <c r="G11">
+      <c r="F10">
+        <v>3100</v>
+      </c>
+      <c r="G10">
         <v>138</v>
       </c>
-      <c r="H11">
+      <c r="H10">
         <v>430</v>
       </c>
-      <c r="I11">
-        <v>3100</v>
-      </c>
-      <c r="J11">
+      <c r="I10">
+        <v>3100</v>
+      </c>
+      <c r="J10">
         <v>351</v>
       </c>
-      <c r="K11">
+      <c r="K10">
         <v>430</v>
       </c>
-      <c r="L11">
-        <v>3100</v>
-      </c>
-      <c r="M11" t="s">
-        <v>254</v>
-      </c>
-      <c r="N11">
+      <c r="L10">
+        <v>3100</v>
+      </c>
+      <c r="M10" t="s">
+        <v>247</v>
+      </c>
+      <c r="N10">
         <v>1.25</v>
       </c>
-      <c r="O11">
+      <c r="O10">
         <v>1</v>
       </c>
-      <c r="P11">
+      <c r="P10">
         <v>87</v>
       </c>
-      <c r="R11" t="str">
-        <f>"RADAR2:" &amp; A11 &amp; ":" &amp; B11 &amp; ":" &amp; C11 &amp; ":" &amp; D11 &amp; ":" &amp; E11 &amp; ":" &amp; F11 &amp; ":" &amp; G11 &amp; ":" &amp; H11 &amp; ":" &amp; I11 &amp; ":" &amp; J11 &amp; ":" &amp; K11 &amp; ":" &amp; L11</f>
+      <c r="R10" t="str">
+        <f t="shared" si="0"/>
         <v>RADAR2:Debden:N051.59.24.660:E000.15.49.740:120:430:3100:138:430:3100:351:430:3100</v>
       </c>
-      <c r="S11" s="3" t="str">
-        <f>"RADAR:" &amp; A11 &amp; CHAR(10) &amp;
-"POSITIONS:" &amp; CHAR(10) &amp; M11 &amp; CHAR(10) &amp;
-"LOCATION:" &amp; B11 &amp; ":" &amp; C11 &amp; CHAR(10) &amp;
-"ALTITUDE:" &amp; E11 &amp; CHAR(10) &amp;
-"BEAMWIDTH:" &amp; N11 &amp; CHAR(10) &amp;
-"PULSEWIDTH:" &amp; O11 &amp; CHAR(10) &amp;
-"MAXANGLE:" &amp; P11 &amp; CHAR(10) &amp;
-"RANGE:0:" &amp; D11</f>
+      <c r="S10" t="str">
+        <f t="shared" si="1"/>
         <v>RADAR:Debden
 POSITIONS:
 LON:LTC:EGLL:EGKK:EGSS:ESSEX:ESX:EGGW:THAMES:
@@ -2003,107 +1997,107 @@
 RANGE:0:120</v>
       </c>
     </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C11" t="s">
+        <v>218</v>
+      </c>
+      <c r="G11">
+        <v>180</v>
+      </c>
+      <c r="H11">
+        <v>925</v>
+      </c>
+      <c r="I11">
+        <v>3100</v>
+      </c>
+      <c r="J11">
+        <v>300</v>
+      </c>
+      <c r="K11">
+        <v>925</v>
+      </c>
+      <c r="L11">
+        <v>3100</v>
+      </c>
+      <c r="P11">
+        <v>87</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="R11" t="str">
+        <f t="shared" si="0"/>
+        <v>RADAR2:Fitful Head:N059.54.20.700:W001.22.57.060::::180:925:3100:300:925:3100</v>
+      </c>
+    </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B12" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C12" t="s">
-        <v>224</v>
+        <v>221</v>
+      </c>
+      <c r="D12">
+        <v>200</v>
+      </c>
+      <c r="E12">
+        <v>1428</v>
+      </c>
+      <c r="F12">
+        <v>3100</v>
       </c>
       <c r="G12">
-        <v>180</v>
+        <v>253</v>
       </c>
       <c r="H12">
-        <v>925</v>
+        <v>1428</v>
       </c>
       <c r="I12">
         <v>3100</v>
       </c>
       <c r="J12">
-        <v>300</v>
+        <v>429</v>
       </c>
       <c r="K12">
-        <v>925</v>
+        <v>1428</v>
       </c>
       <c r="L12">
         <v>3100</v>
+      </c>
+      <c r="M12" t="s">
+        <v>244</v>
+      </c>
+      <c r="N12">
+        <v>1.25</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
       </c>
       <c r="P12">
         <v>87</v>
       </c>
-      <c r="Q12" s="1" t="s">
-        <v>250</v>
-      </c>
       <c r="R12" t="str">
-        <f>"RADAR2:" &amp; A12 &amp; ":" &amp; B12 &amp; ":" &amp; C12 &amp; ":" &amp; D12 &amp; ":" &amp; E12 &amp; ":" &amp; F12 &amp; ":" &amp; G12 &amp; ":" &amp; H12 &amp; ":" &amp; I12 &amp; ":" &amp; J12 &amp; ":" &amp; K12 &amp; ":" &amp; L12</f>
-        <v>RADAR2:Fitful Head:N059.54.20.700:W001.22.57.060::::180:925:3100:300:925:3100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>225</v>
-      </c>
-      <c r="B13" t="s">
-        <v>226</v>
-      </c>
-      <c r="C13" t="s">
-        <v>227</v>
-      </c>
-      <c r="D13">
-        <v>200</v>
-      </c>
-      <c r="E13">
-        <v>1428</v>
-      </c>
-      <c r="F13">
-        <v>3100</v>
-      </c>
-      <c r="G13">
-        <v>253</v>
-      </c>
-      <c r="H13">
-        <v>1428</v>
-      </c>
-      <c r="I13">
-        <v>3100</v>
-      </c>
-      <c r="J13">
-        <v>429</v>
-      </c>
-      <c r="K13">
-        <v>1428</v>
-      </c>
-      <c r="L13">
-        <v>3100</v>
-      </c>
-      <c r="M13" t="s">
-        <v>251</v>
-      </c>
-      <c r="N13">
-        <v>1.25</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <v>87</v>
-      </c>
-      <c r="R13" t="str">
-        <f>"RADAR2:" &amp; A13 &amp; ":" &amp; B13 &amp; ":" &amp; C13 &amp; ":" &amp; D13 &amp; ":" &amp; E13 &amp; ":" &amp; F13 &amp; ":" &amp; G13 &amp; ":" &amp; H13 &amp; ":" &amp; I13 &amp; ":" &amp; J13 &amp; ":" &amp; K13 &amp; ":" &amp; L13</f>
+        <f t="shared" si="0"/>
         <v>RADAR2:Great Dun Fell:N054.41.02.820:W002.27.03.300:200:1428:3100:253:1428:3100:429:1428:3100</v>
       </c>
-      <c r="S13" s="3" t="str">
-        <f>"RADAR:" &amp; A13 &amp; CHAR(10) &amp;
-"POSITIONS:" &amp; CHAR(10) &amp; M13 &amp; CHAR(10) &amp;
-"LOCATION:" &amp; B13 &amp; ":" &amp; C13 &amp; CHAR(10) &amp;
-"ALTITUDE:" &amp; E13 &amp; CHAR(10) &amp;
-"BEAMWIDTH:" &amp; N13 &amp; CHAR(10) &amp;
-"PULSEWIDTH:" &amp; O13 &amp; CHAR(10) &amp;
-"MAXANGLE:" &amp; P13 &amp; CHAR(10) &amp;
-"RANGE:0:" &amp; D13</f>
+      <c r="S12" t="str">
+        <f t="shared" ref="S12:S19" si="2">"RADAR:" &amp; A12 &amp; CHAR(10) &amp;
+"POSITIONS:" &amp; CHAR(10) &amp; M12 &amp; CHAR(10) &amp;
+"LOCATION:" &amp; B12 &amp; ":" &amp; C12 &amp; CHAR(10) &amp;
+"ALTITUDE:" &amp; E12 &amp; CHAR(10) &amp;
+"BEAMWIDTH:" &amp; N12 &amp; CHAR(10) &amp;
+"PULSEWIDTH:" &amp; O12 &amp; CHAR(10) &amp;
+"MAXANGLE:" &amp; P12 &amp; CHAR(10) &amp;
+"RANGE:0:" &amp; D12</f>
         <v>RADAR:Great Dun Fell
 POSITIONS:
 LON:SCO:STC:MAN
@@ -2115,53 +2109,46 @@
 RANGE:0:200</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>192</v>
-      </c>
-      <c r="B14" t="s">
-        <v>151</v>
-      </c>
-      <c r="C14" t="s">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" t="s">
         <v>16</v>
       </c>
-      <c r="D14">
+      <c r="D13">
         <v>60</v>
       </c>
-      <c r="E14">
+      <c r="E13">
         <v>327</v>
       </c>
-      <c r="F14">
-        <v>3100</v>
-      </c>
-      <c r="M14" t="s">
-        <v>258</v>
-      </c>
-      <c r="N14">
+      <c r="F13">
+        <v>3100</v>
+      </c>
+      <c r="M13" t="s">
+        <v>251</v>
+      </c>
+      <c r="N13">
         <v>1.4</v>
       </c>
-      <c r="O14">
+      <c r="O13">
         <v>1</v>
       </c>
-      <c r="P14">
+      <c r="P13">
         <v>87</v>
       </c>
-      <c r="Q14" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="R14" t="str">
-        <f>"RADAR2:" &amp; A14 &amp; ":" &amp; B14 &amp; ":" &amp; C14 &amp; ":" &amp; D14 &amp; ":" &amp; E14 &amp; ":" &amp; F14 &amp; ":" &amp; G14 &amp; ":" &amp; H14 &amp; ":" &amp; I14 &amp; ":" &amp; J14 &amp; ":" &amp; K14 &amp; ":" &amp; L14</f>
+      <c r="Q13" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="R13" t="str">
+        <f t="shared" si="0"/>
         <v>RADAR2:Kincardine:N056.04.20.000:W003.43.45.000:60:327:3100::::::</v>
       </c>
-      <c r="S14" s="3" t="str">
-        <f>"RADAR:" &amp; A14 &amp; CHAR(10) &amp;
-"POSITIONS:" &amp; CHAR(10) &amp; M14 &amp; CHAR(10) &amp;
-"LOCATION:" &amp; B14 &amp; ":" &amp; C14 &amp; CHAR(10) &amp;
-"ALTITUDE:" &amp; E14 &amp; CHAR(10) &amp;
-"BEAMWIDTH:" &amp; N14 &amp; CHAR(10) &amp;
-"PULSEWIDTH:" &amp; O14 &amp; CHAR(10) &amp;
-"MAXANGLE:" &amp; P14 &amp; CHAR(10) &amp;
-"RANGE:0:" &amp; D14</f>
+      <c r="S13" t="str">
+        <f t="shared" si="2"/>
         <v>RADAR:Kincardine
 POSITIONS:
 SCO:STC
@@ -2173,68 +2160,61 @@
 RANGE:0:60</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>228</v>
-      </c>
-      <c r="B15" t="s">
-        <v>229</v>
-      </c>
-      <c r="C15" t="s">
-        <v>230</v>
-      </c>
-      <c r="D15">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B14" t="s">
+        <v>223</v>
+      </c>
+      <c r="C14" t="s">
+        <v>224</v>
+      </c>
+      <c r="D14">
         <v>120</v>
       </c>
-      <c r="E15">
+      <c r="E14">
         <v>2008</v>
       </c>
-      <c r="F15">
-        <v>3100</v>
-      </c>
-      <c r="G15">
+      <c r="F14">
+        <v>3100</v>
+      </c>
+      <c r="G14">
         <v>138</v>
       </c>
-      <c r="H15">
+      <c r="H14">
         <v>2008</v>
       </c>
-      <c r="I15">
-        <v>3100</v>
-      </c>
-      <c r="J15">
+      <c r="I14">
+        <v>3100</v>
+      </c>
+      <c r="J14">
         <v>234</v>
       </c>
-      <c r="K15">
+      <c r="K14">
         <v>2008</v>
       </c>
-      <c r="L15">
-        <v>3100</v>
-      </c>
-      <c r="M15" t="s">
-        <v>251</v>
-      </c>
-      <c r="N15">
+      <c r="L14">
+        <v>3100</v>
+      </c>
+      <c r="M14" t="s">
+        <v>244</v>
+      </c>
+      <c r="N14">
         <v>1.25</v>
       </c>
-      <c r="O15">
+      <c r="O14">
         <v>1</v>
       </c>
-      <c r="P15">
+      <c r="P14">
         <v>87</v>
       </c>
-      <c r="R15" t="str">
-        <f>"RADAR2:" &amp; A15 &amp; ":" &amp; B15 &amp; ":" &amp; C15 &amp; ":" &amp; D15 &amp; ":" &amp; E15 &amp; ":" &amp; F15 &amp; ":" &amp; G15 &amp; ":" &amp; H15 &amp; ":" &amp; I15 &amp; ":" &amp; J15 &amp; ":" &amp; K15 &amp; ":" &amp; L15</f>
+      <c r="R14" t="str">
+        <f t="shared" si="0"/>
         <v>RADAR2:Lowther Hill:N055.22.39.780:W003.45.10.920:120:2008:3100:138:2008:3100:234:2008:3100</v>
       </c>
-      <c r="S15" s="3" t="str">
-        <f>"RADAR:" &amp; A15 &amp; CHAR(10) &amp;
-"POSITIONS:" &amp; CHAR(10) &amp; M15 &amp; CHAR(10) &amp;
-"LOCATION:" &amp; B15 &amp; ":" &amp; C15 &amp; CHAR(10) &amp;
-"ALTITUDE:" &amp; E15 &amp; CHAR(10) &amp;
-"BEAMWIDTH:" &amp; N15 &amp; CHAR(10) &amp;
-"PULSEWIDTH:" &amp; O15 &amp; CHAR(10) &amp;
-"MAXANGLE:" &amp; P15 &amp; CHAR(10) &amp;
-"RANGE:0:" &amp; D15</f>
+      <c r="S14" t="str">
+        <f t="shared" si="2"/>
         <v>RADAR:Lowther Hill
 POSITIONS:
 LON:SCO:STC:MAN
@@ -2246,68 +2226,61 @@
 RANGE:0:120</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>231</v>
-      </c>
-      <c r="B16" t="s">
-        <v>232</v>
-      </c>
-      <c r="C16" t="s">
-        <v>233</v>
-      </c>
-      <c r="D16">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>225</v>
+      </c>
+      <c r="B15" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" t="s">
+        <v>227</v>
+      </c>
+      <c r="D15">
         <v>120</v>
       </c>
-      <c r="E16">
+      <c r="E15">
         <v>332</v>
       </c>
-      <c r="F16">
-        <v>3100</v>
-      </c>
-      <c r="G16">
+      <c r="F15">
+        <v>3100</v>
+      </c>
+      <c r="G15">
         <v>138</v>
       </c>
-      <c r="H16">
+      <c r="H15">
         <v>332</v>
       </c>
-      <c r="I16">
-        <v>3100</v>
-      </c>
-      <c r="J16">
+      <c r="I15">
+        <v>3100</v>
+      </c>
+      <c r="J15">
         <v>234</v>
       </c>
-      <c r="K16">
+      <c r="K15">
         <v>332</v>
       </c>
-      <c r="L16">
-        <v>3100</v>
-      </c>
-      <c r="M16" t="s">
-        <v>254</v>
-      </c>
-      <c r="N16">
+      <c r="L15">
+        <v>3100</v>
+      </c>
+      <c r="M15" t="s">
+        <v>247</v>
+      </c>
+      <c r="N15">
         <v>1.25</v>
       </c>
-      <c r="O16">
+      <c r="O15">
         <v>1</v>
       </c>
-      <c r="P16">
+      <c r="P15">
         <v>87</v>
       </c>
-      <c r="R16" t="str">
-        <f>"RADAR2:" &amp; A16 &amp; ":" &amp; B16 &amp; ":" &amp; C16 &amp; ":" &amp; D16 &amp; ":" &amp; E16 &amp; ":" &amp; F16 &amp; ":" &amp; G16 &amp; ":" &amp; H16 &amp; ":" &amp; I16 &amp; ":" &amp; J16 &amp; ":" &amp; K16 &amp; ":" &amp; L16</f>
+      <c r="R15" t="str">
+        <f t="shared" si="0"/>
         <v>RADAR2:Pease Pottage:N051.05.00.240:W000.12.51.960:120:332:3100:138:332:3100:234:332:3100</v>
       </c>
-      <c r="S16" s="3" t="str">
-        <f>"RADAR:" &amp; A16 &amp; CHAR(10) &amp;
-"POSITIONS:" &amp; CHAR(10) &amp; M16 &amp; CHAR(10) &amp;
-"LOCATION:" &amp; B16 &amp; ":" &amp; C16 &amp; CHAR(10) &amp;
-"ALTITUDE:" &amp; E16 &amp; CHAR(10) &amp;
-"BEAMWIDTH:" &amp; N16 &amp; CHAR(10) &amp;
-"PULSEWIDTH:" &amp; O16 &amp; CHAR(10) &amp;
-"MAXANGLE:" &amp; P16 &amp; CHAR(10) &amp;
-"RANGE:0:" &amp; D16</f>
+      <c r="S15" t="str">
+        <f t="shared" si="2"/>
         <v>RADAR:Pease Pottage
 POSITIONS:
 LON:LTC:EGLL:EGKK:EGSS:ESSEX:ESX:EGGW:THAMES:
@@ -2319,68 +2292,61 @@
 RANGE:0:120</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>234</v>
-      </c>
-      <c r="B17" t="s">
-        <v>235</v>
-      </c>
-      <c r="C17" t="s">
-        <v>236</v>
-      </c>
-      <c r="D17">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D16">
         <v>200</v>
       </c>
-      <c r="E17">
+      <c r="E16">
         <v>359</v>
       </c>
-      <c r="F17">
-        <v>3100</v>
-      </c>
-      <c r="G17">
+      <c r="F16">
+        <v>3100</v>
+      </c>
+      <c r="G16">
         <v>184</v>
       </c>
-      <c r="H17">
+      <c r="H16">
         <v>359</v>
       </c>
-      <c r="I17">
-        <v>3100</v>
-      </c>
-      <c r="J17">
+      <c r="I16">
+        <v>3100</v>
+      </c>
+      <c r="J16">
         <v>312</v>
       </c>
-      <c r="K17">
+      <c r="K16">
         <v>359</v>
       </c>
-      <c r="L17">
-        <v>3100</v>
-      </c>
-      <c r="M17" t="s">
-        <v>209</v>
-      </c>
-      <c r="N17">
+      <c r="L16">
+        <v>3100</v>
+      </c>
+      <c r="M16" t="s">
+        <v>204</v>
+      </c>
+      <c r="N16">
         <v>1.25</v>
       </c>
-      <c r="O17">
+      <c r="O16">
         <v>1</v>
       </c>
-      <c r="P17">
+      <c r="P16">
         <v>87</v>
       </c>
-      <c r="R17" t="str">
-        <f>"RADAR2:" &amp; A17 &amp; ":" &amp; B17 &amp; ":" &amp; C17 &amp; ":" &amp; D17 &amp; ":" &amp; E17 &amp; ":" &amp; F17 &amp; ":" &amp; G17 &amp; ":" &amp; H17 &amp; ":" &amp; I17 &amp; ":" &amp; J17 &amp; ":" &amp; K17 &amp; ":" &amp; L17</f>
+      <c r="R16" t="str">
+        <f t="shared" si="0"/>
         <v>RADAR2:Perwinnes Hill:N057.12.44.160:W002.07.51.240:200:359:3100:184:359:3100:312:359:3100</v>
       </c>
-      <c r="S17" s="3" t="str">
-        <f>"RADAR:" &amp; A17 &amp; CHAR(10) &amp;
-"POSITIONS:" &amp; CHAR(10) &amp; M17 &amp; CHAR(10) &amp;
-"LOCATION:" &amp; B17 &amp; ":" &amp; C17 &amp; CHAR(10) &amp;
-"ALTITUDE:" &amp; E17 &amp; CHAR(10) &amp;
-"BEAMWIDTH:" &amp; N17 &amp; CHAR(10) &amp;
-"PULSEWIDTH:" &amp; O17 &amp; CHAR(10) &amp;
-"MAXANGLE:" &amp; P17 &amp; CHAR(10) &amp;
-"RANGE:0:" &amp; D17</f>
+      <c r="S16" t="str">
+        <f t="shared" si="2"/>
         <v>RADAR:Perwinnes Hill
 POSITIONS:
 SCO:STC:EGPD
@@ -2392,68 +2358,61 @@
 RANGE:0:200</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>237</v>
-      </c>
-      <c r="B18" t="s">
-        <v>238</v>
-      </c>
-      <c r="C18" t="s">
-        <v>240</v>
-      </c>
-      <c r="D18">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>231</v>
+      </c>
+      <c r="B17" t="s">
+        <v>232</v>
+      </c>
+      <c r="C17" t="s">
+        <v>234</v>
+      </c>
+      <c r="D17">
         <v>160</v>
       </c>
-      <c r="E18">
+      <c r="E17">
         <v>123</v>
       </c>
-      <c r="F18">
-        <v>3100</v>
-      </c>
-      <c r="G18">
+      <c r="F17">
+        <v>3100</v>
+      </c>
+      <c r="G17">
         <v>177</v>
       </c>
-      <c r="H18">
+      <c r="H17">
         <v>123</v>
       </c>
-      <c r="I18">
-        <v>3100</v>
-      </c>
-      <c r="J18">
+      <c r="I17">
+        <v>3100</v>
+      </c>
+      <c r="J17">
         <v>300</v>
       </c>
-      <c r="K18">
+      <c r="K17">
         <v>123</v>
       </c>
-      <c r="L18">
-        <v>3100</v>
-      </c>
-      <c r="M18" t="s">
-        <v>260</v>
-      </c>
-      <c r="N18">
+      <c r="L17">
+        <v>3100</v>
+      </c>
+      <c r="M17" t="s">
+        <v>253</v>
+      </c>
+      <c r="N17">
         <v>1.25</v>
       </c>
-      <c r="O18">
+      <c r="O17">
         <v>1</v>
       </c>
-      <c r="P18">
+      <c r="P17">
         <v>87</v>
       </c>
-      <c r="R18" t="str">
-        <f>"RADAR2:" &amp; A18 &amp; ":" &amp; B18 &amp; ":" &amp; C18 &amp; ":" &amp; D18 &amp; ":" &amp; E18 &amp; ":" &amp; F18 &amp; ":" &amp; G18 &amp; ":" &amp; H18 &amp; ":" &amp; I18 &amp; ":" &amp; J18 &amp; ":" &amp; K18 &amp; ":" &amp; L18</f>
+      <c r="R17" t="str">
+        <f t="shared" si="0"/>
         <v>RADAR2:Sandwick:N058.12.37.140:W006.21.28.500:160:123:3100:177:123:3100:300:123:3100</v>
       </c>
-      <c r="S18" s="3" t="str">
-        <f>"RADAR:" &amp; A18 &amp; CHAR(10) &amp;
-"POSITIONS:" &amp; CHAR(10) &amp; M18 &amp; CHAR(10) &amp;
-"LOCATION:" &amp; B18 &amp; ":" &amp; C18 &amp; CHAR(10) &amp;
-"ALTITUDE:" &amp; E18 &amp; CHAR(10) &amp;
-"BEAMWIDTH:" &amp; N18 &amp; CHAR(10) &amp;
-"PULSEWIDTH:" &amp; O18 &amp; CHAR(10) &amp;
-"MAXANGLE:" &amp; P18 &amp; CHAR(10) &amp;
-"RANGE:0:" &amp; D18</f>
+      <c r="S17" t="str">
+        <f t="shared" si="2"/>
         <v>RADAR:Sandwick
 POSITIONS:
 SCO
@@ -2465,68 +2424,61 @@
 RANGE:0:160</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>193</v>
-      </c>
-      <c r="B19" t="s">
-        <v>152</v>
-      </c>
-      <c r="C19" t="s">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>189</v>
+      </c>
+      <c r="B18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" t="s">
         <v>17</v>
       </c>
-      <c r="D19">
+      <c r="D18">
         <v>60</v>
       </c>
-      <c r="E19">
+      <c r="E18">
         <v>94</v>
       </c>
-      <c r="F19">
-        <v>3100</v>
-      </c>
-      <c r="G19">
+      <c r="F18">
+        <v>3100</v>
+      </c>
+      <c r="G18">
         <v>92</v>
       </c>
-      <c r="H19">
+      <c r="H18">
         <v>94</v>
       </c>
-      <c r="I19">
-        <v>3100</v>
-      </c>
-      <c r="J19">
+      <c r="I18">
+        <v>3100</v>
+      </c>
+      <c r="J18">
         <v>156</v>
       </c>
-      <c r="K19">
+      <c r="K18">
         <v>94</v>
       </c>
-      <c r="L19">
-        <v>3100</v>
-      </c>
-      <c r="M19" t="s">
-        <v>261</v>
-      </c>
-      <c r="N19">
+      <c r="L18">
+        <v>3100</v>
+      </c>
+      <c r="M18" t="s">
+        <v>254</v>
+      </c>
+      <c r="N18">
         <v>1.4</v>
       </c>
-      <c r="O19">
+      <c r="O18">
         <v>1</v>
       </c>
-      <c r="P19">
+      <c r="P18">
         <v>87</v>
       </c>
-      <c r="R19" t="str">
-        <f>"RADAR2:" &amp; A19 &amp; ":" &amp; B19 &amp; ":" &amp; C19 &amp; ":" &amp; D19 &amp; ":" &amp; E19 &amp; ":" &amp; F19 &amp; ":" &amp; G19 &amp; ":" &amp; H19 &amp; ":" &amp; I19 &amp; ":" &amp; J19 &amp; ":" &amp; K19 &amp; ":" &amp; L19</f>
+      <c r="R18" t="str">
+        <f t="shared" si="0"/>
         <v>RADAR2:St Annes:N053.46.06.000:W002.59.27.000:60:94:3100:92:94:3100:156:94:3100</v>
       </c>
-      <c r="S19" s="3" t="str">
-        <f>"RADAR:" &amp; A19 &amp; CHAR(10) &amp;
-"POSITIONS:" &amp; CHAR(10) &amp; M19 &amp; CHAR(10) &amp;
-"LOCATION:" &amp; B19 &amp; ":" &amp; C19 &amp; CHAR(10) &amp;
-"ALTITUDE:" &amp; E19 &amp; CHAR(10) &amp;
-"BEAMWIDTH:" &amp; N19 &amp; CHAR(10) &amp;
-"PULSEWIDTH:" &amp; O19 &amp; CHAR(10) &amp;
-"MAXANGLE:" &amp; P19 &amp; CHAR(10) &amp;
-"RANGE:0:" &amp; D19</f>
+      <c r="S18" t="str">
+        <f t="shared" si="2"/>
         <v>RADAR:St Annes
 POSITIONS:
 SCO:STC:MAN
@@ -2538,68 +2490,61 @@
 RANGE:0:60</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>241</v>
-      </c>
-      <c r="B20" t="s">
-        <v>242</v>
-      </c>
-      <c r="C20" t="s">
-        <v>243</v>
-      </c>
-      <c r="D20">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>235</v>
+      </c>
+      <c r="B19" t="s">
+        <v>236</v>
+      </c>
+      <c r="C19" t="s">
+        <v>237</v>
+      </c>
+      <c r="D19">
         <v>200</v>
       </c>
-      <c r="E20">
+      <c r="E19">
         <v>351</v>
       </c>
-      <c r="F20">
-        <v>3100</v>
-      </c>
-      <c r="G20">
+      <c r="F19">
+        <v>3100</v>
+      </c>
+      <c r="G19">
         <v>253</v>
       </c>
-      <c r="H20">
+      <c r="H19">
         <v>351</v>
       </c>
-      <c r="I20">
-        <v>3100</v>
-      </c>
-      <c r="J20">
+      <c r="I19">
+        <v>3100</v>
+      </c>
+      <c r="J19">
         <v>420</v>
       </c>
-      <c r="K20">
+      <c r="K19">
         <v>351</v>
       </c>
-      <c r="L20">
-        <v>3100</v>
-      </c>
-      <c r="M20" t="s">
-        <v>261</v>
-      </c>
-      <c r="N20">
+      <c r="L19">
+        <v>3100</v>
+      </c>
+      <c r="M19" t="s">
+        <v>254</v>
+      </c>
+      <c r="N19">
         <v>1.25</v>
       </c>
-      <c r="O20">
+      <c r="O19">
         <v>1</v>
       </c>
-      <c r="P20">
+      <c r="P19">
         <v>87</v>
       </c>
-      <c r="R20" t="str">
-        <f>"RADAR2:" &amp; A20 &amp; ":" &amp; B20 &amp; ":" &amp; C20 &amp; ":" &amp; D20 &amp; ":" &amp; E20 &amp; ":" &amp; F20 &amp; ":" &amp; G20 &amp; ":" &amp; H20 &amp; ":" &amp; I20 &amp; ":" &amp; J20 &amp; ":" &amp; K20 &amp; ":" &amp; L20</f>
+      <c r="R19" t="str">
+        <f t="shared" si="0"/>
         <v>RADAR2:Tiree:N056.27.19.620:W006.55.23.220:200:351:3100:253:351:3100:420:351:3100</v>
       </c>
-      <c r="S20" s="3" t="str">
-        <f>"RADAR:" &amp; A20 &amp; CHAR(10) &amp;
-"POSITIONS:" &amp; CHAR(10) &amp; M20 &amp; CHAR(10) &amp;
-"LOCATION:" &amp; B20 &amp; ":" &amp; C20 &amp; CHAR(10) &amp;
-"ALTITUDE:" &amp; E20 &amp; CHAR(10) &amp;
-"BEAMWIDTH:" &amp; N20 &amp; CHAR(10) &amp;
-"PULSEWIDTH:" &amp; O20 &amp; CHAR(10) &amp;
-"MAXANGLE:" &amp; P20 &amp; CHAR(10) &amp;
-"RANGE:0:" &amp; D20</f>
+      <c r="S19" t="str">
+        <f t="shared" si="2"/>
         <v>RADAR:Tiree
 POSITIONS:
 SCO:STC:MAN
@@ -2611,20 +2556,20 @@
 RANGE:0:200</v>
       </c>
     </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>246</v>
+      </c>
+      <c r="C25" t="s">
+        <v>247</v>
+      </c>
+    </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C26" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>255</v>
-      </c>
-      <c r="C27" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -2639,10 +2584,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62641281-12B9-4653-9C0B-3B66BEAEFD59}">
-  <dimension ref="A1:S36"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2664,18 +2609,18 @@
     <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="48.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="19" customWidth="1"/>
+    <col min="18" max="18" width="37.140625" customWidth="1"/>
     <col min="19" max="19" width="39.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -2686,7 +2631,7 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
@@ -2730,40 +2675,79 @@
         <v>11</v>
       </c>
       <c r="M2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="N2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="O2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="P2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="R2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="S2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>107</v>
+      </c>
+      <c r="D3">
+        <v>60</v>
+      </c>
+      <c r="E3">
+        <v>79</v>
+      </c>
+      <c r="F3">
+        <v>3100</v>
+      </c>
+      <c r="G3">
+        <v>72</v>
+      </c>
+      <c r="H3">
+        <v>79</v>
+      </c>
+      <c r="I3">
+        <v>3100</v>
+      </c>
+      <c r="J3">
+        <v>117</v>
+      </c>
+      <c r="K3">
+        <v>79</v>
+      </c>
+      <c r="L3">
+        <v>3100</v>
+      </c>
+      <c r="M3" t="s">
+        <v>287</v>
+      </c>
+      <c r="N3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>87</v>
       </c>
       <c r="R3" t="str">
         <f>"RADAR2:" &amp; A3 &amp; ":" &amp; B3 &amp; ":" &amp; C3 &amp; ":" &amp; D3 &amp; ":" &amp; E3 &amp; ":" &amp; F3 &amp; ":" &amp; G3 &amp; ":" &amp; H3 &amp; ":" &amp; I3 &amp; ":" &amp; J3 &amp; ":" &amp; K3 &amp; ":" &amp; L3</f>
-        <v>RADAR2:Belfast City:N054.36.56.016:W005.52.55.000:::::::::</v>
+        <v>RADAR2:Belfast City:N054.36.56.016:W005.52.55.000:60:79:3100:72:79:3100:117:79:3100</v>
       </c>
       <c r="S3" t="str">
         <f>"RADAR:" &amp; A3 &amp; CHAR(10) &amp;
@@ -2776,12 +2760,13 @@
 "RANGE:" &amp; D3</f>
         <v>RADAR:Belfast City
 POSITIONS:
+EGAC:BEL
 LOCATION:N054.36.56.016:W005.52.55.000
-ALTITUDE:
-BEAMWIDTH:
-PULSEWIDTH:
-MAXANGLE:
-RANGE:</v>
+ALTITUDE:79
+BEAMWIDTH:2.3
+PULSEWIDTH:1
+MAXANGLE:87
+RANGE:60</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -2789,17 +2774,59 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
+      <c r="D4">
+        <v>160</v>
+      </c>
+      <c r="E4">
+        <v>265</v>
+      </c>
+      <c r="F4">
+        <v>3100</v>
+      </c>
+      <c r="G4">
+        <v>177</v>
+      </c>
+      <c r="H4">
+        <v>265</v>
+      </c>
+      <c r="I4">
+        <v>3100</v>
+      </c>
+      <c r="J4">
+        <v>300</v>
+      </c>
+      <c r="K4">
+        <v>265</v>
+      </c>
+      <c r="L4">
+        <v>3100</v>
+      </c>
+      <c r="M4" t="s">
+        <v>288</v>
+      </c>
+      <c r="N4">
+        <v>1.25</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>87</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="R4" t="str">
-        <f t="shared" ref="R4:R24" si="0">"RADAR2:" &amp; A4 &amp; ":" &amp; B4 &amp; ":" &amp; C4 &amp; ":" &amp; D4 &amp; ":" &amp; E4 &amp; ":" &amp; F4 &amp; ":" &amp; G4 &amp; ":" &amp; H4 &amp; ":" &amp; I4 &amp; ":" &amp; J4 &amp; ":" &amp; K4 &amp; ":" &amp; L4</f>
-        <v>RADAR2:Belfast International:N054.39.21.000:W006.12.22.000:::::::::</v>
+        <f t="shared" ref="R4:R23" si="0">"RADAR2:" &amp; A4 &amp; ":" &amp; B4 &amp; ":" &amp; C4 &amp; ":" &amp; D4 &amp; ":" &amp; E4 &amp; ":" &amp; F4 &amp; ":" &amp; G4 &amp; ":" &amp; H4 &amp; ":" &amp; I4 &amp; ":" &amp; J4 &amp; ":" &amp; K4 &amp; ":" &amp; L4</f>
+        <v>RADAR2:Belfast International:N054.39.21.000:W006.12.22.000:160:265:3100:177:265:3100:300:265:3100</v>
       </c>
       <c r="S4" t="str">
-        <f t="shared" ref="S4:S26" si="1">"RADAR:" &amp; A4 &amp; CHAR(10) &amp;
+        <f t="shared" ref="S4:S29" si="1">"RADAR:" &amp; A4 &amp; CHAR(10) &amp;
 "POSITIONS:SCO:STC:EGPD" &amp; CHAR(10) &amp;
 "LOCATION:" &amp; B4 &amp; ":" &amp; C4 &amp; CHAR(10) &amp;
 "ALTITUDE:" &amp; E4 &amp; CHAR(10) &amp;
@@ -2810,598 +2837,1194 @@
         <v>RADAR:Belfast International
 POSITIONS:SCO:STC:EGPD
 LOCATION:N054.39.21.000:W006.12.22.000
-ALTITUDE:
-BEAMWIDTH:
-PULSEWIDTH:
-MAXANGLE:
+ALTITUDE:265
+BEAMWIDTH:1.25
+PULSEWIDTH:1
+MAXANGLE:87
 RANGE:0:60</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
+      <c r="D5">
+        <v>60</v>
+      </c>
+      <c r="E5">
+        <v>462</v>
+      </c>
+      <c r="F5">
+        <v>3100</v>
+      </c>
+      <c r="G5">
+        <v>72</v>
+      </c>
+      <c r="H5">
+        <v>462</v>
+      </c>
+      <c r="I5">
+        <v>3100</v>
+      </c>
+      <c r="J5">
+        <v>117</v>
+      </c>
+      <c r="K5">
+        <v>462</v>
+      </c>
+      <c r="L5">
+        <v>3100</v>
+      </c>
+      <c r="M5" t="s">
+        <v>289</v>
+      </c>
+      <c r="N5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>87</v>
+      </c>
       <c r="R5" t="str">
         <f t="shared" si="0"/>
-        <v>RADAR2:Birmingham:N052.27.16.992:W001.45.23.000:::::::::</v>
+        <v>RADAR2:Birmingham:N052.27.16.992:W001.45.23.000:60:462:3100:72:462:3100:117:462:3100</v>
       </c>
       <c r="S5" t="str">
         <f t="shared" si="1"/>
         <v>RADAR:Birmingham
 POSITIONS:SCO:STC:EGPD
 LOCATION:N052.27.16.992:W001.45.23.000
-ALTITUDE:
-BEAMWIDTH:
-PULSEWIDTH:
-MAXANGLE:
+ALTITUDE:462
+BEAMWIDTH:2.3
+PULSEWIDTH:1
+MAXANGLE:87
 RANGE:0:60</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>108</v>
+      </c>
+      <c r="D6">
+        <v>60</v>
+      </c>
+      <c r="E6">
+        <v>76</v>
+      </c>
+      <c r="F6">
+        <v>3100</v>
+      </c>
+      <c r="G6">
+        <v>72</v>
+      </c>
+      <c r="H6">
+        <v>76</v>
+      </c>
+      <c r="I6">
+        <v>3100</v>
+      </c>
+      <c r="J6">
+        <v>117</v>
+      </c>
+      <c r="K6">
+        <v>76</v>
+      </c>
+      <c r="L6">
+        <v>3100</v>
+      </c>
+      <c r="M6" t="s">
+        <v>290</v>
+      </c>
+      <c r="N6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>87</v>
       </c>
       <c r="R6" t="str">
         <f t="shared" si="0"/>
-        <v>RADAR2:Bournemouth:N050.46.59.000:W001.50.35.000:::::::::</v>
+        <v>RADAR2:Bournemouth:N050.46.59.000:W001.50.35.000:60:76:3100:72:76:3100:117:76:3100</v>
       </c>
       <c r="S6" t="str">
         <f t="shared" si="1"/>
         <v>RADAR:Bournemouth
 POSITIONS:SCO:STC:EGPD
 LOCATION:N050.46.59.000:W001.50.35.000
-ALTITUDE:
-BEAMWIDTH:
-PULSEWIDTH:
-MAXANGLE:
+ALTITUDE:76
+BEAMWIDTH:2.3
+PULSEWIDTH:1
+MAXANGLE:87
 RANGE:0:60</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
       </c>
+      <c r="D7">
+        <v>60</v>
+      </c>
+      <c r="E7">
+        <v>630</v>
+      </c>
+      <c r="F7">
+        <v>3100</v>
+      </c>
+      <c r="G7">
+        <v>72</v>
+      </c>
+      <c r="H7">
+        <v>630</v>
+      </c>
+      <c r="I7">
+        <v>3100</v>
+      </c>
+      <c r="J7">
+        <v>117</v>
+      </c>
+      <c r="K7">
+        <v>630</v>
+      </c>
+      <c r="L7">
+        <v>3100</v>
+      </c>
+      <c r="M7" t="s">
+        <v>292</v>
+      </c>
+      <c r="N7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>87</v>
+      </c>
       <c r="R7" t="str">
         <f t="shared" si="0"/>
-        <v>RADAR2:Bristol:N051.22.46.992:W002.43.03.000:::::::::</v>
+        <v>RADAR2:Bristol:N051.22.46.992:W002.43.03.000:60:630:3100:72:630:3100:117:630:3100</v>
       </c>
       <c r="S7" t="str">
         <f t="shared" si="1"/>
         <v>RADAR:Bristol
 POSITIONS:SCO:STC:EGPD
 LOCATION:N051.22.46.992:W002.43.03.000
-ALTITUDE:
-BEAMWIDTH:
-PULSEWIDTH:
-MAXANGLE:
+ALTITUDE:630
+BEAMWIDTH:2.3
+PULSEWIDTH:1
+MAXANGLE:87
 RANGE:0:60</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>293</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>294</v>
+      </c>
+      <c r="D8">
+        <v>60</v>
+      </c>
+      <c r="E8">
+        <v>297</v>
+      </c>
+      <c r="F8">
+        <v>3100</v>
+      </c>
+      <c r="G8">
+        <v>72</v>
+      </c>
+      <c r="H8">
+        <v>297</v>
+      </c>
+      <c r="I8">
+        <v>3100</v>
+      </c>
+      <c r="J8">
+        <v>117</v>
+      </c>
+      <c r="K8">
+        <v>297</v>
+      </c>
+      <c r="L8">
+        <v>3100</v>
+      </c>
+      <c r="M8" t="s">
+        <v>295</v>
+      </c>
+      <c r="N8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>87</v>
       </c>
       <c r="R8" t="str">
         <f t="shared" si="0"/>
-        <v>RADAR2:Cambridge:N052.12.03.000:E000.10.39.000:::::::::</v>
+        <v>RADAR2:Cambridge:N052.12.22.300:E000.10.00.260:60:297:3100:72:297:3100:117:297:3100</v>
       </c>
       <c r="S8" t="str">
         <f t="shared" si="1"/>
         <v>RADAR:Cambridge
 POSITIONS:SCO:STC:EGPD
-LOCATION:N052.12.03.000:E000.10.39.000
-ALTITUDE:
-BEAMWIDTH:
-PULSEWIDTH:
-MAXANGLE:
+LOCATION:N052.12.22.300:E000.10.00.260
+ALTITUDE:297
+BEAMWIDTH:2.3
+PULSEWIDTH:1
+MAXANGLE:87
 RANGE:0:60</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="D9">
+        <v>60</v>
+      </c>
+      <c r="E9">
+        <v>290</v>
+      </c>
+      <c r="F9">
+        <v>3100</v>
+      </c>
+      <c r="G9">
+        <v>72</v>
+      </c>
+      <c r="H9">
+        <v>290</v>
+      </c>
+      <c r="I9">
+        <v>3100</v>
+      </c>
+      <c r="J9">
+        <v>117</v>
+      </c>
+      <c r="K9">
+        <v>290</v>
+      </c>
+      <c r="L9">
+        <v>3100</v>
+      </c>
+      <c r="M9" t="s">
+        <v>296</v>
+      </c>
+      <c r="N9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>87</v>
       </c>
       <c r="R9" t="str">
         <f t="shared" si="0"/>
-        <v>RADAR2:Cardiff:N051.23.39.012:W003.21.09.000:::::::::</v>
+        <v>RADAR2:Cardiff:N051.23.39.012:W003.21.09.000:60:290:3100:72:290:3100:117:290:3100</v>
       </c>
       <c r="S9" t="str">
         <f t="shared" si="1"/>
         <v>RADAR:Cardiff
 POSITIONS:SCO:STC:EGPD
 LOCATION:N051.23.39.012:W003.21.09.000
-ALTITUDE:
-BEAMWIDTH:
-PULSEWIDTH:
-MAXANGLE:
+ALTITUDE:290
+BEAMWIDTH:2.3
+PULSEWIDTH:1
+MAXANGLE:87
 RANGE:0:60</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="Q10" s="1" t="s">
-        <v>269</v>
+      <c r="D10">
+        <v>60</v>
+      </c>
+      <c r="E10">
+        <v>330</v>
+      </c>
+      <c r="F10">
+        <v>3100</v>
+      </c>
+      <c r="G10">
+        <v>72</v>
+      </c>
+      <c r="H10">
+        <v>330</v>
+      </c>
+      <c r="I10">
+        <v>3100</v>
+      </c>
+      <c r="J10">
+        <v>117</v>
+      </c>
+      <c r="K10">
+        <v>330</v>
+      </c>
+      <c r="L10">
+        <v>3100</v>
+      </c>
+      <c r="M10" t="s">
+        <v>297</v>
+      </c>
+      <c r="N10">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>87</v>
+      </c>
+      <c r="R10" t="str">
+        <f t="shared" si="0"/>
+        <v>RADAR2:East Midlands:N052.50.00.000:W001.19.52.000:60:330:3100:72:330:3100:117:330:3100</v>
+      </c>
+      <c r="S10" t="str">
+        <f t="shared" si="1"/>
+        <v>RADAR:East Midlands
+POSITIONS:SCO:STC:EGPD
+LOCATION:N052.50.00.000:W001.19.52.000
+ALTITUDE:330
+BEAMWIDTH:2.3
+PULSEWIDTH:1
+MAXANGLE:87
+RANGE:0:60</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>60</v>
+      </c>
+      <c r="E11">
+        <v>170</v>
+      </c>
+      <c r="F11">
+        <v>3100</v>
+      </c>
+      <c r="G11">
+        <v>72</v>
+      </c>
+      <c r="H11">
+        <v>170</v>
+      </c>
+      <c r="I11">
+        <v>3100</v>
+      </c>
+      <c r="J11">
+        <v>117</v>
+      </c>
+      <c r="K11">
+        <v>170</v>
+      </c>
+      <c r="L11">
+        <v>3100</v>
+      </c>
+      <c r="M11" t="s">
+        <v>298</v>
+      </c>
+      <c r="N11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>87</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="R11" t="str">
         <f t="shared" si="0"/>
-        <v>RADAR2:East Midlands:N052.50.00.000:W001.19.52.000:::::::::</v>
+        <v>RADAR2:Edinburgh:N055.57.05.000:W003.22.45.000:60:170:3100:72:170:3100:117:170:3100</v>
       </c>
       <c r="S11" t="str">
         <f t="shared" si="1"/>
-        <v>RADAR:East Midlands
-POSITIONS:SCO:STC:EGPD
-LOCATION:N052.50.00.000:W001.19.52.000
-ALTITUDE:
-BEAMWIDTH:
-PULSEWIDTH:
-MAXANGLE:
+        <v>RADAR:Edinburgh
+POSITIONS:SCO:STC:EGPD
+LOCATION:N055.57.05.000:W003.22.45.000
+ALTITUDE:170
+BEAMWIDTH:2.3
+PULSEWIDTH:1
+MAXANGLE:87
 RANGE:0:60</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E12">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="F12">
         <v>3100</v>
       </c>
       <c r="G12">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="H12">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="I12">
         <v>3100</v>
       </c>
       <c r="J12">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="K12">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="L12">
         <v>3100</v>
       </c>
-      <c r="Q12" s="1" t="s">
-        <v>244</v>
+      <c r="M12" t="s">
+        <v>299</v>
+      </c>
+      <c r="N12">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>87</v>
       </c>
       <c r="R12" t="str">
         <f t="shared" si="0"/>
-        <v>RADAR2:Edinburgh:N055.57.05.000:W003.22.45.000:40:170:3100:60:170:3100:80:170:3100</v>
+        <v>RADAR2:Exeter:N050.43.49.008:W003.25.02.000:60:145:3100:72:145:3100:117:145:3100</v>
       </c>
       <c r="S12" t="str">
         <f t="shared" si="1"/>
-        <v>RADAR:Edinburgh
-POSITIONS:SCO:STC:EGPD
-LOCATION:N055.57.05.000:W003.22.45.000
-ALTITUDE:170
-BEAMWIDTH:
-PULSEWIDTH:
-MAXANGLE:
+        <v>RADAR:Exeter
+POSITIONS:SCO:STC:EGPD
+LOCATION:N050.43.49.008:W003.25.02.000
+ALTITUDE:145
+BEAMWIDTH:2.3
+PULSEWIDTH:1
+MAXANGLE:87
 RANGE:0:60</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="D13">
+        <v>60</v>
+      </c>
+      <c r="E13">
+        <v>297</v>
+      </c>
+      <c r="F13">
+        <v>3100</v>
+      </c>
+      <c r="G13">
+        <v>72</v>
+      </c>
+      <c r="H13">
+        <v>297</v>
+      </c>
+      <c r="I13">
+        <v>3100</v>
+      </c>
+      <c r="J13">
+        <v>117</v>
+      </c>
+      <c r="K13">
+        <v>297</v>
+      </c>
+      <c r="L13">
+        <v>3100</v>
+      </c>
+      <c r="M13" t="s">
+        <v>301</v>
+      </c>
+      <c r="N13">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>87</v>
       </c>
       <c r="R13" t="str">
         <f t="shared" si="0"/>
-        <v>RADAR2:Exeter:N050.43.49.008:W003.25.02.000:::::::::</v>
+        <v>RADAR2:Farnborough:N051.16.52.000:W000.46.26.000:60:297:3100:72:297:3100:117:297:3100</v>
       </c>
       <c r="S13" t="str">
         <f t="shared" si="1"/>
-        <v>RADAR:Exeter
-POSITIONS:SCO:STC:EGPD
-LOCATION:N050.43.49.008:W003.25.02.000
-ALTITUDE:
-BEAMWIDTH:
-PULSEWIDTH:
-MAXANGLE:
+        <v>RADAR:Farnborough
+POSITIONS:SCO:STC:EGPD
+LOCATION:N051.16.52.000:W000.46.26.000
+ALTITUDE:297
+BEAMWIDTH:2.3
+PULSEWIDTH:1
+MAXANGLE:87
 RANGE:0:60</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="D14">
+        <v>60</v>
+      </c>
+      <c r="E14">
+        <v>255</v>
+      </c>
+      <c r="F14">
+        <v>3100</v>
+      </c>
+      <c r="G14">
+        <v>72</v>
+      </c>
+      <c r="H14">
+        <v>255</v>
+      </c>
+      <c r="I14">
+        <v>3100</v>
+      </c>
+      <c r="J14">
+        <v>117</v>
+      </c>
+      <c r="K14">
+        <v>255</v>
+      </c>
+      <c r="L14">
+        <v>3100</v>
+      </c>
+      <c r="M14" t="s">
+        <v>315</v>
+      </c>
+      <c r="N14">
+        <v>1.4</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>87</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="R14" t="str">
-        <f t="shared" si="0"/>
-        <v>RADAR2:Farnborough:N051.16.52.000:W000.46.26.000:::::::::</v>
+        <f>"RADAR2:" &amp; A14 &amp; ":" &amp; B14 &amp; ":" &amp; C14 &amp; ":" &amp; D14 &amp; ":" &amp; E14 &amp; ":" &amp; F14 &amp; ":" &amp; G14 &amp; ":" &amp; H14 &amp; ":" &amp; I14 &amp; ":" &amp; J14 &amp; ":" &amp; K14 &amp; ":" &amp; L14</f>
+        <v>RADAR2:Gatwick:N051.08.46.000:W000.10.38.000:60:255:3100:72:255:3100:117:255:3100</v>
       </c>
       <c r="S14" t="str">
-        <f t="shared" si="1"/>
-        <v>RADAR:Farnborough
-POSITIONS:SCO:STC:EGPD
-LOCATION:N051.16.52.000:W000.46.26.000
-ALTITUDE:
-BEAMWIDTH:
-PULSEWIDTH:
-MAXANGLE:
+        <f>"RADAR:" &amp; A14 &amp; CHAR(10) &amp;
+"POSITIONS:SCO:STC:EGPD" &amp; CHAR(10) &amp;
+"LOCATION:" &amp; B14 &amp; ":" &amp; C14 &amp; CHAR(10) &amp;
+"ALTITUDE:" &amp; E14 &amp; CHAR(10) &amp;
+"BEAMWIDTH:" &amp; N14 &amp; CHAR(10) &amp;
+"PULSEWIDTH:" &amp; O14 &amp; CHAR(10) &amp;
+"MAXANGLE:" &amp; P14 &amp; CHAR(10) &amp;
+"RANGE:0:60"</f>
+        <v>RADAR:Gatwick
+POSITIONS:SCO:STC:EGPD
+LOCATION:N051.08.46.000:W000.10.38.000
+ALTITUDE:255
+BEAMWIDTH:1.4
+PULSEWIDTH:1
+MAXANGLE:87
 RANGE:0:60</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="B15" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="D15">
         <v>60</v>
       </c>
       <c r="E15">
-        <v>255</v>
+        <v>75</v>
       </c>
       <c r="F15">
+        <v>3100</v>
+      </c>
+      <c r="G15">
+        <v>72</v>
+      </c>
+      <c r="H15">
+        <v>75</v>
+      </c>
+      <c r="I15">
         <v>3100</v>
       </c>
       <c r="J15">
         <v>117</v>
       </c>
       <c r="K15">
-        <v>255</v>
+        <v>75</v>
       </c>
       <c r="L15">
         <v>3100</v>
       </c>
+      <c r="M15" t="s">
+        <v>306</v>
+      </c>
+      <c r="N15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>87</v>
+      </c>
       <c r="Q15" s="1" t="s">
-        <v>244</v>
+        <v>300</v>
       </c>
       <c r="R15" t="str">
-        <f>"RADAR2:" &amp; A15 &amp; ":" &amp; B15 &amp; ":" &amp; C15 &amp; ":" &amp; D15 &amp; ":" &amp; E15 &amp; ":" &amp; F15 &amp; ":" &amp; G15 &amp; ":" &amp; H15 &amp; ":" &amp; I15 &amp; ":" &amp; J15 &amp; ":" &amp; K15 &amp; ":" &amp; L15</f>
-        <v>RADAR2:Gatwick:N051.08.46.000:W000.10.38.000:60:255:3100::::117:255:3100</v>
+        <f t="shared" si="0"/>
+        <v>RADAR2:Glasgow:N055.52.29.000:W004.26.08.000:60:75:3100:72:75:3100:117:75:3100</v>
       </c>
       <c r="S15" t="str">
-        <f>"RADAR:" &amp; A15 &amp; CHAR(10) &amp;
-"POSITIONS:SCO:STC:EGPD" &amp; CHAR(10) &amp;
-"LOCATION:" &amp; B15 &amp; ":" &amp; C15 &amp; CHAR(10) &amp;
-"ALTITUDE:" &amp; E15 &amp; CHAR(10) &amp;
-"BEAMWIDTH:" &amp; N15 &amp; CHAR(10) &amp;
-"PULSEWIDTH:" &amp; O15 &amp; CHAR(10) &amp;
-"MAXANGLE:" &amp; P15 &amp; CHAR(10) &amp;
-"RANGE:0:60"</f>
-        <v>RADAR:Gatwick
-POSITIONS:SCO:STC:EGPD
-LOCATION:N051.08.46.000:W000.10.38.000
-ALTITUDE:255
-BEAMWIDTH:
-PULSEWIDTH:
-MAXANGLE:
+        <f t="shared" si="1"/>
+        <v>RADAR:Glasgow
+POSITIONS:SCO:STC:EGPD
+LOCATION:N055.52.29.000:W004.26.08.000
+ALTITUDE:75
+BEAMWIDTH:2.3
+PULSEWIDTH:1
+MAXANGLE:87
 RANGE:0:60</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="B16" t="s">
-        <v>129</v>
+        <v>303</v>
       </c>
       <c r="C16" t="s">
-        <v>111</v>
+        <v>304</v>
       </c>
       <c r="D16">
         <v>60</v>
       </c>
       <c r="E16">
-        <v>75</v>
+        <v>353</v>
       </c>
       <c r="F16">
         <v>3100</v>
       </c>
       <c r="G16">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H16">
-        <v>75</v>
+        <v>353</v>
       </c>
       <c r="I16">
         <v>3100</v>
       </c>
       <c r="J16">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K16">
-        <v>75</v>
+        <v>353</v>
       </c>
       <c r="L16">
         <v>3100</v>
       </c>
-      <c r="Q16" s="1" t="s">
-        <v>244</v>
+      <c r="M16" t="s">
+        <v>305</v>
+      </c>
+      <c r="N16">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>87</v>
       </c>
       <c r="R16" t="str">
         <f t="shared" si="0"/>
-        <v>RADAR2:Glasgow:N055.52.29.000:W004.26.08.000:60:75:3100:70:75:3100:120:75:3100</v>
+        <v>RADAR2:Guernsey:N049.26.15.410:W002.35.54.920:60:353:3100:72:353:3100:117:353:3100</v>
       </c>
       <c r="S16" t="str">
         <f t="shared" si="1"/>
-        <v>RADAR:Glasgow
-POSITIONS:SCO:STC:EGPD
-LOCATION:N055.52.29.000:W004.26.08.000
-ALTITUDE:75
-BEAMWIDTH:
-PULSEWIDTH:
-MAXANGLE:
+        <v>RADAR:Guernsey
+POSITIONS:SCO:STC:EGPD
+LOCATION:N049.26.15.410:W002.35.54.920
+ALTITUDE:353
+BEAMWIDTH:2.3
+PULSEWIDTH:1
+MAXANGLE:87
 RANGE:0:60</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>262</v>
+        <v>269</v>
+      </c>
+      <c r="B17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17">
+        <v>60</v>
+      </c>
+      <c r="E17">
+        <v>59</v>
+      </c>
+      <c r="F17">
+        <v>3100</v>
+      </c>
+      <c r="G17">
+        <v>72</v>
+      </c>
+      <c r="H17">
+        <v>59</v>
+      </c>
+      <c r="I17">
+        <v>3100</v>
+      </c>
+      <c r="J17">
+        <v>117</v>
+      </c>
+      <c r="K17">
+        <v>59</v>
+      </c>
+      <c r="L17">
+        <v>3100</v>
+      </c>
+      <c r="M17" t="s">
+        <v>307</v>
+      </c>
+      <c r="N17">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>87</v>
+      </c>
+      <c r="R17" t="str">
+        <f t="shared" si="0"/>
+        <v>RADAR2:Hawarden:N053.10.35.000:W002.59.09.000:60:59:3100:72:59:3100:117:59:3100</v>
+      </c>
+      <c r="S17" t="str">
+        <f t="shared" si="1"/>
+        <v>RADAR:Hawarden
+POSITIONS:SCO:STC:EGPD
+LOCATION:N053.10.35.000:W002.59.09.000
+ALTITUDE:59
+BEAMWIDTH:2.3
+PULSEWIDTH:1
+MAXANGLE:87
+RANGE:0:60</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B18" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="D18">
+        <v>60</v>
+      </c>
+      <c r="E18">
+        <v>145</v>
+      </c>
+      <c r="F18">
+        <v>3100</v>
+      </c>
+      <c r="G18">
+        <v>72</v>
+      </c>
+      <c r="H18">
+        <v>145</v>
+      </c>
+      <c r="I18">
+        <v>3100</v>
+      </c>
+      <c r="J18">
+        <v>117</v>
+      </c>
+      <c r="K18">
+        <v>145</v>
+      </c>
+      <c r="L18">
+        <v>3100</v>
+      </c>
+      <c r="M18" t="s">
+        <v>316</v>
+      </c>
+      <c r="N18">
+        <v>1.4</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>87</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="R18" t="str">
-        <f t="shared" si="0"/>
-        <v>RADAR2:Hawarden:N053.10.35.000:W002.59.09.000:::::::::</v>
+        <f>"RADAR2:" &amp; A18 &amp; ":" &amp; B18 &amp; ":" &amp; C18 &amp; ":" &amp; D18 &amp; ":" &amp; E18 &amp; ":" &amp; F18 &amp; ":" &amp; G18 &amp; ":" &amp; H18 &amp; ":" &amp; I18 &amp; ":" &amp; J18 &amp; ":" &amp; K18 &amp; ":" &amp; L18</f>
+        <v>RADAR2:Heathrow:N051.27.38.000:W000.26.22.000:60:145:3100:72:145:3100:117:145:3100</v>
       </c>
       <c r="S18" t="str">
-        <f t="shared" si="1"/>
-        <v>RADAR:Hawarden
-POSITIONS:SCO:STC:EGPD
-LOCATION:N053.10.35.000:W002.59.09.000
-ALTITUDE:
-BEAMWIDTH:
-PULSEWIDTH:
-MAXANGLE:
+        <f>"RADAR:" &amp; A18 &amp; CHAR(10) &amp;
+"POSITIONS:SCO:STC:EGPD" &amp; CHAR(10) &amp;
+"LOCATION:" &amp; B18 &amp; ":" &amp; C18 &amp; CHAR(10) &amp;
+"ALTITUDE:" &amp; E18 &amp; CHAR(10) &amp;
+"BEAMWIDTH:" &amp; N18 &amp; CHAR(10) &amp;
+"PULSEWIDTH:" &amp; O18 &amp; CHAR(10) &amp;
+"MAXANGLE:" &amp; P18 &amp; CHAR(10) &amp;
+"RANGE:0:60"</f>
+        <v>RADAR:Heathrow
+POSITIONS:SCO:STC:EGPD
+LOCATION:N051.27.38.000:W000.26.22.000
+ALTITUDE:145
+BEAMWIDTH:1.4
+PULSEWIDTH:1
+MAXANGLE:87
 RANGE:0:60</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>284</v>
+        <v>187</v>
       </c>
       <c r="B19" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D19">
         <v>60</v>
       </c>
       <c r="E19">
-        <v>145</v>
+        <v>30</v>
       </c>
       <c r="F19">
         <v>3100</v>
       </c>
-      <c r="G19">
-        <v>70</v>
-      </c>
-      <c r="H19">
-        <v>145</v>
-      </c>
-      <c r="I19">
-        <v>3100</v>
-      </c>
-      <c r="J19">
+      <c r="M19" t="s">
+        <v>252</v>
+      </c>
+      <c r="N19">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>87</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>270</v>
+      </c>
+      <c r="B20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20">
+        <v>60</v>
+      </c>
+      <c r="E20">
+        <v>105</v>
+      </c>
+      <c r="F20">
+        <v>3100</v>
+      </c>
+      <c r="G20">
+        <v>72</v>
+      </c>
+      <c r="H20">
+        <v>105</v>
+      </c>
+      <c r="I20">
+        <v>3100</v>
+      </c>
+      <c r="J20">
         <v>117</v>
       </c>
-      <c r="K19">
-        <v>145</v>
-      </c>
-      <c r="L19">
-        <v>3100</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="R19" t="str">
-        <f>"RADAR2:" &amp; A19 &amp; ":" &amp; B19 &amp; ":" &amp; C19 &amp; ":" &amp; D19 &amp; ":" &amp; E19 &amp; ":" &amp; F19 &amp; ":" &amp; G19 &amp; ":" &amp; H19 &amp; ":" &amp; I19 &amp; ":" &amp; J19 &amp; ":" &amp; K19 &amp; ":" &amp; L19</f>
-        <v>RADAR2:Heathrow:N051.27.38.000:W000.26.22.000:60:145:3100:70:145:3100:117:145:3100</v>
-      </c>
-      <c r="S19" t="str">
-        <f>"RADAR:" &amp; A19 &amp; CHAR(10) &amp;
-"POSITIONS:SCO:STC:EGPD" &amp; CHAR(10) &amp;
-"LOCATION:" &amp; B19 &amp; ":" &amp; C19 &amp; CHAR(10) &amp;
-"ALTITUDE:" &amp; E19 &amp; CHAR(10) &amp;
-"BEAMWIDTH:" &amp; N19 &amp; CHAR(10) &amp;
-"PULSEWIDTH:" &amp; O19 &amp; CHAR(10) &amp;
-"MAXANGLE:" &amp; P19 &amp; CHAR(10) &amp;
-"RANGE:0:60"</f>
-        <v>RADAR:Heathrow
-POSITIONS:SCO:STC:EGPD
-LOCATION:N051.27.38.000:W000.26.22.000
-ALTITUDE:145
-BEAMWIDTH:
-PULSEWIDTH:
-MAXANGLE:
-RANGE:0:60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="4">
-        <v>60</v>
-      </c>
-      <c r="E20" s="4">
-        <v>30</v>
-      </c>
-      <c r="F20" s="4">
-        <v>3100</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="N20" s="4">
-        <v>1.4</v>
-      </c>
-      <c r="O20" s="4">
+      <c r="K20">
+        <v>105</v>
+      </c>
+      <c r="L20">
+        <v>3100</v>
+      </c>
+      <c r="M20" t="s">
+        <v>308</v>
+      </c>
+      <c r="N20">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O20">
         <v>1</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P20">
         <v>87</v>
       </c>
-      <c r="Q20" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="S20" s="6"/>
+      <c r="R20" t="str">
+        <f t="shared" si="0"/>
+        <v>RADAR2:Humberside:N053.34.49.000:W000.20.29.000:60:105:3100:72:105:3100:117:105:3100</v>
+      </c>
+      <c r="S20" t="str">
+        <f t="shared" si="1"/>
+        <v>RADAR:Humberside
+POSITIONS:SCO:STC:EGPD
+LOCATION:N053.34.49.000:W000.20.29.000
+ALTITUDE:105
+BEAMWIDTH:2.3
+PULSEWIDTH:1
+MAXANGLE:87
+RANGE:0:60</v>
+      </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B21" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="D21">
+        <v>60</v>
+      </c>
+      <c r="E21">
+        <v>56</v>
+      </c>
+      <c r="F21">
+        <v>3100</v>
+      </c>
+      <c r="G21">
+        <v>72</v>
+      </c>
+      <c r="H21">
+        <v>56</v>
+      </c>
+      <c r="I21">
+        <v>3100</v>
+      </c>
+      <c r="J21">
+        <v>117</v>
+      </c>
+      <c r="K21">
+        <v>56</v>
+      </c>
+      <c r="L21">
+        <v>3100</v>
+      </c>
+      <c r="M21" t="s">
+        <v>309</v>
+      </c>
+      <c r="N21">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>87</v>
       </c>
       <c r="R21" t="str">
         <f t="shared" si="0"/>
-        <v>RADAR2:Humberside:N053.34.49.000:W000.20.29.000:::::::::</v>
+        <v>RADAR2:Inverness:N057.32.48.012:W004.02.50.000:60:56:3100:72:56:3100:117:56:3100</v>
       </c>
       <c r="S21" t="str">
         <f t="shared" si="1"/>
-        <v>RADAR:Humberside
-POSITIONS:SCO:STC:EGPD
-LOCATION:N053.34.49.000:W000.20.29.000
-ALTITUDE:
-BEAMWIDTH:
-PULSEWIDTH:
-MAXANGLE:
+        <v>RADAR:Inverness
+POSITIONS:SCO:STC:EGPD
+LOCATION:N057.32.48.012:W004.02.50.000
+ALTITUDE:56
+BEAMWIDTH:2.3
+PULSEWIDTH:1
+MAXANGLE:87
 RANGE:0:60</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="B22" t="s">
-        <v>133</v>
+        <v>239</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>240</v>
+      </c>
+      <c r="D22">
+        <v>60</v>
+      </c>
+      <c r="E22">
+        <v>305</v>
+      </c>
+      <c r="F22">
+        <v>3100</v>
+      </c>
+      <c r="G22">
+        <v>72</v>
+      </c>
+      <c r="H22">
+        <v>315</v>
+      </c>
+      <c r="I22">
+        <v>3100</v>
+      </c>
+      <c r="J22">
+        <v>117</v>
+      </c>
+      <c r="K22">
+        <v>315</v>
+      </c>
+      <c r="L22">
+        <v>3100</v>
+      </c>
+      <c r="M22" t="s">
+        <v>310</v>
+      </c>
+      <c r="N22">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>87</v>
       </c>
       <c r="R22" t="str">
         <f t="shared" si="0"/>
-        <v>RADAR2:Inverness:N057.32.48.012:W004.02.50.000:::::::::</v>
+        <v>RADAR2:Jersey:N049.12.14.070:W002.12.08.750:60:305:3100:72:315:3100:117:315:3100</v>
       </c>
       <c r="S22" t="str">
         <f t="shared" si="1"/>
-        <v>RADAR:Inverness
-POSITIONS:SCO:STC:EGPD
-LOCATION:N057.32.48.012:W004.02.50.000
-ALTITUDE:
-BEAMWIDTH:
-PULSEWIDTH:
-MAXANGLE:
+        <v>RADAR:Jersey
+POSITIONS:SCO:STC:EGPD
+LOCATION:N049.12.14.070:W002.12.08.750
+ALTITUDE:305
+BEAMWIDTH:2.3
+PULSEWIDTH:1
+MAXANGLE:87
 RANGE:0:60</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="B23" t="s">
-        <v>246</v>
+        <v>130</v>
       </c>
       <c r="C23" t="s">
-        <v>247</v>
+        <v>32</v>
       </c>
       <c r="D23">
         <v>60</v>
       </c>
       <c r="E23">
-        <v>305</v>
+        <v>696</v>
       </c>
       <c r="F23">
         <v>3100</v>
@@ -3410,7 +4033,7 @@
         <v>72</v>
       </c>
       <c r="H23">
-        <v>315</v>
+        <v>696</v>
       </c>
       <c r="I23">
         <v>3100</v>
@@ -3419,202 +4042,556 @@
         <v>117</v>
       </c>
       <c r="K23">
-        <v>315</v>
+        <v>696</v>
       </c>
       <c r="L23">
         <v>3100</v>
       </c>
-      <c r="Q23" s="1" t="s">
-        <v>244</v>
+      <c r="M23" t="s">
+        <v>311</v>
+      </c>
+      <c r="N23">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>87</v>
       </c>
       <c r="R23" t="str">
         <f t="shared" si="0"/>
-        <v>RADAR2:Jersey:N049.12.14.070:W002.12.08.750:60:305:3100:72:315:3100:117:315:3100</v>
+        <v>RADAR2:Leeds:N053.51.52.000:W001.39.10.000:60:696:3100:72:696:3100:117:696:3100</v>
       </c>
       <c r="S23" t="str">
         <f t="shared" si="1"/>
-        <v>RADAR:Jersey
-POSITIONS:SCO:STC:EGPD
-LOCATION:N049.12.14.070:W002.12.08.750
-ALTITUDE:305
-BEAMWIDTH:
-PULSEWIDTH:
-MAXANGLE:
+        <v>RADAR:Leeds
+POSITIONS:SCO:STC:EGPD
+LOCATION:N053.51.52.000:W001.39.10.000
+ALTITUDE:696
+BEAMWIDTH:2.3
+PULSEWIDTH:1
+MAXANGLE:87
 RANGE:0:60</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B24" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="D24">
+        <v>60</v>
+      </c>
+      <c r="E24">
+        <v>92</v>
+      </c>
+      <c r="F24">
+        <v>3100</v>
+      </c>
+      <c r="G24">
+        <v>72</v>
+      </c>
+      <c r="H24">
+        <v>92</v>
+      </c>
+      <c r="I24">
+        <v>3100</v>
+      </c>
+      <c r="J24">
+        <v>117</v>
+      </c>
+      <c r="K24">
+        <v>92</v>
+      </c>
+      <c r="L24">
+        <v>3100</v>
+      </c>
+      <c r="M24" t="s">
+        <v>312</v>
+      </c>
+      <c r="N24">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>87</v>
       </c>
       <c r="R24" t="str">
-        <f t="shared" si="0"/>
-        <v>RADAR2:Leeds:N053.51.52.000:W001.39.10.000:::::::::</v>
+        <f t="shared" ref="R24:R31" si="2">"RADAR2:" &amp; A24 &amp; ":" &amp; B24 &amp; ":" &amp; C24 &amp; ":" &amp; D24 &amp; ":" &amp; E24 &amp; ":" &amp; F24 &amp; ":" &amp; G24 &amp; ":" &amp; H24 &amp; ":" &amp; I24 &amp; ":" &amp; J24 &amp; ":" &amp; K24 &amp; ":" &amp; L24</f>
+        <v>RADAR2:Liverpool:N053.19.52.000:W002.51.32.000:60:92:3100:72:92:3100:117:92:3100</v>
       </c>
       <c r="S24" t="str">
         <f t="shared" si="1"/>
-        <v>RADAR:Leeds
-POSITIONS:SCO:STC:EGPD
-LOCATION:N053.51.52.000:W001.39.10.000
-ALTITUDE:
-BEAMWIDTH:
-PULSEWIDTH:
-MAXANGLE:
+        <v>RADAR:Liverpool
+POSITIONS:SCO:STC:EGPD
+LOCATION:N053.19.52.000:W002.51.32.000
+ALTITUDE:92
+BEAMWIDTH:2.3
+PULSEWIDTH:1
+MAXANGLE:87
 RANGE:0:60</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="D25">
+        <v>60</v>
+      </c>
+      <c r="E25">
+        <v>231</v>
+      </c>
+      <c r="F25">
+        <v>3100</v>
+      </c>
+      <c r="G25">
+        <v>72</v>
+      </c>
+      <c r="H25">
+        <v>231</v>
+      </c>
+      <c r="I25">
+        <v>3100</v>
+      </c>
+      <c r="J25">
+        <v>117</v>
+      </c>
+      <c r="K25">
+        <v>231</v>
+      </c>
+      <c r="L25">
+        <v>3100</v>
+      </c>
+      <c r="M25" t="s">
+        <v>313</v>
+      </c>
+      <c r="N25">
+        <v>1.4</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>87</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="R25" t="str">
-        <f t="shared" ref="R25:R32" si="2">"RADAR2:" &amp; A25 &amp; ":" &amp; B25 &amp; ":" &amp; C25 &amp; ":" &amp; D25 &amp; ":" &amp; E25 &amp; ":" &amp; F25 &amp; ":" &amp; G25 &amp; ":" &amp; H25 &amp; ":" &amp; I25 &amp; ":" &amp; J25 &amp; ":" &amp; K25 &amp; ":" &amp; L25</f>
-        <v>RADAR2:Liverpool:N053.19.52.000:W002.51.32.000:::::::::</v>
+        <f t="shared" si="2"/>
+        <v>RADAR2:Manchester:N053.20.26.000:W002.16.58.000:60:231:3100:72:231:3100:117:231:3100</v>
       </c>
       <c r="S25" t="str">
         <f t="shared" si="1"/>
-        <v>RADAR:Liverpool
-POSITIONS:SCO:STC:EGPD
-LOCATION:N053.19.52.000:W002.51.32.000
-ALTITUDE:
-BEAMWIDTH:
-PULSEWIDTH:
-MAXANGLE:
+        <v>RADAR:Manchester
+POSITIONS:SCO:STC:EGPD
+LOCATION:N053.20.26.000:W002.16.58.000
+ALTITUDE:231
+BEAMWIDTH:1.4
+PULSEWIDTH:1
+MAXANGLE:87
 RANGE:0:60</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B26" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D26">
         <v>60</v>
       </c>
       <c r="E26">
-        <v>231</v>
+        <v>320</v>
       </c>
       <c r="F26">
+        <v>3100</v>
+      </c>
+      <c r="G26">
+        <v>72</v>
+      </c>
+      <c r="H26">
+        <v>320</v>
+      </c>
+      <c r="I26">
         <v>3100</v>
       </c>
       <c r="J26">
         <v>117</v>
       </c>
       <c r="K26">
-        <v>231</v>
+        <v>320</v>
       </c>
       <c r="L26">
         <v>3100</v>
       </c>
-      <c r="Q26" s="1" t="s">
-        <v>244</v>
+      <c r="M26" t="s">
+        <v>314</v>
+      </c>
+      <c r="N26">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>87</v>
       </c>
       <c r="R26" t="str">
         <f t="shared" si="2"/>
-        <v>RADAR2:Manchester:N053.20.26.000:W002.16.58.000:60:231:3100::::117:231:3100</v>
+        <v>RADAR2:Newcastle:N055.02.27.000:W001.41.27.000:60:320:3100:72:320:3100:117:320:3100</v>
       </c>
       <c r="S26" t="str">
         <f t="shared" si="1"/>
-        <v>RADAR:Manchester
-POSITIONS:SCO:STC:EGPD
-LOCATION:N053.20.26.000:W002.16.58.000
-ALTITUDE:231
-BEAMWIDTH:
-PULSEWIDTH:
-MAXANGLE:
+        <v>RADAR:Newcastle
+POSITIONS:SCO:STC:EGPD
+LOCATION:N055.02.27.000:W001.41.27.000
+ALTITUDE:320
+BEAMWIDTH:2.3
+PULSEWIDTH:1
+MAXANGLE:87
 RANGE:0:60</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B27" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="D27">
+        <v>60</v>
+      </c>
+      <c r="E27">
+        <v>336</v>
+      </c>
+      <c r="F27">
+        <v>3100</v>
+      </c>
+      <c r="G27">
+        <v>72</v>
+      </c>
+      <c r="H27">
+        <v>336</v>
+      </c>
+      <c r="I27">
+        <v>3100</v>
+      </c>
+      <c r="J27">
+        <v>117</v>
+      </c>
+      <c r="K27">
+        <v>336</v>
+      </c>
+      <c r="L27">
+        <v>3100</v>
+      </c>
+      <c r="M27" t="s">
+        <v>317</v>
+      </c>
+      <c r="N27">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>87</v>
       </c>
       <c r="R27" t="str">
         <f t="shared" si="2"/>
-        <v>RADAR2:Newcastle:N055.02.27.000:W001.41.27.000:::::::::</v>
+        <v>RADAR2:Newquay:N050.26.33.000:W005.00.35.000:60:336:3100:72:336:3100:117:336:3100</v>
+      </c>
+      <c r="S27" t="str">
+        <f t="shared" si="1"/>
+        <v>RADAR:Newquay
+POSITIONS:SCO:STC:EGPD
+LOCATION:N050.26.33.000:W005.00.35.000
+ALTITUDE:336
+BEAMWIDTH:2.3
+PULSEWIDTH:1
+MAXANGLE:87
+RANGE:0:60</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B28" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="D28">
+        <v>60</v>
+      </c>
+      <c r="E28">
+        <v>158</v>
+      </c>
+      <c r="F28">
+        <v>3100</v>
+      </c>
+      <c r="G28">
+        <v>72</v>
+      </c>
+      <c r="H28">
+        <v>158</v>
+      </c>
+      <c r="I28">
+        <v>3100</v>
+      </c>
+      <c r="J28">
+        <v>117</v>
+      </c>
+      <c r="K28">
+        <v>158</v>
+      </c>
+      <c r="L28">
+        <v>3100</v>
+      </c>
+      <c r="M28" t="s">
+        <v>318</v>
+      </c>
+      <c r="N28">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>87</v>
       </c>
       <c r="R28" t="str">
         <f t="shared" si="2"/>
-        <v>RADAR2:Newquay:N050.26.33.000:W005.00.35.000:::::::::</v>
+        <v>RADAR2:Norwich:N052.40.18.000:E001.16.52.000:60:158:3100:72:158:3100:117:158:3100</v>
+      </c>
+      <c r="S28" t="str">
+        <f t="shared" si="1"/>
+        <v>RADAR:Norwich
+POSITIONS:SCO:STC:EGPD
+LOCATION:N052.40.18.000:E001.16.52.000
+ALTITUDE:158
+BEAMWIDTH:2.3
+PULSEWIDTH:1
+MAXANGLE:87
+RANGE:0:60</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B29" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="D29">
+        <v>60</v>
+      </c>
+      <c r="E29">
+        <v>327</v>
+      </c>
+      <c r="F29">
+        <v>3100</v>
+      </c>
+      <c r="G29">
+        <v>72</v>
+      </c>
+      <c r="H29">
+        <v>327</v>
+      </c>
+      <c r="I29">
+        <v>3100</v>
+      </c>
+      <c r="J29">
+        <v>117</v>
+      </c>
+      <c r="K29">
+        <v>327</v>
+      </c>
+      <c r="L29">
+        <v>3100</v>
+      </c>
+      <c r="M29" t="s">
+        <v>319</v>
+      </c>
+      <c r="N29">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>87</v>
       </c>
       <c r="R29" t="str">
         <f t="shared" si="2"/>
-        <v>RADAR2:Norwich:N052.40.18.000:E001.16.52.000:::::::::</v>
+        <v>RADAR2:Oxford:N051.50.15.000:W001.19.39.000:60:327:3100:72:327:3100:117:327:3100</v>
+      </c>
+      <c r="S29" t="str">
+        <f t="shared" si="1"/>
+        <v>RADAR:Oxford
+POSITIONS:SCO:STC:EGPD
+LOCATION:N051.50.15.000:W001.19.39.000
+ALTITUDE:327
+BEAMWIDTH:2.3
+PULSEWIDTH:1
+MAXANGLE:87
+RANGE:0:60</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="B30" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>28</v>
+      </c>
+      <c r="D30">
+        <v>60</v>
+      </c>
+      <c r="E30">
+        <v>132</v>
+      </c>
+      <c r="F30">
+        <v>3100</v>
+      </c>
+      <c r="G30">
+        <v>72</v>
+      </c>
+      <c r="H30">
+        <v>132</v>
+      </c>
+      <c r="I30">
+        <v>3100</v>
+      </c>
+      <c r="J30">
+        <v>117</v>
+      </c>
+      <c r="K30">
+        <v>132</v>
+      </c>
+      <c r="L30">
+        <v>3100</v>
+      </c>
+      <c r="M30" t="s">
+        <v>320</v>
+      </c>
+      <c r="N30">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>87</v>
       </c>
       <c r="R30" t="str">
-        <f t="shared" si="2"/>
-        <v>RADAR2:Oxford:N051.50.15.000:W001.19.39.000:::::::::</v>
+        <f>"RADAR2:" &amp; A30 &amp; ":" &amp; B30 &amp; ":" &amp; C30 &amp; ":" &amp; D30 &amp; ":" &amp; E30 &amp; ":" &amp; F30 &amp; ":" &amp; G30 &amp; ":" &amp; H30 &amp; ":" &amp; I30 &amp; ":" &amp; J30 &amp; ":" &amp; K30 &amp; ":" &amp; L30</f>
+        <v>RADAR2:Prestwick:N055.30.04.000:W004.35.00.000:60:132:3100:72:132:3100:117:132:3100</v>
+      </c>
+      <c r="S30" t="str">
+        <f>"RADAR:" &amp; A30 &amp; CHAR(10) &amp;
+"POSITIONS:SCO:STC:EGPD" &amp; CHAR(10) &amp;
+"LOCATION:" &amp; B30 &amp; ":" &amp; C30 &amp; CHAR(10) &amp;
+"ALTITUDE:" &amp; E30 &amp; CHAR(10) &amp;
+"BEAMWIDTH:" &amp; N30 &amp; CHAR(10) &amp;
+"PULSEWIDTH:" &amp; O30 &amp; CHAR(10) &amp;
+"MAXANGLE:" &amp; P30 &amp; CHAR(10) &amp;
+"RANGE:0:60"</f>
+        <v>RADAR:Prestwick
+POSITIONS:SCO:STC:EGPD
+LOCATION:N055.30.04.000:W004.35.00.000
+ALTITUDE:132
+BEAMWIDTH:2.3
+PULSEWIDTH:1
+MAXANGLE:87
+RANGE:0:60</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B31" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>43</v>
+      </c>
+      <c r="D31">
+        <v>60</v>
+      </c>
+      <c r="E31">
+        <v>59</v>
+      </c>
+      <c r="F31">
+        <v>3100</v>
+      </c>
+      <c r="G31">
+        <v>72</v>
+      </c>
+      <c r="H31">
+        <v>59</v>
+      </c>
+      <c r="I31">
+        <v>3100</v>
+      </c>
+      <c r="J31">
+        <v>117</v>
+      </c>
+      <c r="K31">
+        <v>59</v>
+      </c>
+      <c r="L31">
+        <v>3100</v>
+      </c>
+      <c r="M31" t="s">
+        <v>321</v>
+      </c>
+      <c r="N31">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>87</v>
       </c>
       <c r="R31" t="str">
-        <f>"RADAR2:" &amp; A31 &amp; ":" &amp; B31 &amp; ":" &amp; C31 &amp; ":" &amp; D31 &amp; ":" &amp; E31 &amp; ":" &amp; F31 &amp; ":" &amp; G31 &amp; ":" &amp; H31 &amp; ":" &amp; I31 &amp; ":" &amp; J31 &amp; ":" &amp; K31 &amp; ":" &amp; L31</f>
-        <v>RADAR2:Prestwick:N055.30.04.000:W004.35.00.000:::::::::</v>
+        <f t="shared" si="2"/>
+        <v>RADAR2:Southampton:N050.57.00.000:W001.21.10.000:60:59:3100:72:59:3100:117:59:3100</v>
       </c>
       <c r="S31" t="str">
         <f>"RADAR:" &amp; A31 &amp; CHAR(10) &amp;
@@ -3625,44 +4602,140 @@
 "PULSEWIDTH:" &amp; O31 &amp; CHAR(10) &amp;
 "MAXANGLE:" &amp; P31 &amp; CHAR(10) &amp;
 "RANGE:0:60"</f>
-        <v>RADAR:Prestwick
-POSITIONS:SCO:STC:EGPD
-LOCATION:N055.30.04.000:W004.35.00.000
-ALTITUDE:
-BEAMWIDTH:
-PULSEWIDTH:
-MAXANGLE:
+        <v>RADAR:Southampton
+POSITIONS:SCO:STC:EGPD
+LOCATION:N050.57.00.000:W001.21.10.000
+ALTITUDE:59
+BEAMWIDTH:2.3
+PULSEWIDTH:1
+MAXANGLE:87
 RANGE:0:60</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="B32" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>36</v>
+      </c>
+      <c r="D32">
+        <v>60</v>
+      </c>
+      <c r="E32">
+        <v>96</v>
+      </c>
+      <c r="F32">
+        <v>3100</v>
+      </c>
+      <c r="G32">
+        <v>72</v>
+      </c>
+      <c r="H32">
+        <v>96</v>
+      </c>
+      <c r="I32">
+        <v>3100</v>
+      </c>
+      <c r="J32">
+        <v>117</v>
+      </c>
+      <c r="K32">
+        <v>96</v>
+      </c>
+      <c r="L32">
+        <v>3100</v>
+      </c>
+      <c r="M32" t="s">
+        <v>322</v>
+      </c>
+      <c r="N32">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>87</v>
       </c>
       <c r="R32" t="str">
-        <f t="shared" si="2"/>
-        <v>RADAR2:Southampton:N050.57.00.000:W001.21.10.000:::::::::</v>
+        <f>"RADAR2:" &amp; A32 &amp; ":" &amp; B32 &amp; ":" &amp; C32 &amp; ":" &amp; D32 &amp; ":" &amp; E32 &amp; ":" &amp; F32 &amp; ":" &amp; G32 &amp; ":" &amp; H32 &amp; ":" &amp; I32 &amp; ":" &amp; J32 &amp; ":" &amp; K32 &amp; ":" &amp; L32</f>
+        <v>RADAR2:Southend:N051.34.08.000:E000.42.02.000:60:96:3100:72:96:3100:117:96:3100</v>
+      </c>
+      <c r="S32" t="str">
+        <f>"RADAR:" &amp; A32 &amp; CHAR(10) &amp;
+"POSITIONS:SCO:STC:EGPD" &amp; CHAR(10) &amp;
+"LOCATION:" &amp; B32 &amp; ":" &amp; C32 &amp; CHAR(10) &amp;
+"ALTITUDE:" &amp; E32 &amp; CHAR(10) &amp;
+"BEAMWIDTH:" &amp; N32 &amp; CHAR(10) &amp;
+"PULSEWIDTH:" &amp; O32 &amp; CHAR(10) &amp;
+"MAXANGLE:" &amp; P32 &amp; CHAR(10) &amp;
+"RANGE:0:60"</f>
+        <v>RADAR:Southend
+POSITIONS:SCO:STC:EGPD
+LOCATION:N051.34.08.000:E000.42.02.000
+ALTITUDE:96
+BEAMWIDTH:2.3
+PULSEWIDTH:1
+MAXANGLE:87
+RANGE:0:60</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B33" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="D33">
+        <v>60</v>
+      </c>
+      <c r="E33">
+        <v>408</v>
+      </c>
+      <c r="F33">
+        <v>3100</v>
+      </c>
+      <c r="G33">
+        <v>72</v>
+      </c>
+      <c r="H33">
+        <v>408</v>
+      </c>
+      <c r="I33">
+        <v>3100</v>
+      </c>
+      <c r="J33">
+        <v>117</v>
+      </c>
+      <c r="K33">
+        <v>408</v>
+      </c>
+      <c r="L33">
+        <v>3100</v>
+      </c>
+      <c r="M33" t="s">
+        <v>323</v>
+      </c>
+      <c r="N33">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>87</v>
       </c>
       <c r="R33" t="str">
         <f>"RADAR2:" &amp; A33 &amp; ":" &amp; B33 &amp; ":" &amp; C33 &amp; ":" &amp; D33 &amp; ":" &amp; E33 &amp; ":" &amp; F33 &amp; ":" &amp; G33 &amp; ":" &amp; H33 &amp; ":" &amp; I33 &amp; ":" &amp; J33 &amp; ":" &amp; K33 &amp; ":" &amp; L33</f>
-        <v>RADAR2:Southend:N051.34.08.000:E000.42.02.000:::::::::</v>
+        <v>RADAR2:Stansted:N051.53.13.000:E000.13.49.000:60:408:3100:72:408:3100:117:408:3100</v>
       </c>
       <c r="S33" t="str">
         <f>"RADAR:" &amp; A33 &amp; CHAR(10) &amp;
@@ -3673,47 +4746,68 @@
 "PULSEWIDTH:" &amp; O33 &amp; CHAR(10) &amp;
 "MAXANGLE:" &amp; P33 &amp; CHAR(10) &amp;
 "RANGE:0:60"</f>
-        <v>RADAR:Southend
-POSITIONS:SCO:STC:EGPD
-LOCATION:N051.34.08.000:E000.42.02.000
-ALTITUDE:
-BEAMWIDTH:
-PULSEWIDTH:
-MAXANGLE:
+        <v>RADAR:Stansted
+POSITIONS:SCO:STC:EGPD
+LOCATION:N051.53.13.000:E000.13.49.000
+ALTITUDE:408
+BEAMWIDTH:2.3
+PULSEWIDTH:1
+MAXANGLE:87
 RANGE:0:60</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B34" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D34">
         <v>60</v>
       </c>
       <c r="E34">
-        <v>408</v>
+        <v>234</v>
       </c>
       <c r="F34">
+        <v>3100</v>
+      </c>
+      <c r="G34">
+        <v>72</v>
+      </c>
+      <c r="H34">
+        <v>234</v>
+      </c>
+      <c r="I34">
         <v>3100</v>
       </c>
       <c r="J34">
         <v>117</v>
       </c>
       <c r="K34">
-        <v>408</v>
+        <v>234</v>
       </c>
       <c r="L34">
         <v>3100</v>
+      </c>
+      <c r="M34" t="s">
+        <v>324</v>
+      </c>
+      <c r="N34">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>87</v>
       </c>
       <c r="R34" t="str">
         <f>"RADAR2:" &amp; A34 &amp; ":" &amp; B34 &amp; ":" &amp; C34 &amp; ":" &amp; D34 &amp; ":" &amp; E34 &amp; ":" &amp; F34 &amp; ":" &amp; G34 &amp; ":" &amp; H34 &amp; ":" &amp; I34 &amp; ":" &amp; J34 &amp; ":" &amp; K34 &amp; ":" &amp; L34</f>
-        <v>RADAR2:Stansted:N051.53.13.000:E000.13.49.000:60:408:3100::::117:408:3100</v>
+        <v>RADAR2:Sumburgh:N059.52.04.000:W001.16.23.000:60:234:3100:72:234:3100:117:234:3100</v>
       </c>
       <c r="S34" t="str">
         <f>"RADAR:" &amp; A34 &amp; CHAR(10) &amp;
@@ -3724,57 +4818,85 @@
 "PULSEWIDTH:" &amp; O34 &amp; CHAR(10) &amp;
 "MAXANGLE:" &amp; P34 &amp; CHAR(10) &amp;
 "RANGE:0:60"</f>
-        <v>RADAR:Stansted
-POSITIONS:SCO:STC:EGPD
-LOCATION:N051.53.13.000:E000.13.49.000
-ALTITUDE:408
-BEAMWIDTH:
-PULSEWIDTH:
-MAXANGLE:
+        <v>RADAR:Sumburgh
+POSITIONS:SCO:STC:EGPD
+LOCATION:N059.52.04.000:W001.16.23.000
+ALTITUDE:234
+BEAMWIDTH:2.3
+PULSEWIDTH:1
+MAXANGLE:87
 RANGE:0:60</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="B35" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>271</v>
-      </c>
-      <c r="B36" t="s">
-        <v>124</v>
-      </c>
-      <c r="C36" t="s">
-        <v>25</v>
-      </c>
-      <c r="R36" t="str">
-        <f>"RADAR2:" &amp; A36 &amp; ":" &amp; B36 &amp; ":" &amp; C36 &amp; ":" &amp; D36 &amp; ":" &amp; E36 &amp; ":" &amp; F36 &amp; ":" &amp; G36 &amp; ":" &amp; H36 &amp; ":" &amp; I36 &amp; ":" &amp; J36 &amp; ":" &amp; K36 &amp; ":" &amp; L36</f>
-        <v>RADAR2:Teesside:N054.30.42.000:W001.24.42.000:::::::::</v>
-      </c>
-      <c r="S36" t="str">
-        <f>"RADAR:" &amp; A36 &amp; CHAR(10) &amp;
+        <v>23</v>
+      </c>
+      <c r="D35">
+        <v>60</v>
+      </c>
+      <c r="E35">
+        <v>158</v>
+      </c>
+      <c r="F35">
+        <v>3100</v>
+      </c>
+      <c r="G35">
+        <v>72</v>
+      </c>
+      <c r="H35">
+        <v>158</v>
+      </c>
+      <c r="I35">
+        <v>3100</v>
+      </c>
+      <c r="J35">
+        <v>117</v>
+      </c>
+      <c r="K35">
+        <v>158</v>
+      </c>
+      <c r="L35">
+        <v>3100</v>
+      </c>
+      <c r="M35" t="s">
+        <v>325</v>
+      </c>
+      <c r="N35">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>87</v>
+      </c>
+      <c r="R35" t="str">
+        <f>"RADAR2:" &amp; A35 &amp; ":" &amp; B35 &amp; ":" &amp; C35 &amp; ":" &amp; D35 &amp; ":" &amp; E35 &amp; ":" &amp; F35 &amp; ":" &amp; G35 &amp; ":" &amp; H35 &amp; ":" &amp; I35 &amp; ":" &amp; J35 &amp; ":" &amp; K35 &amp; ":" &amp; L35</f>
+        <v>RADAR2:Teesside:N054.30.42.000:W001.24.42.000:60:158:3100:72:158:3100:117:158:3100</v>
+      </c>
+      <c r="S35" t="str">
+        <f>"RADAR:" &amp; A35 &amp; CHAR(10) &amp;
 "POSITIONS:SCO:STC:EGPD" &amp; CHAR(10) &amp;
-"LOCATION:" &amp; B36 &amp; ":" &amp; C36 &amp; CHAR(10) &amp;
-"ALTITUDE:" &amp; E36 &amp; CHAR(10) &amp;
-"BEAMWIDTH:" &amp; N36 &amp; CHAR(10) &amp;
-"PULSEWIDTH:" &amp; O36 &amp; CHAR(10) &amp;
-"MAXANGLE:" &amp; P36 &amp; CHAR(10) &amp;
+"LOCATION:" &amp; B35 &amp; ":" &amp; C35 &amp; CHAR(10) &amp;
+"ALTITUDE:" &amp; E35 &amp; CHAR(10) &amp;
+"BEAMWIDTH:" &amp; N35 &amp; CHAR(10) &amp;
+"PULSEWIDTH:" &amp; O35 &amp; CHAR(10) &amp;
+"MAXANGLE:" &amp; P35 &amp; CHAR(10) &amp;
 "RANGE:0:60"</f>
         <v>RADAR:Teesside
 POSITIONS:SCO:STC:EGPD
 LOCATION:N054.30.42.000:W001.24.42.000
-ALTITUDE:
-BEAMWIDTH:
-PULSEWIDTH:
-MAXANGLE:
+ALTITUDE:158
+BEAMWIDTH:2.3
+PULSEWIDTH:1
+MAXANGLE:87
 RANGE:0:60</v>
       </c>
     </row>
@@ -3792,7 +4914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
@@ -3820,16 +4942,16 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -3840,7 +4962,7 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
@@ -3848,13 +4970,13 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -3884,36 +5006,36 @@
         <v>11</v>
       </c>
       <c r="M2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="N2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="O2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="P2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="R2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="S2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R3" t="str">
         <f>"RADAR2:" &amp; A3 &amp; ":" &amp; B3 &amp; ":" &amp; C3 &amp; ":" &amp; D3 &amp; ":" &amp; E3 &amp; ":" &amp; F3 &amp; ":" &amp; G3 &amp; ":" &amp; H3 &amp; ":" &amp; I3 &amp; ":" &amp; J3 &amp; ":" &amp; K3 &amp; ":" &amp; L3</f>
@@ -3940,13 +5062,13 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R4" t="str">
         <f t="shared" ref="R4:R31" si="0">"RADAR2:" &amp; A4 &amp; ":" &amp; B4 &amp; ":" &amp; C4 &amp; ":" &amp; D4 &amp; ":" &amp; E4 &amp; ":" &amp; F4 &amp; ":" &amp; G4 &amp; ":" &amp; H4 &amp; ":" &amp; I4 &amp; ":" &amp; J4 &amp; ":" &amp; K4 &amp; ":" &amp; L4</f>
@@ -3973,13 +5095,13 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R5" t="str">
         <f t="shared" si="0"/>
@@ -3999,13 +5121,13 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="R6" t="str">
         <f t="shared" si="0"/>
@@ -4025,13 +5147,13 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="R7" t="str">
         <f t="shared" si="0"/>
@@ -4051,13 +5173,13 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="R8" t="str">
         <f t="shared" si="0"/>
@@ -4077,13 +5199,13 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="R9" t="str">
         <f t="shared" si="0"/>
@@ -4103,13 +5225,13 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="R10" t="str">
         <f t="shared" si="0"/>
@@ -4129,13 +5251,13 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R11" t="str">
         <f t="shared" si="0"/>
@@ -4155,13 +5277,13 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="R12" t="str">
         <f t="shared" si="0"/>
@@ -4181,13 +5303,13 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="R13" t="str">
         <f t="shared" si="0"/>
@@ -4207,13 +5329,13 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="R14" t="str">
         <f>"RADAR2:" &amp; A14 &amp; ":" &amp; B14 &amp; ":" &amp; C14 &amp; ":" &amp; D14 &amp; ":" &amp; E14 &amp; ":" &amp; F14 &amp; ":" &amp; G14 &amp; ":" &amp; H14 &amp; ":" &amp; I14 &amp; ":" &amp; J14 &amp; ":" &amp; K14 &amp; ":" &amp; L14</f>
@@ -4240,13 +5362,13 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="R15" t="str">
         <f t="shared" si="0"/>
@@ -4273,13 +5395,13 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R16" t="str">
         <f t="shared" si="0"/>
@@ -4306,13 +5428,13 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R17" t="str">
         <f t="shared" si="0"/>
@@ -4332,13 +5454,13 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="R18" t="str">
         <f t="shared" si="0"/>
@@ -4358,28 +5480,14 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B19" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C19" t="s">
-        <v>115</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="5"/>
+        <v>113</v>
+      </c>
       <c r="R19" t="str">
         <f t="shared" si="0"/>
         <v>RADAR2:Portland:N050.33.50.000:W002.26.08.000:::::::::</v>
@@ -4398,13 +5506,13 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B20" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R20" t="str">
         <f t="shared" si="0"/>
@@ -4424,13 +5532,13 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R21" t="str">
         <f t="shared" si="0"/>
@@ -4450,13 +5558,13 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R22" t="str">
         <f t="shared" si="0"/>
@@ -4476,13 +5584,13 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B23" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R23" t="str">
         <f t="shared" si="0"/>
@@ -4502,13 +5610,13 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="R24" t="str">
         <f t="shared" si="0"/>
@@ -4528,13 +5636,13 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B25" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="R25" t="str">
         <f t="shared" si="0"/>
@@ -4554,13 +5662,13 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B26" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R26" t="str">
         <f t="shared" si="0"/>
@@ -4580,13 +5688,13 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="R27" t="str">
         <f t="shared" si="0"/>
@@ -4606,13 +5714,13 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B28" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="R28" t="str">
         <f t="shared" si="0"/>
@@ -4632,13 +5740,13 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B29" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R29" t="str">
         <f>"RADAR2:" &amp; A29 &amp; ":" &amp; B29 &amp; ":" &amp; C29 &amp; ":" &amp; D29 &amp; ":" &amp; E29 &amp; ":" &amp; F29 &amp; ":" &amp; G29 &amp; ":" &amp; H29 &amp; ":" &amp; I29 &amp; ":" &amp; J29 &amp; ":" &amp; K29 &amp; ":" &amp; L29</f>
@@ -4665,13 +5773,13 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B30" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R30" t="str">
         <f>"RADAR2:" &amp; A30 &amp; ":" &amp; B30 &amp; ":" &amp; C30 &amp; ":" &amp; D30 &amp; ":" &amp; E30 &amp; ":" &amp; F30 &amp; ":" &amp; G30 &amp; ":" &amp; H30 &amp; ":" &amp; I30 &amp; ":" &amp; J30 &amp; ":" &amp; K30 &amp; ":" &amp; L30</f>
@@ -4691,13 +5799,13 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B31" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C31" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R31" t="str">
         <f t="shared" si="0"/>
@@ -4717,13 +5825,13 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B32" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C32" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="R32" t="str">
         <f>"RADAR2:" &amp; A32 &amp; ":" &amp; B32 &amp; ":" &amp; C32 &amp; ":" &amp; D32 &amp; ":" &amp; E32 &amp; ":" &amp; F32 &amp; ":" &amp; G32 &amp; ":" &amp; H32 &amp; ":" &amp; I32 &amp; ":" &amp; J32 &amp; ":" &amp; K32 &amp; ":" &amp; L32</f>
@@ -4743,13 +5851,13 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B33" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="R33" t="str">
         <f>"RADAR2:" &amp; A33 &amp; ":" &amp; B33 &amp; ":" &amp; C33 &amp; ":" &amp; D33 &amp; ":" &amp; E33 &amp; ":" &amp; F33 &amp; ":" &amp; G33 &amp; ":" &amp; H33 &amp; ":" &amp; I33 &amp; ":" &amp; J33 &amp; ":" &amp; K33 &amp; ":" &amp; L33</f>
@@ -4769,24 +5877,24 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B34" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C34" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B35" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C35" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="R35" t="str">
         <f>"RADAR2:" &amp; A35 &amp; ":" &amp; B35 &amp; ":" &amp; C35 &amp; ":" &amp; D35 &amp; ":" &amp; E35 &amp; ":" &amp; F35 &amp; ":" &amp; G35 &amp; ":" &amp; H35 &amp; ":" &amp; I35 &amp; ":" &amp; J35 &amp; ":" &amp; K35 &amp; ":" &amp; L35</f>
